--- a/benchmarktests/testdefinitions/Benchmartktest_traject INNW 22-1.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject INNW 22-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8705C86-4078-4590-90EC-60FBB449F679}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4A779C-B0AF-4D5C-8428-C8E8F57961CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="179">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -580,6 +580,9 @@
   <si>
     <t>STKWp kw w</t>
   </si>
+  <si>
+    <t>Trajectlengte</t>
+  </si>
 </sst>
 </file>
 
@@ -1022,43 +1025,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
@@ -1096,6 +1062,43 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1180,43 +1183,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
@@ -1254,6 +1220,43 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2604,7 +2607,7 @@
   </sheetPr>
   <dimension ref="B1:K558"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B83" sqref="B83:K524"/>
     </sheetView>
   </sheetViews>
@@ -5214,7 +5217,7 @@
         <v>15.7</v>
       </c>
       <c r="D67" s="23" t="str">
-        <f t="shared" ref="D67:D130" si="1">IF(COUNTIF(E67:K67,"D")&gt;0,"D",IF(COUNTIF(E67:K67,"-III")&gt;0,"-III",IF(COUNTIF(E67:K67,"-II")&gt;0,"-II",IF(COUNTIF(E67:K67,"-I")&gt;0,"-I",IF(COUNTIF(E67:K67,"+0")&gt;0,"+0",IF(COUNTIF(E67:K67,"+I")&gt;0,"+I",IF(COUNTIF(E67:K67,"+II")&gt;0,"+II",IF(COUNTIF(E67:K67,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f t="shared" ref="D67:D82" si="1">IF(COUNTIF(E67:K67,"D")&gt;0,"D",IF(COUNTIF(E67:K67,"-III")&gt;0,"-III",IF(COUNTIF(E67:K67,"-II")&gt;0,"-II",IF(COUNTIF(E67:K67,"-I")&gt;0,"-I",IF(COUNTIF(E67:K67,"+0")&gt;0,"+0",IF(COUNTIF(E67:K67,"+I")&gt;0,"+I",IF(COUNTIF(E67:K67,"+II")&gt;0,"+II",IF(COUNTIF(E67:K67,"+III")&gt;0,"+III","ND"))))))))</f>
         <v>+I</v>
       </c>
       <c r="E67" s="9" t="str">
@@ -11293,8 +11296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11349,10 +11352,16 @@
         <v>1.111111111111111E-5</v>
       </c>
       <c r="F4" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="9">
+        <v>17.5</v>
+      </c>
       <c r="D5" s="65" t="s">
         <v>23</v>
       </c>
@@ -11396,7 +11405,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27">
         <f>E7</f>
@@ -11702,19 +11711,19 @@
         <v>5.8333333333333331E-6</v>
       </c>
       <c r="L10" s="29">
-        <f t="shared" ref="L10:L32" si="0">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(J10),J10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
+        <f t="shared" ref="L10:L25" si="0">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(J10),J10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
         <v>2.5000000000000002E-6</v>
       </c>
       <c r="M10" s="5">
-        <f t="shared" ref="M10:M32" si="1">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(K10),K10,"-"),IF(ISNUMBER(H10),H10,"-")))</f>
+        <f t="shared" ref="M10:M25" si="1">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(K10),K10,"-"),IF(ISNUMBER(H10),H10,"-")))</f>
         <v>5.8333333333333331E-6</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" ref="N10:N32" si="2">IF(ISNUMBER(L10),IF(M10=0,1,M10/L10),"-")</f>
+        <f t="shared" ref="N10:N25" si="2">IF(ISNUMBER(L10),IF(M10=0,1,M10/L10),"-")</f>
         <v>2.333333333333333</v>
       </c>
       <c r="O10" s="30" t="str">
-        <f t="shared" ref="O10:O32" si="3">IF(ISNUMBER($M10),W10,IF($X10,"D","ND"))</f>
+        <f t="shared" ref="O10:O25" si="3">IF(ISNUMBER($M10),W10,IF($X10,"D","ND"))</f>
         <v>+III</v>
       </c>
       <c r="Q10" s="31">
@@ -11826,7 +11835,7 @@
         <v>+III</v>
       </c>
       <c r="X11" s="12" t="b">
-        <f t="shared" ref="X11:X32" si="8">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
+        <f t="shared" ref="X11:X25" si="8">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -12034,19 +12043,19 @@
         <v>+III</v>
       </c>
       <c r="Q14" s="31">
-        <f t="shared" ref="Q14:Q32" si="9">IF(AND(F14="Geen faalkans",I14="Nee"),1,1-M14)</f>
+        <f t="shared" ref="Q14:Q25" si="9">IF(AND(F14="Geen faalkans",I14="Nee"),1,1-M14)</f>
         <v>0.99999633333333338</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" ref="R14:R32" si="10">IF(M14="-",1,Q14)</f>
+        <f t="shared" ref="R14:R25" si="10">IF(M14="-",1,Q14)</f>
         <v>0.99999633333333338</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" ref="S14:S32" si="11">IF(AND(F14="Geen faalkans",I14="Nee"),0,L14*$C$3)</f>
+        <f t="shared" ref="S14:S25" si="11">IF(AND(F14="Geen faalkans",I14="Nee"),0,L14*$C$3)</f>
         <v>7.2250000000000008E-5</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" ref="T14:T32" si="12">IF(L14="-",0,S14)</f>
+        <f t="shared" ref="T14:T25" si="12">IF(L14="-",0,S14)</f>
         <v>7.2250000000000008E-5</v>
       </c>
       <c r="U14" s="9">
@@ -13524,7 +13533,7 @@
         <v>+III</v>
       </c>
       <c r="X11" s="12" t="b">
-        <f t="shared" ref="X11:X32" si="8">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
+        <f t="shared" ref="X11:X28" si="8">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -13632,35 +13641,35 @@
       <c r="J13" s="10"/>
       <c r="K13" s="26"/>
       <c r="L13" s="31">
-        <f t="shared" ref="L13:L32" si="9">IF($E13="Nee",0,IF(I13="Ja",IF(ISNUMBER(J13),J13,"-"),IF(ISNUMBER(G13),G13,"-")))</f>
+        <f t="shared" ref="L13:L28" si="9">IF($E13="Nee",0,IF(I13="Ja",IF(ISNUMBER(J13),J13,"-"),IF(ISNUMBER(G13),G13,"-")))</f>
         <v>1.28899E-6</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" ref="M13:M32" si="10">IF($E13="Nee",0,IF(I13="Ja",IF(ISNUMBER(K13),K13,"-"),IF(ISNUMBER(H13),H13,"-")))</f>
+        <f t="shared" ref="M13:M28" si="10">IF($E13="Nee",0,IF(I13="Ja",IF(ISNUMBER(K13),K13,"-"),IF(ISNUMBER(H13),H13,"-")))</f>
         <v>1.9695767199999987E-6</v>
       </c>
       <c r="N13" s="11">
-        <f t="shared" ref="N13:N32" si="11">IF(ISNUMBER(L13),IF(M13=0,1,M13/L13),"-")</f>
+        <f t="shared" ref="N13:N28" si="11">IF(ISNUMBER(L13),IF(M13=0,1,M13/L13),"-")</f>
         <v>1.5279999999999989</v>
       </c>
       <c r="O13" s="32" t="str">
-        <f t="shared" ref="O13:O32" si="12">IF(ISNUMBER($M13),W13,IF($X13,"D","ND"))</f>
+        <f t="shared" ref="O13:O28" si="12">IF(ISNUMBER($M13),W13,IF($X13,"D","ND"))</f>
         <v>+III</v>
       </c>
       <c r="Q13" s="31">
-        <f t="shared" ref="Q13:Q32" si="13">IF(AND(F13="Geen faalkans",I13="Nee"),1,1-M13)</f>
+        <f t="shared" ref="Q13:Q28" si="13">IF(AND(F13="Geen faalkans",I13="Nee"),1,1-M13)</f>
         <v>0.99999803042327995</v>
       </c>
       <c r="R13" s="10">
-        <f t="shared" ref="R13:R32" si="14">IF(M13="-",1,Q13)</f>
+        <f t="shared" ref="R13:R28" si="14">IF(M13="-",1,Q13)</f>
         <v>0.99999803042327995</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" ref="S13:S32" si="15">IF(AND(F13="Geen faalkans",I13="Nee"),0,L13*$C$3)</f>
+        <f t="shared" ref="S13:S28" si="15">IF(AND(F13="Geen faalkans",I13="Nee"),0,L13*$C$3)</f>
         <v>1.9077051999999999E-5</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" ref="T13:T32" si="16">IF(L13="-",0,S13)</f>
+        <f t="shared" ref="T13:T28" si="16">IF(L13="-",0,S13)</f>
         <v>1.9077051999999999E-5</v>
       </c>
       <c r="U13" s="9">
@@ -15378,7 +15387,7 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T32" si="9">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f t="shared" ref="T11:T26" si="9">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -15534,27 +15543,27 @@
       </c>
       <c r="I14" s="26"/>
       <c r="J14" s="10">
-        <f t="shared" ref="J14:J32" si="11">IF($E14="Nee",0,IF(H14="Ja",IF(ISNUMBER(I14),I14,"-"),IF(ISNUMBER(G14),G14,"-")))</f>
+        <f t="shared" ref="J14:J26" si="11">IF($E14="Nee",0,IF(H14="Ja",IF(ISNUMBER(I14),I14,"-"),IF(ISNUMBER(G14),G14,"-")))</f>
         <v>2.1739130434782607E-6</v>
       </c>
       <c r="K14" s="32" t="str">
-        <f t="shared" ref="K14:K32" si="12">IF(ISNUMBER($J14),S14,IF($T14,"D","ND"))</f>
+        <f t="shared" ref="K14:K26" si="12">IF(ISNUMBER($J14),S14,IF($T14,"D","ND"))</f>
         <v>+III</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" ref="M14:M32" si="13">IF(AND(F14="Geen faalkans",H14="Nee"),1,1-J14)</f>
+        <f t="shared" ref="M14:M26" si="13">IF(AND(F14="Geen faalkans",H14="Nee"),1,1-J14)</f>
         <v>0.99999782608695653</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" ref="N14:N32" si="14">IF(J14="-",1,M14)</f>
+        <f t="shared" ref="N14:N26" si="14">IF(J14="-",1,M14)</f>
         <v>0.99999782608695653</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" ref="O14:O32" si="15">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
+        <f t="shared" ref="O14:O26" si="15">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
         <v>4.3478260869565214E-6</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P32" si="16">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P26" si="16">IF(J14="-",0,O14)</f>
         <v>4.3478260869565214E-6</v>
       </c>
       <c r="Q14" s="9">
@@ -26001,23 +26010,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G56">
-    <cfRule type="expression" dxfId="37" priority="5">
+    <cfRule type="expression" dxfId="43" priority="5">
       <formula>IF($E10="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I56">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="42" priority="4">
       <formula>IF($H10="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K56">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29769,23 +29778,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G56">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>IF($E10="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I56">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="20" priority="4">
       <formula>IF($H10="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K56">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject INNW 22-1.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject INNW 22-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83BE86D-5CA0-4A94-8929-FC2BDECBFE5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A3EF0-C77C-4195-B2E9-A16932DCC49F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="4170" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="8" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="179">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>+0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>-I</t>
@@ -615,7 +612,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -661,12 +658,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EDA97"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -932,10 +923,9 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2069,19 +2059,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="53" t="s">
+      <c r="E2" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="54" t="s">
         <v>74</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -2089,7 +2079,7 @@
         <v>39</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>9</v>
@@ -2103,10 +2093,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>9</v>
@@ -2120,10 +2110,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>10</v>
@@ -2132,21 +2122,21 @@
         <v>9</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>10</v>
@@ -2154,16 +2144,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>10</v>
@@ -2171,10 +2161,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>10</v>
@@ -2188,16 +2178,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>10</v>
@@ -2205,16 +2195,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>10</v>
@@ -2222,10 +2212,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>10</v>
@@ -2239,10 +2229,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>90</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>10</v>
@@ -2251,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2315,7 +2305,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
@@ -2336,7 +2326,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(H7:H12)</f>
@@ -2357,7 +2347,7 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G5" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2369,18 +2359,18 @@
         <v>30</v>
       </c>
       <c r="E6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="H6" s="35" t="s">
         <v>68</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="29">
         <f>STPH!C5</f>
@@ -2402,7 +2392,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="31">
         <f>STBI!C5</f>
@@ -2424,7 +2414,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="31">
         <f>GEKB!C5</f>
@@ -2446,7 +2436,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C5</f>
@@ -2468,7 +2458,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C5</f>
@@ -2490,7 +2480,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="31">
         <f>HTKW!C5</f>
@@ -2627,29 +2617,29 @@
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="69" t="s">
-        <v>95</v>
+      <c r="D2" s="68" t="s">
+        <v>94</v>
       </c>
       <c r="E2" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="54" t="s">
         <v>63</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -2661,11 +2651,11 @@
       </c>
       <c r="D3" s="22" t="str">
         <f t="shared" ref="D3:D66" si="0">IF(COUNTIF(E3:K3,"D")&gt;0,"D",IF(COUNTIF(E3:K3,"-III")&gt;0,"-III",IF(COUNTIF(E3:K3,"-II")&gt;0,"-II",IF(COUNTIF(E3:K3,"-I")&gt;0,"-I",IF(COUNTIF(E3:K3,"+0")&gt;0,"+0",IF(COUNTIF(E3:K3,"+I")&gt;0,"+I",IF(COUNTIF(E3:K3,"+II")&gt;0,"+II",IF(COUNTIF(E3:K3,"+III")&gt;0,"+III","ND"))))))))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="array" ref="E3">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B3,C3),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="array" ref="F3">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B3,C3),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -2673,7 +2663,7 @@
       </c>
       <c r="G3" s="4" t="str">
         <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="array" ref="H3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2701,11 +2691,11 @@
       </c>
       <c r="D4" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="array" ref="E4">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B4,C4),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F4" s="9" t="str">
         <f t="array" ref="F4">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B4,C4),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -2713,7 +2703,7 @@
       </c>
       <c r="G4" s="9" t="str">
         <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H4" s="9" t="str">
         <f t="array" ref="H4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2741,11 +2731,11 @@
       </c>
       <c r="D5" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="array" ref="E5">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B5,C5),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F5" s="9" t="str">
         <f t="array" ref="F5">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B5,C5),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -2753,7 +2743,7 @@
       </c>
       <c r="G5" s="9" t="str">
         <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H5" s="9" t="str">
         <f t="array" ref="H5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2781,11 +2771,11 @@
       </c>
       <c r="D6" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E6" s="9" t="str">
         <f t="array" ref="E6">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B6,C6),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F6" s="9" t="str">
         <f t="array" ref="F6">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B6,C6),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -2793,7 +2783,7 @@
       </c>
       <c r="G6" s="9" t="str">
         <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H6" s="9" t="str">
         <f t="array" ref="H6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2821,11 +2811,11 @@
       </c>
       <c r="D7" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E7" s="9" t="str">
         <f t="array" ref="E7">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B7,C7),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="array" ref="F7">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B7,C7),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -2833,7 +2823,7 @@
       </c>
       <c r="G7" s="9" t="str">
         <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H7" s="9" t="str">
         <f t="array" ref="H7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2841,15 +2831,15 @@
       </c>
       <c r="I7" s="9" t="str">
         <f t="array" ref="I7">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J7" s="9" t="str">
         <f t="array" ref="J7">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="array" ref="K7">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -2861,11 +2851,11 @@
       </c>
       <c r="D8" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="array" ref="E8">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B8,C8),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F8" s="9" t="str">
         <f t="array" ref="F8">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B8,C8),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -2873,7 +2863,7 @@
       </c>
       <c r="G8" s="9" t="str">
         <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H8" s="9" t="str">
         <f t="array" ref="H8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2901,19 +2891,19 @@
       </c>
       <c r="D9" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="array" ref="E9">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B9,C9),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F9" s="9" t="str">
         <f t="array" ref="F9">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B9,C9),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G9" s="9" t="str">
         <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H9" s="9" t="str">
         <f t="array" ref="H9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2921,15 +2911,15 @@
       </c>
       <c r="I9" s="9" t="str">
         <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -2941,19 +2931,19 @@
       </c>
       <c r="D10" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="array" ref="E10">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B10,C10),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F10" s="9" t="str">
         <f t="array" ref="F10">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B10,C10),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H10" s="9" t="str">
         <f t="array" ref="H10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2993,7 +2983,7 @@
       </c>
       <c r="G11" s="9" t="str">
         <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H11" s="9" t="str">
         <f t="array" ref="H11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3001,15 +2991,15 @@
       </c>
       <c r="I11" s="9" t="str">
         <f t="array" ref="I11">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="array" ref="J11">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="array" ref="K11">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -3033,7 +3023,7 @@
       </c>
       <c r="G12" s="9" t="str">
         <f t="array" ref="G12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H12" s="9" t="str">
         <f t="array" ref="H12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3073,7 +3063,7 @@
       </c>
       <c r="G13" s="9" t="str">
         <f t="array" ref="G13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H13" s="9" t="str">
         <f t="array" ref="H13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3081,15 +3071,15 @@
       </c>
       <c r="I13" s="9" t="str">
         <f t="array" ref="I13">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J13" s="9" t="str">
         <f t="array" ref="J13">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="array" ref="K13">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -3113,7 +3103,7 @@
       </c>
       <c r="G14" s="9" t="str">
         <f t="array" ref="G14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H14" s="9" t="str">
         <f t="array" ref="H14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3149,11 +3139,11 @@
       </c>
       <c r="F15" s="9" t="str">
         <f t="array" ref="F15">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B15,C15),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="G15" s="9" t="str">
         <f t="array" ref="G15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H15" s="9" t="str">
         <f t="array" ref="H15">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B15,C15),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3189,11 +3179,11 @@
       </c>
       <c r="F16" s="9" t="str">
         <f t="array" ref="F16">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B16,C16),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="G16" s="9" t="str">
         <f t="array" ref="G16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H16" s="9" t="str">
         <f t="array" ref="H16">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B16,C16),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3221,11 +3211,11 @@
       </c>
       <c r="D17" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E17" s="9" t="str">
         <f t="array" ref="E17">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B17,C17),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F17" s="9" t="str">
         <f t="array" ref="F17">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B17,C17),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -3233,7 +3223,7 @@
       </c>
       <c r="G17" s="9" t="str">
         <f t="array" ref="G17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H17" s="9" t="str">
         <f t="array" ref="H17">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B17,C17),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3261,11 +3251,11 @@
       </c>
       <c r="D18" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E18" s="9" t="str">
         <f t="array" ref="E18">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B18,C18),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F18" s="9" t="str">
         <f t="array" ref="F18">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B18,C18),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -3273,7 +3263,7 @@
       </c>
       <c r="G18" s="9" t="str">
         <f t="array" ref="G18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H18" s="9" t="str">
         <f t="array" ref="H18">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B18,C18),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3301,11 +3291,11 @@
       </c>
       <c r="D19" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E19" s="9" t="str">
         <f t="array" ref="E19">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B19,C19),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F19" s="9" t="str">
         <f t="array" ref="F19">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B19,C19),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -3313,7 +3303,7 @@
       </c>
       <c r="G19" s="9" t="str">
         <f t="array" ref="G19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H19" s="9" t="str">
         <f t="array" ref="H19">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B19,C19),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3341,11 +3331,11 @@
       </c>
       <c r="D20" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E20" s="9" t="str">
         <f t="array" ref="E20">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B20,C20),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F20" s="9" t="str">
         <f t="array" ref="F20">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B20,C20),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -3353,7 +3343,7 @@
       </c>
       <c r="G20" s="9" t="str">
         <f t="array" ref="G20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H20" s="9" t="str">
         <f t="array" ref="H20">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B20,C20),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3381,11 +3371,11 @@
       </c>
       <c r="D21" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E21" s="9" t="str">
         <f t="array" ref="E21">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B21,C21),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F21" s="9" t="str">
         <f t="array" ref="F21">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B21,C21),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -3393,7 +3383,7 @@
       </c>
       <c r="G21" s="9" t="str">
         <f t="array" ref="G21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H21" s="9" t="str">
         <f t="array" ref="H21">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B21,C21),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3401,15 +3391,15 @@
       </c>
       <c r="I21" s="9" t="str">
         <f t="array" ref="I21">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J21" s="9" t="str">
         <f t="array" ref="J21">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K21" s="12" t="str">
         <f t="array" ref="K21">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
@@ -3421,11 +3411,11 @@
       </c>
       <c r="D22" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E22" s="9" t="str">
         <f t="array" ref="E22">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B22,C22),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F22" s="9" t="str">
         <f t="array" ref="F22">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B22,C22),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -3433,7 +3423,7 @@
       </c>
       <c r="G22" s="9" t="str">
         <f t="array" ref="G22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H22" s="9" t="str">
         <f t="array" ref="H22">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B22,C22),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3461,7 +3451,7 @@
       </c>
       <c r="D23" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E23" s="9" t="str">
         <f t="array" ref="E23">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B23,C23),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -3473,7 +3463,7 @@
       </c>
       <c r="G23" s="9" t="str">
         <f t="array" ref="G23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H23" s="9" t="str">
         <f t="array" ref="H23">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B23,C23),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3501,7 +3491,7 @@
       </c>
       <c r="D24" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E24" s="9" t="str">
         <f t="array" ref="E24">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B24,C24),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -3513,7 +3503,7 @@
       </c>
       <c r="G24" s="9" t="str">
         <f t="array" ref="G24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H24" s="9" t="str">
         <f t="array" ref="H24">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B24,C24),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3521,15 +3511,15 @@
       </c>
       <c r="I24" s="9" t="str">
         <f t="array" ref="I24">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J24" s="9" t="str">
         <f t="array" ref="J24">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K24" s="12" t="str">
         <f t="array" ref="K24">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
@@ -3541,7 +3531,7 @@
       </c>
       <c r="D25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E25" s="9" t="str">
         <f t="array" ref="E25">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B25,C25),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -3553,7 +3543,7 @@
       </c>
       <c r="G25" s="9" t="str">
         <f t="array" ref="G25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H25" s="9" t="str">
         <f t="array" ref="H25">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B25,C25),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3581,7 +3571,7 @@
       </c>
       <c r="D26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E26" s="9" t="str">
         <f t="array" ref="E26">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B26,C26),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -3593,7 +3583,7 @@
       </c>
       <c r="G26" s="9" t="str">
         <f t="array" ref="G26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H26" s="9" t="str">
         <f t="array" ref="H26">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B26,C26),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3601,15 +3591,15 @@
       </c>
       <c r="I26" s="9" t="str">
         <f t="array" ref="I26">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J26" s="9" t="str">
         <f t="array" ref="J26">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K26" s="12" t="str">
         <f t="array" ref="K26">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
@@ -3621,7 +3611,7 @@
       </c>
       <c r="D27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E27" s="9" t="str">
         <f t="array" ref="E27">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B27,C27),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -3633,7 +3623,7 @@
       </c>
       <c r="G27" s="9" t="str">
         <f t="array" ref="G27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H27" s="9" t="str">
         <f t="array" ref="H27">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B27,C27),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3661,19 +3651,19 @@
       </c>
       <c r="D28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E28" s="9" t="str">
         <f t="array" ref="E28">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B28,C28),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F28" s="9" t="str">
         <f t="array" ref="F28">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B28,C28),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G28" s="9" t="str">
         <f t="array" ref="G28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H28" s="9" t="str">
         <f t="array" ref="H28">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B28,C28),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3701,19 +3691,19 @@
       </c>
       <c r="D29" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E29" s="9" t="str">
         <f t="array" ref="E29">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B29,C29),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F29" s="9" t="str">
         <f t="array" ref="F29">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B29,C29),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G29" s="9" t="str">
         <f t="array" ref="G29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H29" s="9" t="str">
         <f t="array" ref="H29">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B29,C29),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3721,15 +3711,15 @@
       </c>
       <c r="I29" s="9" t="str">
         <f t="array" ref="I29">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J29" s="9" t="str">
         <f t="array" ref="J29">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K29" s="12" t="str">
         <f t="array" ref="K29">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -3741,19 +3731,19 @@
       </c>
       <c r="D30" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E30" s="9" t="str">
         <f t="array" ref="E30">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B30,C30),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F30" s="9" t="str">
         <f t="array" ref="F30">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B30,C30),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G30" s="9" t="str">
         <f t="array" ref="G30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H30" s="9" t="str">
         <f t="array" ref="H30">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B30,C30),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3781,19 +3771,19 @@
       </c>
       <c r="D31" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E31" s="9" t="str">
         <f t="array" ref="E31">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B31,C31),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F31" s="9" t="str">
         <f t="array" ref="F31">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B31,C31),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G31" s="9" t="str">
         <f t="array" ref="G31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H31" s="9" t="str">
         <f t="array" ref="H31">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B31,C31),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3801,15 +3791,15 @@
       </c>
       <c r="I31" s="9" t="str">
         <f t="array" ref="I31">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J31" s="9" t="str">
         <f t="array" ref="J31">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K31" s="12" t="str">
         <f t="array" ref="K31">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
@@ -3821,19 +3811,19 @@
       </c>
       <c r="D32" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E32" s="9" t="str">
         <f t="array" ref="E32">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B32,C32),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F32" s="9" t="str">
         <f t="array" ref="F32">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B32,C32),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G32" s="9" t="str">
         <f t="array" ref="G32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H32" s="9" t="str">
         <f t="array" ref="H32">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B32,C32),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3861,19 +3851,19 @@
       </c>
       <c r="D33" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E33" s="9" t="str">
         <f t="array" ref="E33">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B33,C33),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F33" s="9" t="str">
         <f t="array" ref="F33">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B33,C33),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G33" s="9" t="str">
         <f t="array" ref="G33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H33" s="9" t="str">
         <f t="array" ref="H33">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B33,C33),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3901,19 +3891,19 @@
       </c>
       <c r="D34" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="E34" s="9" t="str">
         <f t="array" ref="E34">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B34,C34),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F34" s="9" t="str">
         <f t="array" ref="F34">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B34,C34),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="G34" s="9" t="str">
         <f t="array" ref="G34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H34" s="9" t="str">
         <f t="array" ref="H34">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B34,C34),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3941,19 +3931,19 @@
       </c>
       <c r="D35" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="E35" s="9" t="str">
         <f t="array" ref="E35">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B35,C35),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F35" s="9" t="str">
         <f t="array" ref="F35">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B35,C35),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="G35" s="9" t="str">
         <f t="array" ref="G35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H35" s="9" t="str">
         <f t="array" ref="H35">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B35,C35),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3961,15 +3951,15 @@
       </c>
       <c r="I35" s="9" t="str">
         <f t="array" ref="I35">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="J35" s="9" t="str">
         <f t="array" ref="J35">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="K35" s="12" t="str">
         <f t="array" ref="K35">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -3981,19 +3971,19 @@
       </c>
       <c r="D36" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="E36" s="9" t="str">
         <f t="array" ref="E36">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B36,C36),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F36" s="9" t="str">
         <f t="array" ref="F36">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B36,C36),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="G36" s="9" t="str">
         <f t="array" ref="G36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H36" s="9" t="str">
         <f t="array" ref="H36">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B36,C36),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4021,19 +4011,19 @@
       </c>
       <c r="D37" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="E37" s="9" t="str">
         <f t="array" ref="E37">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B37,C37),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F37" s="9" t="str">
         <f t="array" ref="F37">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B37,C37),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="G37" s="9" t="str">
         <f t="array" ref="G37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H37" s="9" t="str">
         <f t="array" ref="H37">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B37,C37),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4061,19 +4051,19 @@
       </c>
       <c r="D38" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="E38" s="9" t="str">
         <f t="array" ref="E38">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B38,C38),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F38" s="9" t="str">
         <f t="array" ref="F38">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B38,C38),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="G38" s="9" t="str">
         <f t="array" ref="G38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H38" s="9" t="str">
         <f t="array" ref="H38">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B38,C38),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4081,15 +4071,15 @@
       </c>
       <c r="I38" s="9" t="str">
         <f t="array" ref="I38">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="J38" s="9" t="str">
         <f t="array" ref="J38">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="K38" s="12" t="str">
         <f t="array" ref="K38">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -4101,19 +4091,19 @@
       </c>
       <c r="D39" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="E39" s="9" t="str">
         <f t="array" ref="E39">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B39,C39),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F39" s="9" t="str">
         <f t="array" ref="F39">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B39,C39),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="G39" s="9" t="str">
         <f t="array" ref="G39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H39" s="9" t="str">
         <f t="array" ref="H39">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B39,C39),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4141,19 +4131,19 @@
       </c>
       <c r="D40" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="E40" s="9" t="str">
         <f t="array" ref="E40">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B40,C40),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F40" s="9" t="str">
         <f t="array" ref="F40">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B40,C40),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="G40" s="9" t="str">
         <f t="array" ref="G40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H40" s="9" t="str">
         <f t="array" ref="H40">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B40,C40),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4161,15 +4151,15 @@
       </c>
       <c r="I40" s="9" t="str">
         <f t="array" ref="I40">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="J40" s="9" t="str">
         <f t="array" ref="J40">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K40" s="12" t="str">
         <f t="array" ref="K40">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
@@ -4181,19 +4171,19 @@
       </c>
       <c r="D41" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="E41" s="9" t="str">
         <f t="array" ref="E41">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B41,C41),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F41" s="9" t="str">
         <f t="array" ref="F41">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B41,C41),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="G41" s="9" t="str">
         <f t="array" ref="G41">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H41" s="9" t="str">
         <f t="array" ref="H41">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B41,C41),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4221,19 +4211,19 @@
       </c>
       <c r="D42" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E42" s="9" t="str">
         <f t="array" ref="E42">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B42,C42),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F42" s="9" t="str">
         <f t="array" ref="F42">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B42,C42),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G42" s="9" t="str">
         <f t="array" ref="G42">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H42" s="9" t="str">
         <f t="array" ref="H42">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B42,C42),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4261,19 +4251,19 @@
       </c>
       <c r="D43" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E43" s="9" t="str">
         <f t="array" ref="E43">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B43,C43),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F43" s="9" t="str">
         <f t="array" ref="F43">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B43,C43),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G43" s="9" t="str">
         <f t="array" ref="G43">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H43" s="9" t="str">
         <f t="array" ref="H43">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B43,C43),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4281,15 +4271,15 @@
       </c>
       <c r="I43" s="9" t="str">
         <f t="array" ref="I43">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B43,C43),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J43" s="9" t="str">
         <f t="array" ref="J43">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B43,C43),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K43" s="12" t="str">
         <f t="array" ref="K43">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B43,C43),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -4301,19 +4291,19 @@
       </c>
       <c r="D44" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E44" s="9" t="str">
         <f t="array" ref="E44">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B44,C44),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F44" s="9" t="str">
         <f t="array" ref="F44">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B44,C44),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G44" s="9" t="str">
         <f t="array" ref="G44">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H44" s="9" t="str">
         <f t="array" ref="H44">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B44,C44),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4341,19 +4331,19 @@
       </c>
       <c r="D45" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E45" s="9" t="str">
         <f t="array" ref="E45">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B45,C45),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F45" s="9" t="str">
         <f t="array" ref="F45">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B45,C45),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G45" s="9" t="str">
         <f t="array" ref="G45">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H45" s="9" t="str">
         <f t="array" ref="H45">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B45,C45),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4381,19 +4371,19 @@
       </c>
       <c r="D46" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E46" s="9" t="str">
         <f t="array" ref="E46">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B46,C46),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F46" s="9" t="str">
         <f t="array" ref="F46">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B46,C46),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G46" s="9" t="str">
         <f t="array" ref="G46">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H46" s="9" t="str">
         <f t="array" ref="H46">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B46,C46),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4401,15 +4391,15 @@
       </c>
       <c r="I46" s="9" t="str">
         <f t="array" ref="I46">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B46,C46),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J46" s="9" t="str">
         <f t="array" ref="J46">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B46,C46),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K46" s="12" t="str">
         <f t="array" ref="K46">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B46,C46),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -4421,19 +4411,19 @@
       </c>
       <c r="D47" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E47" s="9" t="str">
         <f t="array" ref="E47">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B47,C47),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F47" s="9" t="str">
         <f t="array" ref="F47">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B47,C47),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G47" s="9" t="str">
         <f t="array" ref="G47">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H47" s="9" t="str">
         <f t="array" ref="H47">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B47,C47),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4441,7 +4431,7 @@
       </c>
       <c r="I47" s="9" t="str">
         <f t="array" ref="I47">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B47,C47),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J47" s="9" t="str">
         <f t="array" ref="J47">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B47,C47),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
@@ -4461,19 +4451,19 @@
       </c>
       <c r="D48" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="array" ref="E48">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B48,C48),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F48" s="9" t="str">
         <f t="array" ref="F48">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B48,C48),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G48" s="9" t="str">
         <f t="array" ref="G48">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H48" s="9" t="str">
         <f t="array" ref="H48">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B48,C48),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4481,7 +4471,7 @@
       </c>
       <c r="I48" s="9" t="str">
         <f t="array" ref="I48">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B48,C48),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J48" s="9" t="str">
         <f t="array" ref="J48">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B48,C48),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
@@ -4501,7 +4491,7 @@
       </c>
       <c r="D49" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E49" s="9" t="str">
         <f t="array" ref="E49">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B49,C49),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4509,11 +4499,11 @@
       </c>
       <c r="F49" s="9" t="str">
         <f t="array" ref="F49">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B49,C49),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="G49" s="9" t="str">
         <f t="array" ref="G49">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H49" s="9" t="str">
         <f t="array" ref="H49">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B49,C49),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4521,7 +4511,7 @@
       </c>
       <c r="I49" s="9" t="str">
         <f t="array" ref="I49">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B49,C49),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J49" s="9" t="str">
         <f t="array" ref="J49">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B49,C49),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
@@ -4541,7 +4531,7 @@
       </c>
       <c r="D50" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E50" s="9" t="str">
         <f t="array" ref="E50">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B50,C50),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4553,7 +4543,7 @@
       </c>
       <c r="G50" s="9" t="str">
         <f t="array" ref="G50">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H50" s="9" t="str">
         <f t="array" ref="H50">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B50,C50),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4561,7 +4551,7 @@
       </c>
       <c r="I50" s="9" t="str">
         <f t="array" ref="I50">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B50,C50),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J50" s="9" t="str">
         <f t="array" ref="J50">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B50,C50),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
@@ -4581,7 +4571,7 @@
       </c>
       <c r="D51" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E51" s="9" t="str">
         <f t="array" ref="E51">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B51,C51),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4593,7 +4583,7 @@
       </c>
       <c r="G51" s="9" t="str">
         <f t="array" ref="G51">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H51" s="9" t="str">
         <f t="array" ref="H51">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B51,C51),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4601,7 +4591,7 @@
       </c>
       <c r="I51" s="9" t="str">
         <f t="array" ref="I51">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B51,C51),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J51" s="9" t="str">
         <f t="array" ref="J51">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B51,C51),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
@@ -4621,7 +4611,7 @@
       </c>
       <c r="D52" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E52" s="9" t="str">
         <f t="array" ref="E52">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B52,C52),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4633,7 +4623,7 @@
       </c>
       <c r="G52" s="9" t="str">
         <f t="array" ref="G52">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H52" s="9" t="str">
         <f t="array" ref="H52">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B52,C52),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4661,7 +4651,7 @@
       </c>
       <c r="D53" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E53" s="9" t="str">
         <f t="array" ref="E53">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B53,C53),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4673,7 +4663,7 @@
       </c>
       <c r="G53" s="9" t="str">
         <f t="array" ref="G53">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H53" s="9" t="str">
         <f t="array" ref="H53">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B53,C53),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4681,15 +4671,15 @@
       </c>
       <c r="I53" s="9" t="str">
         <f t="array" ref="I53">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B53,C53),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="J53" s="9" t="str">
         <f t="array" ref="J53">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B53,C53),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="K53" s="12" t="str">
         <f t="array" ref="K53">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B53,C53),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -4701,7 +4691,7 @@
       </c>
       <c r="D54" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E54" s="9" t="str">
         <f t="array" ref="E54">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B54,C54),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4713,7 +4703,7 @@
       </c>
       <c r="G54" s="9" t="str">
         <f t="array" ref="G54">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H54" s="9" t="str">
         <f t="array" ref="H54">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B54,C54),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4741,7 +4731,7 @@
       </c>
       <c r="D55" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E55" s="9" t="str">
         <f t="array" ref="E55">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B55,C55),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4753,7 +4743,7 @@
       </c>
       <c r="G55" s="9" t="str">
         <f t="array" ref="G55">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H55" s="9" t="str">
         <f t="array" ref="H55">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B55,C55),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4781,7 +4771,7 @@
       </c>
       <c r="D56" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E56" s="9" t="str">
         <f t="array" ref="E56">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B56,C56),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4793,7 +4783,7 @@
       </c>
       <c r="G56" s="9" t="str">
         <f t="array" ref="G56">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H56" s="9" t="str">
         <f t="array" ref="H56">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B56,C56),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4801,15 +4791,15 @@
       </c>
       <c r="I56" s="9" t="str">
         <f t="array" ref="I56">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B56,C56),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J56" s="9" t="str">
         <f t="array" ref="J56">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B56,C56),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K56" s="12" t="str">
         <f t="array" ref="K56">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B56,C56),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
@@ -4821,7 +4811,7 @@
       </c>
       <c r="D57" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E57" s="9" t="str">
         <f t="array" ref="E57">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B57,C57),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4833,7 +4823,7 @@
       </c>
       <c r="G57" s="9" t="str">
         <f t="array" ref="G57">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H57" s="9" t="str">
         <f t="array" ref="H57">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B57,C57),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4861,7 +4851,7 @@
       </c>
       <c r="D58" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="E58" s="9" t="str">
         <f t="array" ref="E58">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B58,C58),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4873,7 +4863,7 @@
       </c>
       <c r="G58" s="9" t="str">
         <f t="array" ref="G58">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H58" s="9" t="str">
         <f t="array" ref="H58">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B58,C58),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4881,15 +4871,15 @@
       </c>
       <c r="I58" s="9" t="str">
         <f t="array" ref="I58">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B58,C58),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="J58" s="9" t="str">
         <f t="array" ref="J58">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B58,C58),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="K58" s="12" t="str">
         <f t="array" ref="K58">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B58,C58),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
@@ -4901,7 +4891,7 @@
       </c>
       <c r="D59" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E59" s="9" t="str">
         <f t="array" ref="E59">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B59,C59),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4913,7 +4903,7 @@
       </c>
       <c r="G59" s="9" t="str">
         <f t="array" ref="G59">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H59" s="9" t="str">
         <f t="array" ref="H59">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B59,C59),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4941,7 +4931,7 @@
       </c>
       <c r="D60" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="E60" s="9" t="str">
         <f t="array" ref="E60">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B60,C60),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -4953,7 +4943,7 @@
       </c>
       <c r="G60" s="9" t="str">
         <f t="array" ref="G60">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H60" s="9" t="str">
         <f t="array" ref="H60">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B60,C60),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4993,7 +4983,7 @@
       </c>
       <c r="G61" s="9" t="str">
         <f t="array" ref="G61">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H61" s="9" t="str">
         <f t="array" ref="H61">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B61,C61),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5001,15 +4991,15 @@
       </c>
       <c r="I61" s="9" t="str">
         <f t="array" ref="I61">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B61,C61),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J61" s="9" t="str">
         <f t="array" ref="J61">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B61,C61),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K61" s="12" t="str">
         <f t="array" ref="K61">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B61,C61),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
@@ -5033,7 +5023,7 @@
       </c>
       <c r="G62" s="9" t="str">
         <f t="array" ref="G62">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H62" s="9" t="str">
         <f t="array" ref="H62">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B62,C62),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5041,7 +5031,7 @@
       </c>
       <c r="I62" s="9" t="str">
         <f t="array" ref="I62">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B62,C62),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J62" s="9" t="str">
         <f t="array" ref="J62">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B62,C62),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
@@ -5073,7 +5063,7 @@
       </c>
       <c r="G63" s="9" t="str">
         <f t="array" ref="G63">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H63" s="9" t="str">
         <f t="array" ref="H63">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B63,C63),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5081,7 +5071,7 @@
       </c>
       <c r="I63" s="9" t="str">
         <f t="array" ref="I63">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B63,C63),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J63" s="9" t="str">
         <f t="array" ref="J63">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B63,C63),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
@@ -5113,7 +5103,7 @@
       </c>
       <c r="G64" s="9" t="str">
         <f t="array" ref="G64">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H64" s="9" t="str">
         <f t="array" ref="H64">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B64,C64),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5121,7 +5111,7 @@
       </c>
       <c r="I64" s="9" t="str">
         <f t="array" ref="I64">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B64,C64),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J64" s="9" t="str">
         <f t="array" ref="J64">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B64,C64),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
@@ -5141,7 +5131,7 @@
       </c>
       <c r="D65" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E65" s="9" t="str">
         <f t="array" ref="E65">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B65,C65),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -5149,11 +5139,11 @@
       </c>
       <c r="F65" s="9" t="str">
         <f t="array" ref="F65">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B65,C65),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="G65" s="9" t="str">
         <f t="array" ref="G65">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H65" s="9" t="str">
         <f t="array" ref="H65">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B65,C65),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5181,7 +5171,7 @@
       </c>
       <c r="D66" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E66" s="9" t="str">
         <f t="array" ref="E66">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B66,C66),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -5189,11 +5179,11 @@
       </c>
       <c r="F66" s="9" t="str">
         <f t="array" ref="F66">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B66,C66),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="G66" s="9" t="str">
         <f t="array" ref="G66">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H66" s="9" t="str">
         <f t="array" ref="H66">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B66,C66),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5201,15 +5191,15 @@
       </c>
       <c r="I66" s="9" t="str">
         <f t="array" ref="I66">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B66,C66),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J66" s="9" t="str">
         <f t="array" ref="J66">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B66,C66),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K66" s="12" t="str">
         <f t="array" ref="K66">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B66,C66),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
@@ -5221,7 +5211,7 @@
       </c>
       <c r="D67" s="23" t="str">
         <f t="shared" ref="D67:D82" si="1">IF(COUNTIF(E67:K67,"D")&gt;0,"D",IF(COUNTIF(E67:K67,"-III")&gt;0,"-III",IF(COUNTIF(E67:K67,"-II")&gt;0,"-II",IF(COUNTIF(E67:K67,"-I")&gt;0,"-I",IF(COUNTIF(E67:K67,"+0")&gt;0,"+0",IF(COUNTIF(E67:K67,"+I")&gt;0,"+I",IF(COUNTIF(E67:K67,"+II")&gt;0,"+II",IF(COUNTIF(E67:K67,"+III")&gt;0,"+III","ND"))))))))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="array" ref="E67">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B67,C67),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -5229,11 +5219,11 @@
       </c>
       <c r="F67" s="9" t="str">
         <f t="array" ref="F67">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B67,C67),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="G67" s="9" t="str">
         <f t="array" ref="G67">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H67" s="9" t="str">
         <f t="array" ref="H67">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B67,C67),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5261,7 +5251,7 @@
       </c>
       <c r="D68" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="array" ref="E68">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B68,C68),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -5269,11 +5259,11 @@
       </c>
       <c r="F68" s="9" t="str">
         <f t="array" ref="F68">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B68,C68),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="G68" s="9" t="str">
         <f t="array" ref="G68">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H68" s="9" t="str">
         <f t="array" ref="H68">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B68,C68),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5281,15 +5271,15 @@
       </c>
       <c r="I68" s="9" t="str">
         <f t="array" ref="I68">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B68,C68),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J68" s="9" t="str">
         <f t="array" ref="J68">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B68,C68),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K68" s="12" t="str">
         <f t="array" ref="K68">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B68,C68),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
@@ -5301,7 +5291,7 @@
       </c>
       <c r="D69" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="array" ref="E69">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B69,C69),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
@@ -5309,11 +5299,11 @@
       </c>
       <c r="F69" s="9" t="str">
         <f t="array" ref="F69">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B69,C69),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="G69" s="9" t="str">
         <f t="array" ref="G69">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B69,C69),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H69" s="9" t="str">
         <f t="array" ref="H69">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B69,C69),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5321,7 +5311,7 @@
       </c>
       <c r="I69" s="9" t="str">
         <f t="array" ref="I69">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B69,C69),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J69" s="9" t="str">
         <f t="array" ref="J69">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B69,C69),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
@@ -5353,7 +5343,7 @@
       </c>
       <c r="G70" s="9" t="str">
         <f t="array" ref="G70">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B70,C70),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H70" s="9" t="str">
         <f t="array" ref="H70">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B70,C70),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5393,7 +5383,7 @@
       </c>
       <c r="G71" s="9" t="str">
         <f t="array" ref="G71">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B71,C71),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H71" s="9" t="str">
         <f t="array" ref="H71">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B71,C71),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5401,15 +5391,15 @@
       </c>
       <c r="I71" s="9" t="str">
         <f t="array" ref="I71">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B71,C71),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J71" s="9" t="str">
         <f t="array" ref="J71">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B71,C71),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K71" s="12" t="str">
         <f t="array" ref="K71">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B71,C71),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
@@ -5433,7 +5423,7 @@
       </c>
       <c r="G72" s="9" t="str">
         <f t="array" ref="G72">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B72,C72),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H72" s="9" t="str">
         <f t="array" ref="H72">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B72,C72),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5473,7 +5463,7 @@
       </c>
       <c r="G73" s="9" t="str">
         <f t="array" ref="G73">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B73,C73),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H73" s="9" t="str">
         <f t="array" ref="H73">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B73,C73),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5513,7 +5503,7 @@
       </c>
       <c r="G74" s="9" t="str">
         <f t="array" ref="G74">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B74,C74),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H74" s="9" t="str">
         <f t="array" ref="H74">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B74,C74),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5553,7 +5543,7 @@
       </c>
       <c r="G75" s="9" t="str">
         <f t="array" ref="G75">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B75,C75),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H75" s="9" t="str">
         <f t="array" ref="H75">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B75,C75),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5585,7 +5575,7 @@
       </c>
       <c r="E76" s="9" t="str">
         <f t="array" ref="E76">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B76,C76),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F76" s="9" t="str">
         <f t="array" ref="F76">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B76,C76),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -5593,7 +5583,7 @@
       </c>
       <c r="G76" s="9" t="str">
         <f t="array" ref="G76">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B76,C76),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H76" s="9" t="str">
         <f t="array" ref="H76">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B76,C76),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5625,7 +5615,7 @@
       </c>
       <c r="E77" s="9" t="str">
         <f t="array" ref="E77">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B77,C77),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F77" s="9" t="str">
         <f t="array" ref="F77">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B77,C77),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -5633,7 +5623,7 @@
       </c>
       <c r="G77" s="9" t="str">
         <f t="array" ref="G77">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B77,C77),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H77" s="9" t="str">
         <f t="array" ref="H77">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B77,C77),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5641,15 +5631,15 @@
       </c>
       <c r="I77" s="9" t="str">
         <f t="array" ref="I77">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B77,C77),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J77" s="9" t="str">
         <f t="array" ref="J77">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B77,C77),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K77" s="12" t="str">
         <f t="array" ref="K77">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B77,C77),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
@@ -5665,7 +5655,7 @@
       </c>
       <c r="E78" s="9" t="str">
         <f t="array" ref="E78">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B78,C78),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F78" s="9" t="str">
         <f t="array" ref="F78">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B78,C78),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
@@ -5673,7 +5663,7 @@
       </c>
       <c r="G78" s="9" t="str">
         <f t="array" ref="G78">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B78,C78),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H78" s="9" t="str">
         <f t="array" ref="H78">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B78,C78),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5701,19 +5691,19 @@
       </c>
       <c r="D79" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E79" s="9" t="str">
         <f t="array" ref="E79">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B79,C79),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F79" s="9" t="str">
         <f t="array" ref="F79">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B79,C79),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="G79" s="9" t="str">
         <f t="array" ref="G79">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B79,C79),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H79" s="9" t="str">
         <f t="array" ref="H79">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B79,C79),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5741,19 +5731,19 @@
       </c>
       <c r="D80" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E80" s="9" t="str">
         <f t="array" ref="E80">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B80,C80),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F80" s="9" t="str">
         <f t="array" ref="F80">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B80,C80),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="G80" s="9" t="str">
         <f t="array" ref="G80">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B80,C80),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H80" s="9" t="str">
         <f t="array" ref="H80">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B80,C80),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5781,19 +5771,19 @@
       </c>
       <c r="D81" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E81" s="9" t="str">
         <f t="array" ref="E81">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B81,C81),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F81" s="9" t="str">
         <f t="array" ref="F81">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B81,C81),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="G81" s="9" t="str">
         <f t="array" ref="G81">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B81,C81),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H81" s="9" t="str">
         <f t="array" ref="H81">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B81,C81),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5805,11 +5795,11 @@
       </c>
       <c r="J81" s="9" t="str">
         <f t="array" ref="J81">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B81,C81),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K81" s="12" t="str">
         <f t="array" ref="K81">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B81,C81),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
@@ -5821,19 +5811,19 @@
       </c>
       <c r="D82" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E82" s="9" t="str">
         <f t="array" ref="E82">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B82,C82),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="F82" s="9" t="str">
         <f t="array" ref="F82">INDEX(STBI!$O$11:$O$36,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$36&gt;AVERAGE(B82,C82),STBI!$D$11:$D$36)),STBI!$D$11:$D$36),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="G82" s="9" t="str">
         <f t="array" ref="G82">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B82,C82),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="H82" s="9" t="str">
         <f t="array" ref="H82">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B82,C82),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -11299,8 +11289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11315,7 +11305,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -11347,7 +11337,7 @@
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="5">
@@ -11360,12 +11350,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B5" s="9">
         <v>17.5</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="10">
@@ -11378,7 +11368,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="65" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="10">
@@ -11391,7 +11381,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="10">
@@ -11404,7 +11394,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="67" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="15">
@@ -11417,12 +11407,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="54" t="s">
         <v>28</v>
@@ -11433,8 +11423,8 @@
         <v>43</v>
       </c>
       <c r="E13" s="26">
-        <f>1/30*B3</f>
-        <v>1.111111111111111E-5</v>
+        <f>1/1000*B3</f>
+        <v>3.3333333333333335E-7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -11442,8 +11432,8 @@
         <v>44</v>
       </c>
       <c r="E14" s="26">
-        <f>1/10*B3</f>
-        <v>3.3333333333333335E-5</v>
+        <f>1/100*B3</f>
+        <v>3.3333333333333333E-6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11451,8 +11441,8 @@
         <v>45</v>
       </c>
       <c r="E15" s="26">
-        <f>1/3*B3</f>
-        <v>1.111111111111111E-4</v>
+        <f>1/10*B3</f>
+        <v>3.3333333333333335E-5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -11478,38 +11468,32 @@
         <v>48</v>
       </c>
       <c r="E18" s="26">
-        <f>3*B4</f>
-        <v>3.0000000000000001E-3</v>
+        <f>10*B4</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="26">
-        <f>10*B4</f>
-        <v>0.01</v>
+      <c r="E19" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" s="28"/>
@@ -11584,7 +11568,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>9</v>
@@ -11619,7 +11603,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11630,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -11679,20 +11663,20 @@
         <v>35</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -11735,7 +11719,7 @@
       </c>
       <c r="O11" s="30" t="str">
         <f t="shared" ref="O11:O26" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q11" s="31">
         <f t="shared" ref="Q11:Q14" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
@@ -11755,15 +11739,15 @@
       </c>
       <c r="U11" s="9">
         <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V11" s="9">
         <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V11)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X11" s="12" t="b">
         <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
@@ -11772,7 +11756,7 @@
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
@@ -11815,7 +11799,7 @@
       </c>
       <c r="O12" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="4"/>
@@ -11835,15 +11819,15 @@
       </c>
       <c r="U12" s="9">
         <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V12" s="9">
         <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V12)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X12" s="12" t="b">
         <f t="shared" ref="X12:X26" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
@@ -11852,7 +11836,7 @@
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" s="9">
         <v>1.7000000000000011</v>
@@ -11895,7 +11879,7 @@
       </c>
       <c r="O13" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="4"/>
@@ -11915,15 +11899,15 @@
       </c>
       <c r="U13" s="9">
         <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V13" s="9">
         <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V13)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X13" s="12" t="b">
         <f t="shared" si="8"/>
@@ -11932,7 +11916,7 @@
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" s="9">
         <v>2.5</v>
@@ -12008,7 +11992,7 @@
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="9">
         <v>4.2000000000000011</v>
@@ -12051,7 +12035,7 @@
       </c>
       <c r="O15" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" ref="Q15:Q26" si="9">IF(AND(F15="Geen faalkans",I15="Nee"),1,1-M15)</f>
@@ -12071,15 +12055,15 @@
       </c>
       <c r="U15" s="9">
         <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V15" s="9">
         <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V15)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X15" s="12" t="b">
         <f t="shared" si="8"/>
@@ -12088,7 +12072,7 @@
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="9">
         <v>4.5500000000000007</v>
@@ -12131,7 +12115,7 @@
       </c>
       <c r="O16" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" si="9"/>
@@ -12151,15 +12135,15 @@
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V16" s="9">
         <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V16)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X16" s="12" t="b">
         <f t="shared" si="8"/>
@@ -12168,7 +12152,7 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C17" s="9">
         <v>6.2000000000000011</v>
@@ -12227,7 +12211,7 @@
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V17" s="9">
         <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
@@ -12244,7 +12228,7 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C18" s="9">
         <v>7.1</v>
@@ -12303,7 +12287,7 @@
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V18" s="9">
         <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
@@ -12320,7 +12304,7 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="9">
         <v>7.35</v>
@@ -12363,7 +12347,7 @@
       </c>
       <c r="O19" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q19" s="31">
         <f t="shared" si="9"/>
@@ -12383,15 +12367,15 @@
       </c>
       <c r="U19" s="9">
         <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V19" s="9">
         <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W19" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V19)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X19" s="12" t="b">
         <f t="shared" si="8"/>
@@ -12400,7 +12384,7 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="9">
         <v>7.7000000000000011</v>
@@ -12443,7 +12427,7 @@
       </c>
       <c r="O20" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q20" s="31">
         <f t="shared" si="9"/>
@@ -12463,15 +12447,15 @@
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V20" s="9">
         <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V20)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X20" s="12" t="b">
         <f t="shared" si="8"/>
@@ -12480,7 +12464,7 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C21" s="9">
         <v>9.4</v>
@@ -12523,7 +12507,7 @@
       </c>
       <c r="O21" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q21" s="31">
         <f t="shared" si="9"/>
@@ -12543,15 +12527,15 @@
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V21" s="9">
         <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V21)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X21" s="12" t="b">
         <f t="shared" si="8"/>
@@ -12560,7 +12544,7 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="9">
         <v>10.1</v>
@@ -12603,7 +12587,7 @@
       </c>
       <c r="O22" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q22" s="31">
         <f t="shared" si="9"/>
@@ -12623,15 +12607,15 @@
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V22" s="9">
         <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V22)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X22" s="12" t="b">
         <f t="shared" si="8"/>
@@ -12640,7 +12624,7 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="9">
         <v>12.200000000000001</v>
@@ -12699,7 +12683,7 @@
       </c>
       <c r="U23" s="9">
         <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V23" s="9">
         <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
@@ -12716,7 +12700,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="9">
         <v>14.4</v>
@@ -12775,7 +12759,7 @@
       </c>
       <c r="U24" s="9">
         <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V24" s="9">
         <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
@@ -12792,7 +12776,7 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="9">
         <v>16</v>
@@ -12851,7 +12835,7 @@
       </c>
       <c r="U25" s="9">
         <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V25" s="9">
         <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
@@ -12868,7 +12852,7 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="9">
         <v>16.399999999999999</v>
@@ -12907,7 +12891,7 @@
       </c>
       <c r="O26" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q26" s="31">
         <f t="shared" si="9"/>
@@ -12927,15 +12911,15 @@
       </c>
       <c r="U26" s="9">
         <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V26" s="9">
         <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V26)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X26" s="12" t="b">
         <f t="shared" si="8"/>
@@ -13285,7 +13269,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
@@ -13298,7 +13282,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>9</v>
@@ -13333,7 +13317,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13344,7 +13328,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -13393,20 +13377,20 @@
         <v>35</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -13465,7 +13449,7 @@
       </c>
       <c r="U11" s="9">
         <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V11" s="9">
         <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13482,7 +13466,7 @@
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" s="9">
         <v>0.59999999999999964</v>
@@ -13541,7 +13525,7 @@
       </c>
       <c r="U12" s="9">
         <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V12" s="9">
         <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13558,7 +13542,7 @@
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -13617,7 +13601,7 @@
       </c>
       <c r="U13" s="9">
         <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V13" s="9">
         <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13634,7 +13618,7 @@
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="9">
         <v>1.7000000000000011</v>
@@ -13673,7 +13657,7 @@
       </c>
       <c r="O14" s="32" t="str">
         <f t="shared" ref="O14:O29" si="12">IF(ISNUMBER($M14),W14,IF($X14,"D","ND"))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" ref="Q14:Q29" si="13">IF(AND(F14="Geen faalkans",I14="Nee"),1,1-M14)</f>
@@ -13693,15 +13677,15 @@
       </c>
       <c r="U14" s="9">
         <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="V14" s="9">
         <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V14)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="X14" s="12" t="b">
         <f t="shared" si="8"/>
@@ -13710,7 +13694,7 @@
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="9">
         <v>2.5</v>
@@ -13769,7 +13753,7 @@
       </c>
       <c r="U15" s="9">
         <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V15" s="9">
         <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13786,7 +13770,7 @@
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" s="9">
         <v>3.0999999999999996</v>
@@ -13825,7 +13809,7 @@
       </c>
       <c r="O16" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" si="13"/>
@@ -13845,15 +13829,15 @@
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="V16" s="9">
         <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V16)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="X16" s="12" t="b">
         <f t="shared" si="8"/>
@@ -13862,7 +13846,7 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="9">
         <v>4.2000000000000011</v>
@@ -13921,7 +13905,7 @@
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V17" s="9">
         <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13938,7 +13922,7 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="9">
         <v>5.6</v>
@@ -13997,7 +13981,7 @@
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V18" s="9">
         <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14014,7 +13998,7 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C19" s="9">
         <v>6.2000000000000011</v>
@@ -14073,7 +14057,7 @@
       </c>
       <c r="U19" s="9">
         <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V19" s="9">
         <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14090,7 +14074,7 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="9">
         <v>7.1</v>
@@ -14149,7 +14133,7 @@
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V20" s="9">
         <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14166,7 +14150,7 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C21" s="9">
         <v>7.35</v>
@@ -14205,7 +14189,7 @@
       </c>
       <c r="O21" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="Q21" s="31">
         <f t="shared" si="13"/>
@@ -14225,15 +14209,15 @@
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="V21" s="9">
         <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V21)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="X21" s="12" t="b">
         <f t="shared" si="8"/>
@@ -14242,7 +14226,7 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="9">
         <v>7.7000000000000011</v>
@@ -14281,7 +14265,7 @@
       </c>
       <c r="O22" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="Q22" s="31">
         <f t="shared" si="13"/>
@@ -14301,15 +14285,15 @@
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="V22" s="9">
         <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V22)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="X22" s="12" t="b">
         <f t="shared" si="8"/>
@@ -14318,7 +14302,7 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="9">
         <v>9.4</v>
@@ -14357,7 +14341,7 @@
       </c>
       <c r="O23" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="Q23" s="31">
         <f t="shared" si="13"/>
@@ -14381,11 +14365,11 @@
       </c>
       <c r="V23" s="9">
         <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W23" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V23)</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="X23" s="12" t="b">
         <f t="shared" si="8"/>
@@ -14394,7 +14378,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="9">
         <v>10.6</v>
@@ -14433,7 +14417,7 @@
       </c>
       <c r="O24" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="Q24" s="31">
         <f t="shared" si="13"/>
@@ -14453,15 +14437,15 @@
       </c>
       <c r="U24" s="9">
         <f t="array" ref="U24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="V24" s="9">
         <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V24)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="X24" s="12" t="b">
         <f t="shared" si="8"/>
@@ -14470,7 +14454,7 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="9">
         <v>12.500000000000002</v>
@@ -14529,7 +14513,7 @@
       </c>
       <c r="U25" s="9">
         <f t="array" ref="U25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="V25" s="9">
         <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14546,7 +14530,7 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="9">
         <v>14.200000000000001</v>
@@ -14609,7 +14593,7 @@
       </c>
       <c r="V26" s="9">
         <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V26)</f>
@@ -14622,7 +14606,7 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="9">
         <v>14.799999999999999</v>
@@ -14661,7 +14645,7 @@
       </c>
       <c r="O27" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="Q27" s="31">
         <f t="shared" si="13"/>
@@ -14681,15 +14665,15 @@
       </c>
       <c r="U27" s="9">
         <f t="array" ref="U27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-4</v>
+        <v>3.3333333333333332E-4</v>
       </c>
       <c r="V27" s="9">
         <f>IFERROR(MATCH($U27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W27" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V27)</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="X27" s="12" t="b">
         <f t="shared" si="8"/>
@@ -14698,7 +14682,7 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="9">
         <v>16</v>
@@ -14774,7 +14758,7 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="9">
         <v>17.200000000000003</v>
@@ -14813,7 +14797,7 @@
       </c>
       <c r="O29" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q29" s="31">
         <f t="shared" si="13"/>
@@ -14841,7 +14825,7 @@
       </c>
       <c r="W29" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V29)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X29" s="12" t="b">
         <f t="shared" si="8"/>
@@ -15183,7 +15167,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -15196,7 +15180,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>10</v>
@@ -15231,7 +15215,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15273,26 +15257,26 @@
         <v>32</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>72</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U10" s="35"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -15319,7 +15303,7 @@
       </c>
       <c r="K11" s="30" t="str">
         <f t="shared" ref="K11:K14" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -15339,15 +15323,15 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T11" s="12" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
@@ -15356,7 +15340,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C12" s="9">
         <v>1.7000000000000011</v>
@@ -15383,7 +15367,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" ref="M12:M14" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
@@ -15403,15 +15387,15 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T12" s="12" t="b">
         <f t="shared" ref="T12:T27" si="9">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
@@ -15420,7 +15404,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="9">
         <v>3.0999999999999996</v>
@@ -15447,7 +15431,7 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" si="5"/>
@@ -15467,15 +15451,15 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T13" s="12" t="b">
         <f t="shared" si="9"/>
@@ -15484,7 +15468,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="9">
         <v>4.2000000000000011</v>
@@ -15511,7 +15495,7 @@
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="5"/>
@@ -15531,15 +15515,15 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T14" s="12" t="b">
         <f t="shared" si="9"/>
@@ -15548,7 +15532,7 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="9">
         <v>6.2000000000000011</v>
@@ -15575,7 +15559,7 @@
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" ref="K15:K27" si="12">IF(ISNUMBER($J15),S15,IF($T15,"D","ND"))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M15" s="31">
         <f t="shared" ref="M15:M27" si="13">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
@@ -15595,15 +15579,15 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T15" s="12" t="b">
         <f t="shared" si="9"/>
@@ -15612,7 +15596,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C16" s="9">
         <v>7.1</v>
@@ -15639,7 +15623,7 @@
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="13"/>
@@ -15659,15 +15643,15 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="9"/>
@@ -15676,7 +15660,7 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C17" s="9">
         <v>7.7000000000000011</v>
@@ -15703,7 +15687,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="13"/>
@@ -15723,15 +15707,15 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T17" s="12" t="b">
         <f t="shared" si="9"/>
@@ -15740,7 +15724,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="9">
         <v>9.1</v>
@@ -15767,7 +15751,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="13"/>
@@ -15787,15 +15771,15 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="9"/>
@@ -15804,7 +15788,7 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="9">
         <v>9.4</v>
@@ -15831,7 +15815,7 @@
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="13"/>
@@ -15851,15 +15835,15 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T19" s="12" t="b">
         <f t="shared" si="9"/>
@@ -15868,7 +15852,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="9">
         <v>10.1</v>
@@ -15895,7 +15879,7 @@
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" si="13"/>
@@ -15915,15 +15899,15 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T20" s="12" t="b">
         <f t="shared" si="9"/>
@@ -15932,7 +15916,7 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="9">
         <v>11.799999999999999</v>
@@ -15959,7 +15943,7 @@
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M21" s="31">
         <f t="shared" si="13"/>
@@ -15979,15 +15963,15 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S21" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T21" s="12" t="b">
         <f t="shared" si="9"/>
@@ -15996,7 +15980,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" s="9">
         <v>12.500000000000002</v>
@@ -16023,7 +16007,7 @@
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="13"/>
@@ -16043,15 +16027,15 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T22" s="12" t="b">
         <f t="shared" si="9"/>
@@ -16060,7 +16044,7 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C23" s="9">
         <v>13.200000000000001</v>
@@ -16087,7 +16071,7 @@
       </c>
       <c r="K23" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M23" s="31">
         <f t="shared" si="13"/>
@@ -16107,15 +16091,15 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T23" s="12" t="b">
         <f t="shared" si="9"/>
@@ -16124,7 +16108,7 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="9">
         <v>14.200000000000001</v>
@@ -16151,7 +16135,7 @@
       </c>
       <c r="K24" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M24" s="31">
         <f t="shared" si="13"/>
@@ -16171,15 +16155,15 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T24" s="12" t="b">
         <f t="shared" si="9"/>
@@ -16188,7 +16172,7 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="9">
         <v>14.799999999999999</v>
@@ -16215,7 +16199,7 @@
       </c>
       <c r="K25" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M25" s="31">
         <f t="shared" si="13"/>
@@ -16235,15 +16219,15 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R25)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T25" s="12" t="b">
         <f t="shared" si="9"/>
@@ -16252,7 +16236,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" s="9">
         <v>16</v>
@@ -16279,7 +16263,7 @@
       </c>
       <c r="K26" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M26" s="31">
         <f t="shared" si="13"/>
@@ -16299,15 +16283,15 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T26" s="12" t="b">
         <f t="shared" si="9"/>
@@ -16316,7 +16300,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27" s="9">
         <v>16.399999999999999</v>
@@ -16343,7 +16327,7 @@
       </c>
       <c r="K27" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M27" s="31">
         <f t="shared" si="13"/>
@@ -16363,15 +16347,15 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S27" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R27)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T27" s="12" t="b">
         <f t="shared" si="9"/>
@@ -16473,7 +16457,7 @@
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
-      <c r="Q32" s="70"/>
+      <c r="Q32" s="69"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
       <c r="T32" s="12"/>
@@ -16493,7 +16477,7 @@
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
-      <c r="Q33" s="70"/>
+      <c r="Q33" s="69"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
       <c r="T33" s="12"/>
@@ -17406,7 +17390,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -17419,7 +17403,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>10</v>
@@ -17454,7 +17438,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17502,14 +17486,14 @@
         <v>35</v>
       </c>
       <c r="Q10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -17559,7 +17543,7 @@
       </c>
       <c r="Q11" s="14">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R11" s="14">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -17727,7 +17711,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -17740,7 +17724,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>10</v>
@@ -17775,7 +17759,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17817,20 +17801,20 @@
         <v>32</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>72</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -17879,7 +17863,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -17896,7 +17880,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="9">
         <v>1.4</v>
@@ -17923,7 +17907,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="2"/>
@@ -17943,15 +17927,15 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T12" s="12" t="b">
         <f t="shared" ref="T12:T95" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
@@ -18003,7 +17987,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -18020,7 +18004,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="9">
         <v>1.7</v>
@@ -18047,7 +18031,7 @@
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="8"/>
@@ -18067,15 +18051,15 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T14" s="12" t="b">
         <f t="shared" si="6"/>
@@ -18127,7 +18111,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -18144,7 +18128,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="9">
         <v>2.5</v>
@@ -18171,7 +18155,7 @@
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="8"/>
@@ -18191,15 +18175,15 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="6"/>
@@ -18251,7 +18235,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -18268,7 +18252,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="9">
         <v>2.8</v>
@@ -18295,7 +18279,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="8"/>
@@ -18315,15 +18299,15 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="6"/>
@@ -18375,7 +18359,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -18392,7 +18376,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="9">
         <v>5.9</v>
@@ -18419,7 +18403,7 @@
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" ref="K20:K95" si="13">IF(ISNUMBER($J20),S20,IF($T20,"D","ND"))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" ref="M20:M95" si="14">IF(AND(F20="Geen faalkans",H20="Nee"),1,1-J20)</f>
@@ -18439,15 +18423,15 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T20" s="12" t="b">
         <f t="shared" si="6"/>
@@ -18499,7 +18483,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -18516,7 +18500,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="9">
         <v>6.7</v>
@@ -18543,7 +18527,7 @@
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="14"/>
@@ -18563,15 +18547,15 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T22" s="12" t="b">
         <f t="shared" si="6"/>
@@ -18623,7 +18607,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -18640,7 +18624,7 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="9">
         <v>7.1</v>
@@ -18667,7 +18651,7 @@
       </c>
       <c r="K24" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M24" s="31">
         <f t="shared" si="14"/>
@@ -18687,15 +18671,15 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T24" s="12" t="b">
         <f t="shared" si="6"/>
@@ -18747,7 +18731,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -18764,7 +18748,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="9">
         <v>7.7</v>
@@ -18791,7 +18775,7 @@
       </c>
       <c r="K26" s="32" t="str">
         <f t="shared" ref="K26:K57" si="19">IF(ISNUMBER($J26),S26,IF($T26,"D","ND"))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M26" s="31">
         <f t="shared" ref="M26:M57" si="20">IF(AND(F26="Geen faalkans",H26="Nee"),1,1-J26)</f>
@@ -18811,15 +18795,15 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T26" s="12" t="b">
         <f t="shared" si="6"/>
@@ -18871,7 +18855,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -18888,7 +18872,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="9">
         <v>8.25</v>
@@ -18915,7 +18899,7 @@
       </c>
       <c r="K28" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M28" s="31">
         <f t="shared" si="20"/>
@@ -18935,15 +18919,15 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S28" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R28)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T28" s="12" t="b">
         <f t="shared" si="6"/>
@@ -18995,7 +18979,7 @@
       </c>
       <c r="Q29" s="9">
         <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R29" s="9">
         <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -19012,7 +18996,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="9">
         <v>10</v>
@@ -19039,7 +19023,7 @@
       </c>
       <c r="K30" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M30" s="31">
         <f t="shared" si="20"/>
@@ -19059,15 +19043,15 @@
       </c>
       <c r="Q30" s="9">
         <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R30" s="9">
         <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S30" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R30)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T30" s="12" t="b">
         <f t="shared" si="6"/>
@@ -19119,7 +19103,7 @@
       </c>
       <c r="Q31" s="9">
         <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R31" s="9">
         <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -19136,7 +19120,7 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="9">
         <v>10.199999999999999</v>
@@ -19163,7 +19147,7 @@
       </c>
       <c r="K32" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M32" s="31">
         <f t="shared" si="20"/>
@@ -19183,15 +19167,15 @@
       </c>
       <c r="Q32" s="9">
         <f t="array" ref="Q32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J32,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R32" s="9">
         <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S32" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R32)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T32" s="12" t="b">
         <f t="shared" si="6"/>
@@ -19243,7 +19227,7 @@
       </c>
       <c r="Q33" s="9">
         <f t="array" ref="Q33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J33,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R33" s="9">
         <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -19260,7 +19244,7 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" s="9">
         <v>10.55</v>
@@ -19287,7 +19271,7 @@
       </c>
       <c r="K34" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="M34" s="31">
         <f t="shared" si="20"/>
@@ -19311,11 +19295,11 @@
       </c>
       <c r="R34" s="9">
         <f>IFERROR(MATCH($Q34,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S34" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R34)</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="T34" s="12" t="b">
         <f t="shared" si="6"/>
@@ -19367,7 +19351,7 @@
       </c>
       <c r="Q35" s="9">
         <f t="array" ref="Q35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J35,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R35" s="9">
         <f>IFERROR(MATCH($Q35,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -19384,7 +19368,7 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="9">
         <v>11</v>
@@ -19411,7 +19395,7 @@
       </c>
       <c r="K36" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M36" s="31">
         <f t="shared" si="20"/>
@@ -19431,15 +19415,15 @@
       </c>
       <c r="Q36" s="9">
         <f t="array" ref="Q36">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J36,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R36" s="9">
         <f>IFERROR(MATCH($Q36,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R36)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T36" s="12" t="b">
         <f t="shared" si="6"/>
@@ -19491,7 +19475,7 @@
       </c>
       <c r="Q37" s="9">
         <f t="array" ref="Q37">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J37,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R37" s="9">
         <f>IFERROR(MATCH($Q37,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -19508,7 +19492,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="9">
         <v>11.8</v>
@@ -19535,7 +19519,7 @@
       </c>
       <c r="K38" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M38" s="31">
         <f t="shared" si="20"/>
@@ -19555,15 +19539,15 @@
       </c>
       <c r="Q38" s="9">
         <f t="array" ref="Q38">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J38,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R38" s="9">
         <f>IFERROR(MATCH($Q38,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R38)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T38" s="12" t="b">
         <f t="shared" si="6"/>
@@ -19615,7 +19599,7 @@
       </c>
       <c r="Q39" s="9">
         <f t="array" ref="Q39">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J39,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R39" s="9">
         <f>IFERROR(MATCH($Q39,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -19632,7 +19616,7 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="9">
         <v>13</v>
@@ -19659,7 +19643,7 @@
       </c>
       <c r="K40" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M40" s="31">
         <f t="shared" si="20"/>
@@ -19679,15 +19663,15 @@
       </c>
       <c r="Q40" s="9">
         <f t="array" ref="Q40">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J40,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R40" s="9">
         <f>IFERROR(MATCH($Q40,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S40" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R40)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T40" s="12" t="b">
         <f t="shared" si="6"/>
@@ -19739,7 +19723,7 @@
       </c>
       <c r="Q41" s="9">
         <f t="array" ref="Q41">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J41,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R41" s="9">
         <f>IFERROR(MATCH($Q41,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -19756,7 +19740,7 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42" s="9">
         <v>13.4</v>
@@ -19783,7 +19767,7 @@
       </c>
       <c r="K42" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M42" s="31">
         <f t="shared" si="20"/>
@@ -19803,15 +19787,15 @@
       </c>
       <c r="Q42" s="9">
         <f t="array" ref="Q42">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J42,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R42" s="9">
         <f>IFERROR(MATCH($Q42,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R42)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T42" s="12" t="b">
         <f t="shared" si="6"/>
@@ -19863,7 +19847,7 @@
       </c>
       <c r="Q43" s="9">
         <f t="array" ref="Q43">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J43,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R43" s="9">
         <f>IFERROR(MATCH($Q43,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -19880,7 +19864,7 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="9">
         <v>13.9</v>
@@ -19907,7 +19891,7 @@
       </c>
       <c r="K44" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M44" s="31">
         <f t="shared" si="20"/>
@@ -19927,15 +19911,15 @@
       </c>
       <c r="Q44" s="9">
         <f t="array" ref="Q44">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J44,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R44" s="9">
         <f>IFERROR(MATCH($Q44,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S44" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R44)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T44" s="12" t="b">
         <f t="shared" si="6"/>
@@ -19987,7 +19971,7 @@
       </c>
       <c r="Q45" s="9">
         <f t="array" ref="Q45">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J45,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R45" s="9">
         <f>IFERROR(MATCH($Q45,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -20004,7 +19988,7 @@
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" s="9">
         <v>14.2</v>
@@ -20031,7 +20015,7 @@
       </c>
       <c r="K46" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M46" s="31">
         <f t="shared" si="20"/>
@@ -20051,15 +20035,15 @@
       </c>
       <c r="Q46" s="9">
         <f t="array" ref="Q46">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J46,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R46" s="9">
         <f>IFERROR(MATCH($Q46,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S46" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R46)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T46" s="12" t="b">
         <f t="shared" si="6"/>
@@ -20111,7 +20095,7 @@
       </c>
       <c r="Q47" s="9">
         <f t="array" ref="Q47">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J47,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R47" s="9">
         <f>IFERROR(MATCH($Q47,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -20128,7 +20112,7 @@
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="9">
         <v>15</v>
@@ -20155,7 +20139,7 @@
       </c>
       <c r="K48" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M48" s="31">
         <f t="shared" si="20"/>
@@ -20175,15 +20159,15 @@
       </c>
       <c r="Q48" s="9">
         <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J48,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R48" s="9">
         <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S48" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R48)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T48" s="12" t="b">
         <f t="shared" si="6"/>
@@ -20235,7 +20219,7 @@
       </c>
       <c r="Q49" s="9">
         <f t="array" ref="Q49">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J49,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R49" s="9">
         <f>IFERROR(MATCH($Q49,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -20252,7 +20236,7 @@
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C50" s="9">
         <v>15.7</v>
@@ -20279,7 +20263,7 @@
       </c>
       <c r="K50" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M50" s="31">
         <f t="shared" si="20"/>
@@ -20299,15 +20283,15 @@
       </c>
       <c r="Q50" s="9">
         <f t="array" ref="Q50">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J50,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R50" s="9">
         <f>IFERROR(MATCH($Q50,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S50" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R50)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T50" s="12" t="b">
         <f t="shared" si="6"/>
@@ -20359,7 +20343,7 @@
       </c>
       <c r="Q51" s="9">
         <f t="array" ref="Q51">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J51,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R51" s="9">
         <f>IFERROR(MATCH($Q51,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -20376,7 +20360,7 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" s="9">
         <v>16.100000000000001</v>
@@ -20403,7 +20387,7 @@
       </c>
       <c r="K52" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M52" s="31">
         <f t="shared" si="20"/>
@@ -20423,15 +20407,15 @@
       </c>
       <c r="Q52" s="9">
         <f t="array" ref="Q52">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J52,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R52" s="9">
         <f>IFERROR(MATCH($Q52,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R52)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T52" s="12" t="b">
         <f t="shared" si="6"/>
@@ -20483,7 +20467,7 @@
       </c>
       <c r="Q53" s="9">
         <f t="array" ref="Q53">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J53,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R53" s="9">
         <f>IFERROR(MATCH($Q53,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -20500,7 +20484,7 @@
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" s="9">
         <v>16.7</v>
@@ -20527,7 +20511,7 @@
       </c>
       <c r="K54" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M54" s="31">
         <f t="shared" si="20"/>
@@ -20547,15 +20531,15 @@
       </c>
       <c r="Q54" s="9">
         <f t="array" ref="Q54">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J54,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R54" s="9">
         <f>IFERROR(MATCH($Q54,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S54" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R54)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T54" s="12" t="b">
         <f t="shared" si="6"/>
@@ -20607,7 +20591,7 @@
       </c>
       <c r="Q55" s="9">
         <f t="array" ref="Q55">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J55,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R55" s="9">
         <f>IFERROR(MATCH($Q55,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -20624,7 +20608,7 @@
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C56" s="9">
         <v>17.3</v>
@@ -20651,7 +20635,7 @@
       </c>
       <c r="K56" s="32" t="str">
         <f t="shared" si="19"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M56" s="31">
         <f t="shared" si="20"/>
@@ -20671,15 +20655,15 @@
       </c>
       <c r="Q56" s="9">
         <f t="array" ref="Q56">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J56,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R56" s="9">
         <f>IFERROR(MATCH($Q56,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S56" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R56)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T56" s="12" t="b">
         <f t="shared" si="6"/>
@@ -20731,7 +20715,7 @@
       </c>
       <c r="Q57" s="9">
         <f t="array" ref="Q57">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J57,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R57" s="9">
         <f>IFERROR(MATCH($Q57,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -21348,7 +21332,7 @@
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C88" s="9">
         <v>11.24</v>
@@ -21377,7 +21361,7 @@
       </c>
       <c r="K88" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M88" s="31">
         <f t="shared" si="14"/>
@@ -21397,15 +21381,15 @@
       </c>
       <c r="Q88" s="9">
         <f t="array" ref="Q88">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J88,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R88" s="9">
         <f>IFERROR(MATCH($Q88,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S88" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R88)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T88" s="12" t="b">
         <f t="shared" si="6"/>
@@ -21414,7 +21398,7 @@
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C89" s="9">
         <v>12.808</v>
@@ -21461,7 +21445,7 @@
       </c>
       <c r="Q89" s="9">
         <f t="array" ref="Q89">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J89,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R89" s="9">
         <f>IFERROR(MATCH($Q89,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -21478,7 +21462,7 @@
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="9">
         <v>12.863</v>
@@ -21507,7 +21491,7 @@
       </c>
       <c r="K90" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M90" s="31">
         <f t="shared" si="14"/>
@@ -21527,15 +21511,15 @@
       </c>
       <c r="Q90" s="9">
         <f t="array" ref="Q90">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J90,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R90" s="9">
         <f>IFERROR(MATCH($Q90,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S90" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R90)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T90" s="12" t="b">
         <f t="shared" si="6"/>
@@ -21544,7 +21528,7 @@
     </row>
     <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C91" s="9">
         <v>13.500999999999999</v>
@@ -21573,7 +21557,7 @@
       </c>
       <c r="K91" s="32" t="str">
         <f t="shared" ref="K91:K92" si="25">IF(ISNUMBER($J91),S91,IF($T91,"D","ND"))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M91" s="31">
         <f t="shared" ref="M91:M92" si="26">IF(AND(F91="Geen faalkans",H91="Nee"),1,1-J91)</f>
@@ -21591,17 +21575,17 @@
         <f t="shared" ref="P91:P92" si="29">IF(J91="-",0,O91)</f>
         <v>1.3703579999999999E-6</v>
       </c>
-      <c r="Q91" s="70">
+      <c r="Q91" s="69">
         <f t="array" ref="Q91">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J91,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R91" s="9">
         <f>IFERROR(MATCH($Q91,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S91" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R91)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T91" s="12" t="b">
         <f t="shared" si="6"/>
@@ -21610,7 +21594,7 @@
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="9">
         <v>13.965</v>
@@ -21637,7 +21621,7 @@
       </c>
       <c r="K92" s="32" t="str">
         <f t="shared" si="25"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M92" s="31">
         <f t="shared" si="26"/>
@@ -21657,15 +21641,15 @@
       </c>
       <c r="Q92" s="9">
         <f t="array" ref="Q92">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J92,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R92" s="9">
         <f>IFERROR(MATCH($Q92,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S92" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R92)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T92" s="12" t="b">
         <f t="shared" si="6"/>
@@ -21674,7 +21658,7 @@
     </row>
     <row r="93" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C93" s="9">
         <v>14.763999999999999</v>
@@ -21701,7 +21685,7 @@
       </c>
       <c r="K93" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M93" s="31">
         <f t="shared" si="14"/>
@@ -21721,15 +21705,15 @@
       </c>
       <c r="Q93" s="9">
         <f t="array" ref="Q93">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J93,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R93" s="9">
         <f>IFERROR(MATCH($Q93,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S93" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R93)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T93" s="12" t="b">
         <f t="shared" si="6"/>
@@ -21738,7 +21722,7 @@
     </row>
     <row r="94" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="9">
         <v>15.023</v>
@@ -21804,7 +21788,7 @@
     </row>
     <row r="95" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C95" s="14">
         <v>15.718999999999999</v>
@@ -21851,7 +21835,7 @@
       </c>
       <c r="Q95" s="9">
         <f t="array" ref="Q95">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J95,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R95" s="9">
         <f>IFERROR(MATCH($Q95,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -22013,7 +21997,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -22026,7 +22010,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>10</v>
@@ -22061,7 +22045,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22103,20 +22087,20 @@
         <v>32</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>72</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -22165,7 +22149,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -22182,7 +22166,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="9">
         <v>1.4</v>
@@ -22209,7 +22193,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="2"/>
@@ -22229,15 +22213,15 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T12" s="12" t="b">
         <f t="shared" ref="T12:T57" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
@@ -22289,7 +22273,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -22306,7 +22290,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="9">
         <v>1.7</v>
@@ -22333,7 +22317,7 @@
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="2"/>
@@ -22353,15 +22337,15 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T14" s="12" t="b">
         <f t="shared" si="6"/>
@@ -22413,7 +22397,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -22430,7 +22414,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="9">
         <v>2.5</v>
@@ -22457,7 +22441,7 @@
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="2"/>
@@ -22477,15 +22461,15 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="6"/>
@@ -22537,7 +22521,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -22554,7 +22538,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="9">
         <v>2.8</v>
@@ -22581,7 +22565,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="2"/>
@@ -22601,15 +22585,15 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="6"/>
@@ -22661,7 +22645,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -22678,7 +22662,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="9">
         <v>5.9</v>
@@ -22705,7 +22689,7 @@
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" si="2"/>
@@ -22725,15 +22709,15 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T20" s="12" t="b">
         <f t="shared" si="6"/>
@@ -22785,7 +22769,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -22802,7 +22786,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="9">
         <v>6.7</v>
@@ -22829,7 +22813,7 @@
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="2"/>
@@ -22849,15 +22833,15 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T22" s="12" t="b">
         <f t="shared" si="6"/>
@@ -22909,7 +22893,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -22926,7 +22910,7 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="9">
         <v>7.1</v>
@@ -22953,7 +22937,7 @@
       </c>
       <c r="K24" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M24" s="31">
         <f t="shared" si="2"/>
@@ -22973,15 +22957,15 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T24" s="12" t="b">
         <f t="shared" si="6"/>
@@ -23033,7 +23017,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -23050,7 +23034,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="9">
         <v>7.7</v>
@@ -23077,7 +23061,7 @@
       </c>
       <c r="K26" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M26" s="31">
         <f t="shared" si="2"/>
@@ -23097,15 +23081,15 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T26" s="12" t="b">
         <f t="shared" si="6"/>
@@ -23157,7 +23141,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -23174,7 +23158,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="9">
         <v>8.25</v>
@@ -23201,7 +23185,7 @@
       </c>
       <c r="K28" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M28" s="31">
         <f t="shared" si="2"/>
@@ -23221,15 +23205,15 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S28" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R28)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T28" s="12" t="b">
         <f t="shared" si="6"/>
@@ -23281,7 +23265,7 @@
       </c>
       <c r="Q29" s="9">
         <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R29" s="9">
         <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -23298,7 +23282,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="9">
         <v>10</v>
@@ -23325,7 +23309,7 @@
       </c>
       <c r="K30" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M30" s="31">
         <f t="shared" si="2"/>
@@ -23345,15 +23329,15 @@
       </c>
       <c r="Q30" s="9">
         <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R30" s="9">
         <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S30" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R30)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T30" s="12" t="b">
         <f t="shared" si="6"/>
@@ -23405,7 +23389,7 @@
       </c>
       <c r="Q31" s="9">
         <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R31" s="9">
         <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -23422,7 +23406,7 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="9">
         <v>10.199999999999999</v>
@@ -23449,7 +23433,7 @@
       </c>
       <c r="K32" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M32" s="31">
         <f t="shared" si="2"/>
@@ -23469,15 +23453,15 @@
       </c>
       <c r="Q32" s="9">
         <f t="array" ref="Q32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J32,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R32" s="9">
         <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S32" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R32)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T32" s="12" t="b">
         <f t="shared" si="6"/>
@@ -23529,7 +23513,7 @@
       </c>
       <c r="Q33" s="9">
         <f t="array" ref="Q33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J33,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R33" s="9">
         <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -23546,7 +23530,7 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" s="9">
         <v>10.55</v>
@@ -23573,7 +23557,7 @@
       </c>
       <c r="K34" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M34" s="31">
         <f t="shared" si="2"/>
@@ -23593,15 +23577,15 @@
       </c>
       <c r="Q34" s="9">
         <f t="array" ref="Q34">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J34,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R34" s="9">
         <f>IFERROR(MATCH($Q34,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S34" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R34)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T34" s="12" t="b">
         <f t="shared" si="6"/>
@@ -23653,7 +23637,7 @@
       </c>
       <c r="Q35" s="9">
         <f t="array" ref="Q35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J35,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R35" s="9">
         <f>IFERROR(MATCH($Q35,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -23670,7 +23654,7 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="9">
         <v>11</v>
@@ -23697,7 +23681,7 @@
       </c>
       <c r="K36" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M36" s="31">
         <f t="shared" si="2"/>
@@ -23717,15 +23701,15 @@
       </c>
       <c r="Q36" s="9">
         <f t="array" ref="Q36">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J36,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R36" s="9">
         <f>IFERROR(MATCH($Q36,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R36)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T36" s="12" t="b">
         <f t="shared" si="6"/>
@@ -23777,7 +23761,7 @@
       </c>
       <c r="Q37" s="9">
         <f t="array" ref="Q37">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J37,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R37" s="9">
         <f>IFERROR(MATCH($Q37,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -23794,7 +23778,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="9">
         <v>11.8</v>
@@ -23821,7 +23805,7 @@
       </c>
       <c r="K38" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M38" s="31">
         <f t="shared" si="2"/>
@@ -23841,15 +23825,15 @@
       </c>
       <c r="Q38" s="9">
         <f t="array" ref="Q38">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J38,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R38" s="9">
         <f>IFERROR(MATCH($Q38,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R38)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T38" s="12" t="b">
         <f t="shared" si="6"/>
@@ -23901,7 +23885,7 @@
       </c>
       <c r="Q39" s="9">
         <f t="array" ref="Q39">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J39,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R39" s="9">
         <f>IFERROR(MATCH($Q39,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -23918,7 +23902,7 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="9">
         <v>13</v>
@@ -23945,7 +23929,7 @@
       </c>
       <c r="K40" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M40" s="31">
         <f t="shared" si="2"/>
@@ -23965,15 +23949,15 @@
       </c>
       <c r="Q40" s="9">
         <f t="array" ref="Q40">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J40,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R40" s="9">
         <f>IFERROR(MATCH($Q40,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S40" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R40)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T40" s="12" t="b">
         <f t="shared" si="6"/>
@@ -24025,7 +24009,7 @@
       </c>
       <c r="Q41" s="9">
         <f t="array" ref="Q41">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J41,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R41" s="9">
         <f>IFERROR(MATCH($Q41,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -24042,7 +24026,7 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42" s="9">
         <v>13.4</v>
@@ -24069,7 +24053,7 @@
       </c>
       <c r="K42" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M42" s="31">
         <f t="shared" si="2"/>
@@ -24089,15 +24073,15 @@
       </c>
       <c r="Q42" s="9">
         <f t="array" ref="Q42">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J42,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R42" s="9">
         <f>IFERROR(MATCH($Q42,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R42)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T42" s="12" t="b">
         <f t="shared" si="6"/>
@@ -24149,7 +24133,7 @@
       </c>
       <c r="Q43" s="9">
         <f t="array" ref="Q43">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J43,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R43" s="9">
         <f>IFERROR(MATCH($Q43,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -24166,7 +24150,7 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="9">
         <v>13.9</v>
@@ -24193,7 +24177,7 @@
       </c>
       <c r="K44" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M44" s="31">
         <f t="shared" si="2"/>
@@ -24213,15 +24197,15 @@
       </c>
       <c r="Q44" s="9">
         <f t="array" ref="Q44">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J44,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R44" s="9">
         <f>IFERROR(MATCH($Q44,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S44" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R44)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T44" s="12" t="b">
         <f t="shared" si="6"/>
@@ -24273,7 +24257,7 @@
       </c>
       <c r="Q45" s="9">
         <f t="array" ref="Q45">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J45,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R45" s="9">
         <f>IFERROR(MATCH($Q45,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -24290,7 +24274,7 @@
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" s="9">
         <v>14.2</v>
@@ -24317,7 +24301,7 @@
       </c>
       <c r="K46" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M46" s="31">
         <f t="shared" si="2"/>
@@ -24337,15 +24321,15 @@
       </c>
       <c r="Q46" s="9">
         <f t="array" ref="Q46">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J46,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R46" s="9">
         <f>IFERROR(MATCH($Q46,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S46" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R46)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T46" s="12" t="b">
         <f t="shared" si="6"/>
@@ -24397,7 +24381,7 @@
       </c>
       <c r="Q47" s="9">
         <f t="array" ref="Q47">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J47,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R47" s="9">
         <f>IFERROR(MATCH($Q47,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -24414,7 +24398,7 @@
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="9">
         <v>15</v>
@@ -24441,7 +24425,7 @@
       </c>
       <c r="K48" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M48" s="31">
         <f t="shared" si="2"/>
@@ -24461,15 +24445,15 @@
       </c>
       <c r="Q48" s="9">
         <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J48,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R48" s="9">
         <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S48" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R48)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T48" s="12" t="b">
         <f t="shared" si="6"/>
@@ -24521,7 +24505,7 @@
       </c>
       <c r="Q49" s="9">
         <f t="array" ref="Q49">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J49,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R49" s="9">
         <f>IFERROR(MATCH($Q49,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -24538,7 +24522,7 @@
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C50" s="9">
         <v>15.7</v>
@@ -24565,7 +24549,7 @@
       </c>
       <c r="K50" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M50" s="31">
         <f t="shared" si="2"/>
@@ -24585,15 +24569,15 @@
       </c>
       <c r="Q50" s="9">
         <f t="array" ref="Q50">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J50,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R50" s="9">
         <f>IFERROR(MATCH($Q50,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S50" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R50)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T50" s="12" t="b">
         <f t="shared" si="6"/>
@@ -24645,7 +24629,7 @@
       </c>
       <c r="Q51" s="9">
         <f t="array" ref="Q51">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J51,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R51" s="9">
         <f>IFERROR(MATCH($Q51,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -24662,7 +24646,7 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" s="9">
         <v>16.100000000000001</v>
@@ -24689,7 +24673,7 @@
       </c>
       <c r="K52" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M52" s="31">
         <f t="shared" si="2"/>
@@ -24709,15 +24693,15 @@
       </c>
       <c r="Q52" s="9">
         <f t="array" ref="Q52">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J52,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R52" s="9">
         <f>IFERROR(MATCH($Q52,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R52)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T52" s="12" t="b">
         <f t="shared" si="6"/>
@@ -24769,7 +24753,7 @@
       </c>
       <c r="Q53" s="9">
         <f t="array" ref="Q53">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J53,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R53" s="9">
         <f>IFERROR(MATCH($Q53,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -24786,7 +24770,7 @@
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" s="9">
         <v>16.7</v>
@@ -24813,7 +24797,7 @@
       </c>
       <c r="K54" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M54" s="31">
         <f t="shared" si="2"/>
@@ -24833,15 +24817,15 @@
       </c>
       <c r="Q54" s="9">
         <f t="array" ref="Q54">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J54,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R54" s="9">
         <f>IFERROR(MATCH($Q54,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S54" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R54)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T54" s="12" t="b">
         <f t="shared" si="6"/>
@@ -24893,7 +24877,7 @@
       </c>
       <c r="Q55" s="9">
         <f t="array" ref="Q55">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J55,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R55" s="9">
         <f>IFERROR(MATCH($Q55,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -24910,7 +24894,7 @@
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C56" s="9">
         <v>17.3</v>
@@ -24937,7 +24921,7 @@
       </c>
       <c r="K56" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M56" s="31">
         <f t="shared" si="2"/>
@@ -24957,15 +24941,15 @@
       </c>
       <c r="Q56" s="9">
         <f t="array" ref="Q56">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J56,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R56" s="9">
         <f>IFERROR(MATCH($Q56,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S56" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R56)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T56" s="12" t="b">
         <f t="shared" si="6"/>
@@ -25017,7 +25001,7 @@
       </c>
       <c r="Q57" s="9">
         <f t="array" ref="Q57">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J57,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R57" s="9">
         <f>IFERROR(MATCH($Q57,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -26244,7 +26228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
   <dimension ref="B2:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -26269,7 +26253,7 @@
         <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -26282,7 +26266,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>10</v>
@@ -26317,7 +26301,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -26359,20 +26343,20 @@
         <v>32</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>72</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -26421,7 +26405,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -26438,7 +26422,7 @@
     </row>
     <row r="12" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="9">
         <v>1.4</v>
@@ -26465,7 +26449,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="2"/>
@@ -26485,15 +26469,15 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T12" s="12" t="b">
         <f t="shared" ref="T12:T57" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
@@ -26545,7 +26529,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -26562,7 +26546,7 @@
     </row>
     <row r="14" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="9">
         <v>1.7</v>
@@ -26589,7 +26573,7 @@
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="2"/>
@@ -26609,15 +26593,15 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T14" s="12" t="b">
         <f t="shared" si="6"/>
@@ -26669,7 +26653,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -26686,7 +26670,7 @@
     </row>
     <row r="16" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="9">
         <v>2.5</v>
@@ -26713,7 +26697,7 @@
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="2"/>
@@ -26733,15 +26717,15 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="6"/>
@@ -26793,7 +26777,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -26810,7 +26794,7 @@
     </row>
     <row r="18" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="9">
         <v>2.8</v>
@@ -26837,7 +26821,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="2"/>
@@ -26857,15 +26841,15 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="6"/>
@@ -26917,7 +26901,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -26934,7 +26918,7 @@
     </row>
     <row r="20" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="9">
         <v>5.9</v>
@@ -26961,7 +26945,7 @@
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" si="2"/>
@@ -26981,15 +26965,15 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T20" s="12" t="b">
         <f t="shared" si="6"/>
@@ -27041,7 +27025,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -27058,7 +27042,7 @@
     </row>
     <row r="22" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="9">
         <v>6.7</v>
@@ -27085,7 +27069,7 @@
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="2"/>
@@ -27105,15 +27089,15 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T22" s="12" t="b">
         <f t="shared" si="6"/>
@@ -27165,7 +27149,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -27182,7 +27166,7 @@
     </row>
     <row r="24" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="9">
         <v>7.1</v>
@@ -27209,7 +27193,7 @@
       </c>
       <c r="K24" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M24" s="31">
         <f t="shared" si="2"/>
@@ -27229,15 +27213,15 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T24" s="12" t="b">
         <f t="shared" si="6"/>
@@ -27289,7 +27273,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -27306,7 +27290,7 @@
     </row>
     <row r="26" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="9">
         <v>7.7</v>
@@ -27333,7 +27317,7 @@
       </c>
       <c r="K26" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M26" s="31">
         <f t="shared" si="2"/>
@@ -27353,15 +27337,15 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T26" s="12" t="b">
         <f t="shared" si="6"/>
@@ -27413,7 +27397,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -27430,7 +27414,7 @@
     </row>
     <row r="28" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C28" s="9">
         <v>8.25</v>
@@ -27457,7 +27441,7 @@
       </c>
       <c r="K28" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M28" s="31">
         <f t="shared" si="2"/>
@@ -27477,15 +27461,15 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S28" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R28)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T28" s="12" t="b">
         <f t="shared" si="6"/>
@@ -27537,7 +27521,7 @@
       </c>
       <c r="Q29" s="9">
         <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R29" s="9">
         <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -27554,7 +27538,7 @@
     </row>
     <row r="30" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="9">
         <v>10</v>
@@ -27581,7 +27565,7 @@
       </c>
       <c r="K30" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M30" s="31">
         <f t="shared" si="2"/>
@@ -27601,15 +27585,15 @@
       </c>
       <c r="Q30" s="9">
         <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R30" s="9">
         <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S30" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R30)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T30" s="12" t="b">
         <f t="shared" si="6"/>
@@ -27661,7 +27645,7 @@
       </c>
       <c r="Q31" s="9">
         <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R31" s="9">
         <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -27678,7 +27662,7 @@
     </row>
     <row r="32" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="9">
         <v>10.199999999999999</v>
@@ -27705,7 +27689,7 @@
       </c>
       <c r="K32" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M32" s="31">
         <f t="shared" si="2"/>
@@ -27725,15 +27709,15 @@
       </c>
       <c r="Q32" s="9">
         <f t="array" ref="Q32">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J32,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R32" s="9">
         <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S32" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R32)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T32" s="12" t="b">
         <f t="shared" si="6"/>
@@ -27785,7 +27769,7 @@
       </c>
       <c r="Q33" s="9">
         <f t="array" ref="Q33">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J33,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R33" s="9">
         <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -27802,7 +27786,7 @@
     </row>
     <row r="34" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" s="9">
         <v>10.55</v>
@@ -27829,7 +27813,7 @@
       </c>
       <c r="K34" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="M34" s="31">
         <f t="shared" si="2"/>
@@ -27853,11 +27837,11 @@
       </c>
       <c r="R34" s="9">
         <f>IFERROR(MATCH($Q34,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S34" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R34)</f>
-        <v>+II</v>
+        <v>+I</v>
       </c>
       <c r="T34" s="12" t="b">
         <f t="shared" si="6"/>
@@ -27909,7 +27893,7 @@
       </c>
       <c r="Q35" s="9">
         <f t="array" ref="Q35">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J35,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R35" s="9">
         <f>IFERROR(MATCH($Q35,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -27926,7 +27910,7 @@
     </row>
     <row r="36" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="9">
         <v>11</v>
@@ -27953,7 +27937,7 @@
       </c>
       <c r="K36" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M36" s="31">
         <f t="shared" si="2"/>
@@ -27973,15 +27957,15 @@
       </c>
       <c r="Q36" s="9">
         <f t="array" ref="Q36">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J36,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R36" s="9">
         <f>IFERROR(MATCH($Q36,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R36)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T36" s="12" t="b">
         <f t="shared" si="6"/>
@@ -28033,7 +28017,7 @@
       </c>
       <c r="Q37" s="9">
         <f t="array" ref="Q37">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J37,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R37" s="9">
         <f>IFERROR(MATCH($Q37,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -28050,7 +28034,7 @@
     </row>
     <row r="38" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C38" s="9">
         <v>11.8</v>
@@ -28077,7 +28061,7 @@
       </c>
       <c r="K38" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M38" s="31">
         <f t="shared" si="2"/>
@@ -28097,15 +28081,15 @@
       </c>
       <c r="Q38" s="9">
         <f t="array" ref="Q38">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J38,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R38" s="9">
         <f>IFERROR(MATCH($Q38,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S38" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R38)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T38" s="12" t="b">
         <f t="shared" si="6"/>
@@ -28157,7 +28141,7 @@
       </c>
       <c r="Q39" s="9">
         <f t="array" ref="Q39">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J39,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R39" s="9">
         <f>IFERROR(MATCH($Q39,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -28174,7 +28158,7 @@
     </row>
     <row r="40" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C40" s="9">
         <v>13</v>
@@ -28201,7 +28185,7 @@
       </c>
       <c r="K40" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M40" s="31">
         <f t="shared" si="2"/>
@@ -28221,15 +28205,15 @@
       </c>
       <c r="Q40" s="9">
         <f t="array" ref="Q40">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J40,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R40" s="9">
         <f>IFERROR(MATCH($Q40,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S40" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R40)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T40" s="12" t="b">
         <f t="shared" si="6"/>
@@ -28281,7 +28265,7 @@
       </c>
       <c r="Q41" s="9">
         <f t="array" ref="Q41">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J41,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R41" s="9">
         <f>IFERROR(MATCH($Q41,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -28298,7 +28282,7 @@
     </row>
     <row r="42" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42" s="9">
         <v>13.4</v>
@@ -28325,7 +28309,7 @@
       </c>
       <c r="K42" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M42" s="31">
         <f t="shared" si="2"/>
@@ -28345,15 +28329,15 @@
       </c>
       <c r="Q42" s="9">
         <f t="array" ref="Q42">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J42,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R42" s="9">
         <f>IFERROR(MATCH($Q42,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S42" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R42)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T42" s="12" t="b">
         <f t="shared" si="6"/>
@@ -28405,7 +28389,7 @@
       </c>
       <c r="Q43" s="9">
         <f t="array" ref="Q43">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J43,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R43" s="9">
         <f>IFERROR(MATCH($Q43,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -28422,7 +28406,7 @@
     </row>
     <row r="44" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="9">
         <v>13.9</v>
@@ -28449,7 +28433,7 @@
       </c>
       <c r="K44" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M44" s="31">
         <f t="shared" si="2"/>
@@ -28469,15 +28453,15 @@
       </c>
       <c r="Q44" s="9">
         <f t="array" ref="Q44">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J44,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R44" s="9">
         <f>IFERROR(MATCH($Q44,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S44" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R44)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T44" s="12" t="b">
         <f t="shared" si="6"/>
@@ -28529,7 +28513,7 @@
       </c>
       <c r="Q45" s="9">
         <f t="array" ref="Q45">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J45,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R45" s="9">
         <f>IFERROR(MATCH($Q45,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -28546,7 +28530,7 @@
     </row>
     <row r="46" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" s="9">
         <v>14.2</v>
@@ -28573,7 +28557,7 @@
       </c>
       <c r="K46" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M46" s="31">
         <f t="shared" si="2"/>
@@ -28593,15 +28577,15 @@
       </c>
       <c r="Q46" s="9">
         <f t="array" ref="Q46">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J46,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R46" s="9">
         <f>IFERROR(MATCH($Q46,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S46" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R46)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T46" s="12" t="b">
         <f t="shared" si="6"/>
@@ -28653,7 +28637,7 @@
       </c>
       <c r="Q47" s="9">
         <f t="array" ref="Q47">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J47,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R47" s="9">
         <f>IFERROR(MATCH($Q47,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -28670,7 +28654,7 @@
     </row>
     <row r="48" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="9">
         <v>15</v>
@@ -28697,7 +28681,7 @@
       </c>
       <c r="K48" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M48" s="31">
         <f t="shared" si="2"/>
@@ -28717,15 +28701,15 @@
       </c>
       <c r="Q48" s="9">
         <f t="array" ref="Q48">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J48,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R48" s="9">
         <f>IFERROR(MATCH($Q48,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S48" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R48)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T48" s="12" t="b">
         <f t="shared" si="6"/>
@@ -28777,7 +28761,7 @@
       </c>
       <c r="Q49" s="9">
         <f t="array" ref="Q49">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J49,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R49" s="9">
         <f>IFERROR(MATCH($Q49,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -28794,7 +28778,7 @@
     </row>
     <row r="50" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C50" s="9">
         <v>15.7</v>
@@ -28821,7 +28805,7 @@
       </c>
       <c r="K50" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M50" s="31">
         <f t="shared" si="2"/>
@@ -28841,15 +28825,15 @@
       </c>
       <c r="Q50" s="9">
         <f t="array" ref="Q50">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J50,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R50" s="9">
         <f>IFERROR(MATCH($Q50,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S50" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R50)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T50" s="12" t="b">
         <f t="shared" si="6"/>
@@ -28901,7 +28885,7 @@
       </c>
       <c r="Q51" s="9">
         <f t="array" ref="Q51">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J51,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R51" s="9">
         <f>IFERROR(MATCH($Q51,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -28918,7 +28902,7 @@
     </row>
     <row r="52" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C52" s="9">
         <v>16.100000000000001</v>
@@ -28945,7 +28929,7 @@
       </c>
       <c r="K52" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M52" s="31">
         <f t="shared" si="2"/>
@@ -28965,15 +28949,15 @@
       </c>
       <c r="Q52" s="9">
         <f t="array" ref="Q52">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J52,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R52" s="9">
         <f>IFERROR(MATCH($Q52,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S52" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R52)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T52" s="12" t="b">
         <f t="shared" si="6"/>
@@ -29025,7 +29009,7 @@
       </c>
       <c r="Q53" s="9">
         <f t="array" ref="Q53">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J53,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R53" s="9">
         <f>IFERROR(MATCH($Q53,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -29042,7 +29026,7 @@
     </row>
     <row r="54" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C54" s="9">
         <v>16.7</v>
@@ -29069,7 +29053,7 @@
       </c>
       <c r="K54" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M54" s="31">
         <f t="shared" si="2"/>
@@ -29089,15 +29073,15 @@
       </c>
       <c r="Q54" s="9">
         <f t="array" ref="Q54">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J54,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R54" s="9">
         <f>IFERROR(MATCH($Q54,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S54" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R54)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T54" s="12" t="b">
         <f t="shared" si="6"/>
@@ -29149,7 +29133,7 @@
       </c>
       <c r="Q55" s="9">
         <f t="array" ref="Q55">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J55,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R55" s="9">
         <f>IFERROR(MATCH($Q55,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -29166,7 +29150,7 @@
     </row>
     <row r="56" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C56" s="9">
         <v>17.3</v>
@@ -29193,7 +29177,7 @@
       </c>
       <c r="K56" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M56" s="31">
         <f t="shared" si="2"/>
@@ -29213,15 +29197,15 @@
       </c>
       <c r="Q56" s="9">
         <f t="array" ref="Q56">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J56,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R56" s="9">
         <f>IFERROR(MATCH($Q56,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S56" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R56)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T56" s="12" t="b">
         <f t="shared" si="6"/>
@@ -29273,7 +29257,7 @@
       </c>
       <c r="Q57" s="9">
         <f t="array" ref="Q57">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J57,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.111111111111111E-5</v>
+        <v>0</v>
       </c>
       <c r="R57" s="9">
         <f>IFERROR(MATCH($Q57,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject INNW 22-1.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject INNW 22-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5791F740-5B0E-48F3-BC29-83544108F761}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC242E1-A918-418D-AE78-3DEC3BFB0168}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
@@ -2604,7 +2604,7 @@
   <dimension ref="B1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E82" sqref="E3:E82"/>
+      <selection activeCell="D3" sqref="D3:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2657,11 +2657,11 @@
         <v>0.59999999999999964</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D66" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f>IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f t="shared" ref="E3:E66" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
+        <f>IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -2678,19 +2678,19 @@
       </c>
       <c r="I3" s="4" t="str">
         <f t="array" ref="I3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J3" s="4" t="str">
         <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K3" s="4" t="str">
         <f t="array" ref="K3">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L3" s="7" t="str">
         <f t="array" ref="L3">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2701,11 +2701,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F4:L4,"D")&gt;0,"D",IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E4" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F4" s="9" t="str">
@@ -2722,19 +2722,19 @@
       </c>
       <c r="I4" s="9" t="str">
         <f t="array" ref="I4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J4" s="9" t="str">
         <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K4" s="9" t="str">
         <f t="array" ref="K4">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="array" ref="L4">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -2745,11 +2745,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F5:L5,"D")&gt;0,"D",IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E5" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F5" s="9" t="str">
@@ -2766,19 +2766,19 @@
       </c>
       <c r="I5" s="9" t="str">
         <f t="array" ref="I5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J5" s="9" t="str">
         <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K5" s="9" t="str">
         <f t="array" ref="K5">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="array" ref="L5">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -2789,11 +2789,11 @@
         <v>1.4</v>
       </c>
       <c r="D6" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F6:L6,"D")&gt;0,"D",IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E6" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F6" s="9" t="str">
@@ -2810,19 +2810,19 @@
       </c>
       <c r="I6" s="9" t="str">
         <f t="array" ref="I6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J6" s="9" t="str">
         <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="array" ref="K6">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2833,11 +2833,11 @@
         <v>1.41</v>
       </c>
       <c r="D7" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F7:L7,"D")&gt;0,"D",IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E7" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F7" s="9" t="str">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="I7" s="9" t="str">
         <f t="array" ref="I7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J7" s="9" t="str">
         <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -2877,11 +2877,11 @@
         <v>1.7</v>
       </c>
       <c r="D8" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F8:L8,"D")&gt;0,"D",IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E8" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F8" s="9" t="str">
@@ -2898,19 +2898,19 @@
       </c>
       <c r="I8" s="9" t="str">
         <f t="array" ref="I8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J8" s="9" t="str">
         <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K8" s="9" t="str">
         <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -2921,11 +2921,11 @@
         <v>1.71</v>
       </c>
       <c r="D9" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F9:L9,"D")&gt;0,"D",IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E9" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F9" s="9" t="str">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="I9" s="9" t="str">
         <f t="array" ref="I9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -2965,11 +2965,11 @@
         <v>2.5</v>
       </c>
       <c r="D10" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F10:L10,"D")&gt;0,"D",IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F10" s="9" t="str">
@@ -2986,19 +2986,19 @@
       </c>
       <c r="I10" s="9" t="str">
         <f t="array" ref="I10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K10" s="9" t="str">
         <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -3009,11 +3009,11 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="D11" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F11:L11,"D")&gt;0,"D",IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F11" s="9" t="str">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="I11" s="9" t="str">
         <f t="array" ref="I11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -3053,11 +3053,11 @@
         <v>2.8</v>
       </c>
       <c r="D12" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F12:L12,"D")&gt;0,"D",IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E12" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F12" s="9" t="str">
@@ -3074,19 +3074,19 @@
       </c>
       <c r="I12" s="9" t="str">
         <f t="array" ref="I12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="array" ref="J12">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K12" s="9" t="str">
         <f t="array" ref="K12">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="array" ref="L12">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -3097,11 +3097,11 @@
         <v>2.81</v>
       </c>
       <c r="D13" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F13:L13,"D")&gt;0,"D",IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E13" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F13" s="9" t="str">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="I13" s="9" t="str">
         <f t="array" ref="I13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J13" s="9" t="str">
         <f t="array" ref="J13">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -3141,11 +3141,11 @@
         <v>3.0999999999999996</v>
       </c>
       <c r="D14" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F14:L14,"D")&gt;0,"D",IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E14" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F14" s="9" t="str">
@@ -3162,19 +3162,19 @@
       </c>
       <c r="I14" s="9" t="str">
         <f t="array" ref="I14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J14" s="9" t="str">
         <f t="array" ref="J14">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K14" s="9" t="str">
         <f t="array" ref="K14">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="array" ref="L14">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -3185,11 +3185,11 @@
         <v>3.8</v>
       </c>
       <c r="D15" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F15:L15,"D")&gt;0,"D",IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E15" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F15" s="9" t="str">
@@ -3206,19 +3206,19 @@
       </c>
       <c r="I15" s="9" t="str">
         <f t="array" ref="I15">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B15,C15),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J15" s="9" t="str">
         <f t="array" ref="J15">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K15" s="9" t="str">
         <f t="array" ref="K15">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="array" ref="L15">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -3229,11 +3229,11 @@
         <v>4.2000000000000011</v>
       </c>
       <c r="D16" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F16:L16,"D")&gt;0,"D",IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E16" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F16" s="9" t="str">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="I16" s="9" t="str">
         <f t="array" ref="I16">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B16,C16),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J16" s="9" t="str">
         <f t="array" ref="J16">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K16" s="9" t="str">
         <f t="array" ref="K16">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="array" ref="L16">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -3273,11 +3273,11 @@
         <v>4.5500000000000007</v>
       </c>
       <c r="D17" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F17:L17,"D")&gt;0,"D",IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E17" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F17" s="9" t="str">
@@ -3294,19 +3294,19 @@
       </c>
       <c r="I17" s="9" t="str">
         <f t="array" ref="I17">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B17,C17),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J17" s="9" t="str">
         <f t="array" ref="J17">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K17" s="9" t="str">
         <f t="array" ref="K17">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="array" ref="L17">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -3317,11 +3317,11 @@
         <v>5.4</v>
       </c>
       <c r="D18" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F18:L18,"D")&gt;0,"D",IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E18" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F18" s="9" t="str">
@@ -3338,19 +3338,19 @@
       </c>
       <c r="I18" s="9" t="str">
         <f t="array" ref="I18">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B18,C18),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J18" s="9" t="str">
         <f t="array" ref="J18">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K18" s="9" t="str">
         <f t="array" ref="K18">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L18" s="12" t="str">
         <f t="array" ref="L18">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -3361,11 +3361,11 @@
         <v>5.6</v>
       </c>
       <c r="D19" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F19:L19,"D")&gt;0,"D",IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E19" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F19" s="9" t="str">
@@ -3382,19 +3382,19 @@
       </c>
       <c r="I19" s="9" t="str">
         <f t="array" ref="I19">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B19,C19),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J19" s="9" t="str">
         <f t="array" ref="J19">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K19" s="9" t="str">
         <f t="array" ref="K19">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L19" s="12" t="str">
         <f t="array" ref="L19">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -3405,11 +3405,11 @@
         <v>5.9</v>
       </c>
       <c r="D20" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F20:L20,"D")&gt;0,"D",IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E20" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F20" s="9" t="str">
@@ -3426,19 +3426,19 @@
       </c>
       <c r="I20" s="9" t="str">
         <f t="array" ref="I20">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B20,C20),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J20" s="9" t="str">
         <f t="array" ref="J20">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K20" s="9" t="str">
         <f t="array" ref="K20">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L20" s="12" t="str">
         <f t="array" ref="L20">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -3449,11 +3449,11 @@
         <v>5.91</v>
       </c>
       <c r="D21" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F21:L21,"D")&gt;0,"D",IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E21" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F21" s="9" t="str">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="I21" s="9" t="str">
         <f t="array" ref="I21">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B21,C21),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J21" s="9" t="str">
         <f t="array" ref="J21">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -3493,11 +3493,11 @@
         <v>6.2000000000000011</v>
       </c>
       <c r="D22" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F22:L22,"D")&gt;0,"D",IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E22" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F22" s="9" t="str">
@@ -3514,19 +3514,19 @@
       </c>
       <c r="I22" s="9" t="str">
         <f t="array" ref="I22">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B22,C22),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J22" s="9" t="str">
         <f t="array" ref="J22">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K22" s="9" t="str">
         <f t="array" ref="K22">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L22" s="12" t="str">
         <f t="array" ref="L22">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -3537,11 +3537,11 @@
         <v>6.7</v>
       </c>
       <c r="D23" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F23:L23,"D")&gt;0,"D",IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E23" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F23" s="9" t="str">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="I23" s="9" t="str">
         <f t="array" ref="I23">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B23,C23),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J23" s="9" t="str">
         <f t="array" ref="J23">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K23" s="9" t="str">
         <f t="array" ref="K23">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L23" s="12" t="str">
         <f t="array" ref="L23">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -3581,11 +3581,11 @@
         <v>6.71</v>
       </c>
       <c r="D24" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F24:L24,"D")&gt;0,"D",IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E24" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F24" s="9" t="str">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="I24" s="9" t="str">
         <f t="array" ref="I24">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B24,C24),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J24" s="9" t="str">
         <f t="array" ref="J24">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -3625,11 +3625,11 @@
         <v>7.1</v>
       </c>
       <c r="D25" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F25:L25,"D")&gt;0,"D",IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E25" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F25" s="9" t="str">
@@ -3646,19 +3646,19 @@
       </c>
       <c r="I25" s="9" t="str">
         <f t="array" ref="I25">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B25,C25),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J25" s="9" t="str">
         <f t="array" ref="J25">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K25" s="9" t="str">
         <f t="array" ref="K25">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L25" s="12" t="str">
         <f t="array" ref="L25">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -3669,11 +3669,11 @@
         <v>7.11</v>
       </c>
       <c r="D26" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F26:L26,"D")&gt;0,"D",IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E26" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F26" s="9" t="str">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="I26" s="9" t="str">
         <f t="array" ref="I26">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B26,C26),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J26" s="9" t="str">
         <f t="array" ref="J26">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -3713,11 +3713,11 @@
         <v>7.35</v>
       </c>
       <c r="D27" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F27:L27,"D")&gt;0,"D",IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E27" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F27" s="9" t="str">
@@ -3734,19 +3734,19 @@
       </c>
       <c r="I27" s="9" t="str">
         <f t="array" ref="I27">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B27,C27),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J27" s="9" t="str">
         <f t="array" ref="J27">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K27" s="9" t="str">
         <f t="array" ref="K27">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L27" s="12" t="str">
         <f t="array" ref="L27">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -3757,11 +3757,11 @@
         <v>7.7</v>
       </c>
       <c r="D28" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F28:L28,"D")&gt;0,"D",IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E28" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F28" s="9" t="str">
@@ -3778,19 +3778,19 @@
       </c>
       <c r="I28" s="9" t="str">
         <f t="array" ref="I28">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B28,C28),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J28" s="9" t="str">
         <f t="array" ref="J28">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K28" s="9" t="str">
         <f t="array" ref="K28">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L28" s="12" t="str">
         <f t="array" ref="L28">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -3801,11 +3801,11 @@
         <v>7.71</v>
       </c>
       <c r="D29" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F29:L29,"D")&gt;0,"D",IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E29" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F29" s="9" t="str">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="I29" s="9" t="str">
         <f t="array" ref="I29">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B29,C29),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J29" s="9" t="str">
         <f t="array" ref="J29">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -3845,11 +3845,11 @@
         <v>8.25</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F30:L30,"D")&gt;0,"D",IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E30" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F30" s="9" t="str">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="I30" s="9" t="str">
         <f t="array" ref="I30">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B30,C30),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J30" s="9" t="str">
         <f t="array" ref="J30">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K30" s="9" t="str">
         <f t="array" ref="K30">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L30" s="12" t="str">
         <f t="array" ref="L30">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -3889,11 +3889,11 @@
         <v>8.26</v>
       </c>
       <c r="D31" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F31:L31,"D")&gt;0,"D",IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E31" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F31" s="9" t="str">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="I31" s="9" t="str">
         <f t="array" ref="I31">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B31,C31),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J31" s="9" t="str">
         <f t="array" ref="J31">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -3933,11 +3933,11 @@
         <v>9.1</v>
       </c>
       <c r="D32" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F32:L32,"D")&gt;0,"D",IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E32" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F32" s="9" t="str">
@@ -3954,19 +3954,19 @@
       </c>
       <c r="I32" s="9" t="str">
         <f t="array" ref="I32">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B32,C32),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J32" s="9" t="str">
         <f t="array" ref="J32">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K32" s="9" t="str">
         <f t="array" ref="K32">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L32" s="12" t="str">
         <f t="array" ref="L32">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -3977,11 +3977,11 @@
         <v>9.4</v>
       </c>
       <c r="D33" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F33:L33,"D")&gt;0,"D",IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E33" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F33" s="9" t="str">
@@ -3998,19 +3998,19 @@
       </c>
       <c r="I33" s="9" t="str">
         <f t="array" ref="I33">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B33,C33),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J33" s="9" t="str">
         <f t="array" ref="J33">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K33" s="9" t="str">
         <f t="array" ref="K33">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L33" s="12" t="str">
         <f t="array" ref="L33">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -4021,11 +4021,11 @@
         <v>10</v>
       </c>
       <c r="D34" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F34:L34,"D")&gt;0,"D",IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E34" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F34" s="9" t="str">
@@ -4042,19 +4042,19 @@
       </c>
       <c r="I34" s="9" t="str">
         <f t="array" ref="I34">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B34,C34),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J34" s="9" t="str">
         <f t="array" ref="J34">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K34" s="9" t="str">
         <f t="array" ref="K34">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L34" s="12" t="str">
         <f t="array" ref="L34">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -4065,11 +4065,11 @@
         <v>10.01</v>
       </c>
       <c r="D35" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F35:L35,"D")&gt;0,"D",IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E35" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F35" s="9" t="str">
@@ -4086,7 +4086,7 @@
       </c>
       <c r="I35" s="9" t="str">
         <f t="array" ref="I35">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B35,C35),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J35" s="9" t="str">
         <f t="array" ref="J35">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -4109,11 +4109,11 @@
         <v>10.1</v>
       </c>
       <c r="D36" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F36:L36,"D")&gt;0,"D",IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E36" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F36" s="9" t="str">
@@ -4130,19 +4130,19 @@
       </c>
       <c r="I36" s="9" t="str">
         <f t="array" ref="I36">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B36,C36),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J36" s="9" t="str">
         <f t="array" ref="J36">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K36" s="9" t="str">
         <f t="array" ref="K36">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L36" s="12" t="str">
         <f t="array" ref="L36">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -4153,11 +4153,11 @@
         <v>10.199999999999999</v>
       </c>
       <c r="D37" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F37:L37,"D")&gt;0,"D",IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E37" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F37" s="9" t="str">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="I37" s="9" t="str">
         <f t="array" ref="I37">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B37,C37),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J37" s="9" t="str">
         <f t="array" ref="J37">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K37" s="9" t="str">
         <f t="array" ref="K37">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L37" s="12" t="str">
         <f t="array" ref="L37">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -4197,11 +4197,11 @@
         <v>10.210000000000001</v>
       </c>
       <c r="D38" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F38:L38,"D")&gt;0,"D",IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E38" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F38" s="9" t="str">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="I38" s="9" t="str">
         <f t="array" ref="I38">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B38,C38),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J38" s="9" t="str">
         <f t="array" ref="J38">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -4241,11 +4241,11 @@
         <v>10.55</v>
       </c>
       <c r="D39" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F39:L39,"D")&gt;0,"D",IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E39" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F39" s="9" t="str">
@@ -4262,19 +4262,19 @@
       </c>
       <c r="I39" s="9" t="str">
         <f t="array" ref="I39">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B39,C39),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J39" s="9" t="str">
         <f t="array" ref="J39">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K39" s="9" t="str">
         <f t="array" ref="K39">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L39" s="12" t="str">
         <f t="array" ref="L39">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -4285,11 +4285,11 @@
         <v>10.56</v>
       </c>
       <c r="D40" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F40:L40,"D")&gt;0,"D",IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E40" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F40" s="9" t="str">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="I40" s="9" t="str">
         <f t="array" ref="I40">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B40,C40),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J40" s="9" t="str">
         <f t="array" ref="J40">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -4329,11 +4329,11 @@
         <v>10.6</v>
       </c>
       <c r="D41" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F41:L41,"D")&gt;0,"D",IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E41" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F41" s="9" t="str">
@@ -4350,19 +4350,19 @@
       </c>
       <c r="I41" s="9" t="str">
         <f t="array" ref="I41">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B41,C41),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J41" s="9" t="str">
         <f t="array" ref="J41">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B41,C41),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K41" s="9" t="str">
         <f t="array" ref="K41">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B41,C41),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L41" s="12" t="str">
         <f t="array" ref="L41">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B41,C41),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -4373,11 +4373,11 @@
         <v>11</v>
       </c>
       <c r="D42" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F42:L42,"D")&gt;0,"D",IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E42" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F42" s="9" t="str">
@@ -4394,19 +4394,19 @@
       </c>
       <c r="I42" s="9" t="str">
         <f t="array" ref="I42">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B42,C42),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J42" s="9" t="str">
         <f t="array" ref="J42">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B42,C42),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K42" s="9" t="str">
         <f t="array" ref="K42">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B42,C42),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L42" s="12" t="str">
         <f t="array" ref="L42">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B42,C42),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -4417,11 +4417,11 @@
         <v>11.01</v>
       </c>
       <c r="D43" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F43:L43,"D")&gt;0,"D",IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E43" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F43" s="9" t="str">
@@ -4438,7 +4438,7 @@
       </c>
       <c r="I43" s="9" t="str">
         <f t="array" ref="I43">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B43,C43),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J43" s="9" t="str">
         <f t="array" ref="J43">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B43,C43),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -4461,11 +4461,11 @@
         <v>11.4</v>
       </c>
       <c r="D44" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F44:L44,"D")&gt;0,"D",IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E44" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F44" s="9" t="str">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="I44" s="9" t="str">
         <f t="array" ref="I44">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B44,C44),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J44" s="9" t="str">
         <f t="array" ref="J44">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B44,C44),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K44" s="9" t="str">
         <f t="array" ref="K44">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B44,C44),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L44" s="12" t="str">
         <f t="array" ref="L44">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B44,C44),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -4505,11 +4505,11 @@
         <v>11.799999999999999</v>
       </c>
       <c r="D45" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F45:L45,"D")&gt;0,"D",IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E45" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F45" s="9" t="str">
@@ -4526,19 +4526,19 @@
       </c>
       <c r="I45" s="9" t="str">
         <f t="array" ref="I45">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B45,C45),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J45" s="9" t="str">
         <f t="array" ref="J45">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B45,C45),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K45" s="9" t="str">
         <f t="array" ref="K45">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B45,C45),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L45" s="12" t="str">
         <f t="array" ref="L45">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B45,C45),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -4549,11 +4549,11 @@
         <v>11.81</v>
       </c>
       <c r="D46" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F46:L46,"D")&gt;0,"D",IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E46" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F46" s="9" t="str">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="I46" s="9" t="str">
         <f t="array" ref="I46">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B46,C46),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J46" s="9" t="str">
         <f t="array" ref="J46">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B46,C46),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -4593,11 +4593,11 @@
         <v>12.1</v>
       </c>
       <c r="D47" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F47:L47,"D")&gt;0,"D",IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E47" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F47" s="9" t="str">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="I47" s="9" t="str">
         <f t="array" ref="I47">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B47,C47),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J47" s="9" t="str">
         <f t="array" ref="J47">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B47,C47),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -4622,11 +4622,11 @@
       </c>
       <c r="K47" s="9" t="str">
         <f t="array" ref="K47">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B47,C47),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L47" s="12" t="str">
         <f t="array" ref="L47">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B47,C47),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -4637,11 +4637,11 @@
         <v>12.200000000000001</v>
       </c>
       <c r="D48" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F48:L48,"D")&gt;0,"D",IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E48" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F48" s="9" t="str">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="I48" s="9" t="str">
         <f t="array" ref="I48">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B48,C48),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J48" s="9" t="str">
         <f t="array" ref="J48">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B48,C48),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -4666,11 +4666,11 @@
       </c>
       <c r="K48" s="9" t="str">
         <f t="array" ref="K48">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B48,C48),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L48" s="12" t="str">
         <f t="array" ref="L48">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B48,C48),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -4681,11 +4681,11 @@
         <v>12.500000000000002</v>
       </c>
       <c r="D49" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F49:L49,"D")&gt;0,"D",IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E49" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F49" s="9" t="str">
@@ -4702,7 +4702,7 @@
       </c>
       <c r="I49" s="9" t="str">
         <f t="array" ref="I49">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B49,C49),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J49" s="9" t="str">
         <f t="array" ref="J49">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B49,C49),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -4710,11 +4710,11 @@
       </c>
       <c r="K49" s="9" t="str">
         <f t="array" ref="K49">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B49,C49),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L49" s="12" t="str">
         <f t="array" ref="L49">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B49,C49),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -4725,11 +4725,11 @@
         <v>12.7</v>
       </c>
       <c r="D50" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F50:L50,"D")&gt;0,"D",IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E50" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F50" s="9" t="str">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="I50" s="9" t="str">
         <f t="array" ref="I50">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B50,C50),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J50" s="9" t="str">
         <f t="array" ref="J50">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B50,C50),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -4754,11 +4754,11 @@
       </c>
       <c r="K50" s="9" t="str">
         <f t="array" ref="K50">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B50,C50),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L50" s="12" t="str">
         <f t="array" ref="L50">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B50,C50),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -4769,11 +4769,11 @@
         <v>12.799999999999999</v>
       </c>
       <c r="D51" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F51:L51,"D")&gt;0,"D",IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E51" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F51" s="9" t="str">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="I51" s="9" t="str">
         <f t="array" ref="I51">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B51,C51),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J51" s="9" t="str">
         <f t="array" ref="J51">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B51,C51),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -4798,11 +4798,11 @@
       </c>
       <c r="K51" s="9" t="str">
         <f t="array" ref="K51">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B51,C51),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L51" s="12" t="str">
         <f t="array" ref="L51">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B51,C51),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -4813,11 +4813,11 @@
         <v>13</v>
       </c>
       <c r="D52" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F52:L52,"D")&gt;0,"D",IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E52" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F52" s="9" t="str">
@@ -4834,19 +4834,19 @@
       </c>
       <c r="I52" s="9" t="str">
         <f t="array" ref="I52">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B52,C52),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J52" s="9" t="str">
         <f t="array" ref="J52">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B52,C52),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K52" s="9" t="str">
         <f t="array" ref="K52">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B52,C52),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L52" s="12" t="str">
         <f t="array" ref="L52">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B52,C52),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -4857,11 +4857,11 @@
         <v>13.01</v>
       </c>
       <c r="D53" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F53:L53,"D")&gt;0,"D",IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E53" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F53" s="9" t="str">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="I53" s="9" t="str">
         <f t="array" ref="I53">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B53,C53),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J53" s="9" t="str">
         <f t="array" ref="J53">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B53,C53),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -4901,11 +4901,11 @@
         <v>13.200000000000001</v>
       </c>
       <c r="D54" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F54:L54,"D")&gt;0,"D",IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E54" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F54" s="9" t="str">
@@ -4922,19 +4922,19 @@
       </c>
       <c r="I54" s="9" t="str">
         <f t="array" ref="I54">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B54,C54),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J54" s="9" t="str">
         <f t="array" ref="J54">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B54,C54),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K54" s="9" t="str">
         <f t="array" ref="K54">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B54,C54),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L54" s="12" t="str">
         <f t="array" ref="L54">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B54,C54),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -4945,11 +4945,11 @@
         <v>13.4</v>
       </c>
       <c r="D55" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F55:L55,"D")&gt;0,"D",IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E55" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F55" s="9" t="str">
@@ -4966,19 +4966,19 @@
       </c>
       <c r="I55" s="9" t="str">
         <f t="array" ref="I55">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B55,C55),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J55" s="9" t="str">
         <f t="array" ref="J55">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B55,C55),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K55" s="9" t="str">
         <f t="array" ref="K55">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B55,C55),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L55" s="12" t="str">
         <f t="array" ref="L55">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B55,C55),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -4989,11 +4989,11 @@
         <v>13.41</v>
       </c>
       <c r="D56" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F56:L56,"D")&gt;0,"D",IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E56" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F56" s="9" t="str">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="I56" s="9" t="str">
         <f t="array" ref="I56">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B56,C56),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J56" s="9" t="str">
         <f t="array" ref="J56">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B56,C56),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5033,11 +5033,11 @@
         <v>13.9</v>
       </c>
       <c r="D57" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F57:L57,"D")&gt;0,"D",IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E57" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F57" s="9" t="str">
@@ -5054,19 +5054,19 @@
       </c>
       <c r="I57" s="9" t="str">
         <f t="array" ref="I57">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B57,C57),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J57" s="9" t="str">
         <f t="array" ref="J57">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B57,C57),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K57" s="9" t="str">
         <f t="array" ref="K57">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B57,C57),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L57" s="12" t="str">
         <f t="array" ref="L57">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B57,C57),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -5077,11 +5077,11 @@
         <v>13.91</v>
       </c>
       <c r="D58" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F58:L58,"D")&gt;0,"D",IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+I</v>
       </c>
       <c r="E58" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F58" s="9" t="str">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="I58" s="9" t="str">
         <f t="array" ref="I58">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B58,C58),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J58" s="9" t="str">
         <f t="array" ref="J58">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B58,C58),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5121,11 +5121,11 @@
         <v>14.1</v>
       </c>
       <c r="D59" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F59:L59,"D")&gt;0,"D",IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E59" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F59" s="9" t="str">
@@ -5142,19 +5142,19 @@
       </c>
       <c r="I59" s="9" t="str">
         <f t="array" ref="I59">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B59,C59),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J59" s="9" t="str">
         <f t="array" ref="J59">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B59,C59),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K59" s="9" t="str">
         <f t="array" ref="K59">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B59,C59),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L59" s="12" t="str">
         <f t="array" ref="L59">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B59,C59),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -5165,11 +5165,11 @@
         <v>14.2</v>
       </c>
       <c r="D60" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F60:L60,"D")&gt;0,"D",IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+II</v>
       </c>
       <c r="E60" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+II</v>
       </c>
       <c r="F60" s="9" t="str">
@@ -5186,19 +5186,19 @@
       </c>
       <c r="I60" s="9" t="str">
         <f t="array" ref="I60">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B60,C60),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J60" s="9" t="str">
         <f t="array" ref="J60">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B60,C60),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K60" s="9" t="str">
         <f t="array" ref="K60">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B60,C60),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L60" s="12" t="str">
         <f t="array" ref="L60">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B60,C60),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -5209,11 +5209,11 @@
         <v>14.21</v>
       </c>
       <c r="D61" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F61:L61,"D")&gt;0,"D",IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E61" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F61" s="9" t="str">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="I61" s="9" t="str">
         <f t="array" ref="I61">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B61,C61),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J61" s="9" t="str">
         <f t="array" ref="J61">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B61,C61),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5253,11 +5253,11 @@
         <v>14.4</v>
       </c>
       <c r="D62" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F62:L62,"D")&gt;0,"D",IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E62" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F62" s="9" t="str">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="I62" s="9" t="str">
         <f t="array" ref="I62">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B62,C62),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J62" s="9" t="str">
         <f t="array" ref="J62">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B62,C62),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5282,11 +5282,11 @@
       </c>
       <c r="K62" s="9" t="str">
         <f t="array" ref="K62">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B62,C62),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L62" s="12" t="str">
         <f t="array" ref="L62">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B62,C62),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -5297,11 +5297,11 @@
         <v>14.5</v>
       </c>
       <c r="D63" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F63:L63,"D")&gt;0,"D",IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E63" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F63" s="9" t="str">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="I63" s="9" t="str">
         <f t="array" ref="I63">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B63,C63),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J63" s="9" t="str">
         <f t="array" ref="J63">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B63,C63),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5326,11 +5326,11 @@
       </c>
       <c r="K63" s="9" t="str">
         <f t="array" ref="K63">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B63,C63),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L63" s="12" t="str">
         <f t="array" ref="L63">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B63,C63),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -5341,11 +5341,11 @@
         <v>14.799999999999999</v>
       </c>
       <c r="D64" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F64:L64,"D")&gt;0,"D",IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-II</v>
       </c>
       <c r="E64" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-II</v>
       </c>
       <c r="F64" s="9" t="str">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="I64" s="9" t="str">
         <f t="array" ref="I64">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B64,C64),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J64" s="9" t="str">
         <f t="array" ref="J64">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B64,C64),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5370,11 +5370,11 @@
       </c>
       <c r="K64" s="9" t="str">
         <f t="array" ref="K64">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B64,C64),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L64" s="12" t="str">
         <f t="array" ref="L64">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B64,C64),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -5385,11 +5385,11 @@
         <v>15</v>
       </c>
       <c r="D65" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F65:L65,"D")&gt;0,"D",IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E65" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F65" s="9" t="str">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="I65" s="9" t="str">
         <f t="array" ref="I65">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B65,C65),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J65" s="9" t="str">
         <f t="array" ref="J65">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B65,C65),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K65" s="9" t="str">
         <f t="array" ref="K65">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B65,C65),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L65" s="12" t="str">
         <f t="array" ref="L65">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B65,C65),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -5429,11 +5429,11 @@
         <v>15.01</v>
       </c>
       <c r="D66" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F66:L66,"D")&gt;0,"D",IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E66" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F66" s="9" t="str">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="I66" s="9" t="str">
         <f t="array" ref="I66">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B66,C66),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J66" s="9" t="str">
         <f t="array" ref="J66">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B66,C66),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5473,11 +5473,11 @@
         <v>15.7</v>
       </c>
       <c r="D67" s="23" t="str">
-        <f t="shared" ref="D67:D82" si="2">IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f>IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E67" s="23" t="str">
-        <f t="shared" ref="E67:E82" si="3">IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND")))))))</f>
+        <f>IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F67" s="9" t="str">
@@ -5494,19 +5494,19 @@
       </c>
       <c r="I67" s="9" t="str">
         <f t="array" ref="I67">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B67,C67),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J67" s="9" t="str">
         <f t="array" ref="J67">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B67,C67),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K67" s="9" t="str">
         <f t="array" ref="K67">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B67,C67),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L67" s="12" t="str">
         <f t="array" ref="L67">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B67,C67),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -5517,11 +5517,11 @@
         <v>15.71</v>
       </c>
       <c r="D68" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F68:L68,"D")&gt;0,"D",IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E68" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F68" s="9" t="str">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="I68" s="9" t="str">
         <f t="array" ref="I68">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B68,C68),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J68" s="9" t="str">
         <f t="array" ref="J68">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B68,C68),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5561,11 +5561,11 @@
         <v>16</v>
       </c>
       <c r="D69" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F69:L69,"D")&gt;0,"D",IF(COUNTIF(F69:L69,"-III")&gt;0,"-III",IF(COUNTIF(F69:L69,"-II")&gt;0,"-II",IF(COUNTIF(F69:L69,"-I")&gt;0,"-I",IF(COUNTIF(F69:L69,"+0")&gt;0,"+0",IF(COUNTIF(F69:L69,"+I")&gt;0,"+I",IF(COUNTIF(F69:L69,"+II")&gt;0,"+II",IF(COUNTIF(F69:L69,"+III")&gt;0,"+III",IF(COUNTIF(F69:L69,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E69" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F69:L69,"-III")&gt;0,"-III",IF(COUNTIF(F69:L69,"-II")&gt;0,"-II",IF(COUNTIF(F69:L69,"-I")&gt;0,"-I",IF(COUNTIF(F69:L69,"+0")&gt;0,"+0",IF(COUNTIF(F69:L69,"+I")&gt;0,"+I",IF(COUNTIF(F69:L69,"+II")&gt;0,"+II",IF(COUNTIF(F69:L69,"+III")&gt;0,"+III",IF(COUNTIF(F69:L69,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F69" s="9" t="str">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="I69" s="9" t="str">
         <f t="array" ref="I69">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B69,C69),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J69" s="9" t="str">
         <f t="array" ref="J69">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B69,C69),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5590,11 +5590,11 @@
       </c>
       <c r="K69" s="9" t="str">
         <f t="array" ref="K69">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B69,C69),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L69" s="12" t="str">
         <f t="array" ref="L69">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B69,C69),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -5605,11 +5605,11 @@
         <v>16.100000000000001</v>
       </c>
       <c r="D70" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F70:L70,"D")&gt;0,"D",IF(COUNTIF(F70:L70,"-III")&gt;0,"-III",IF(COUNTIF(F70:L70,"-II")&gt;0,"-II",IF(COUNTIF(F70:L70,"-I")&gt;0,"-I",IF(COUNTIF(F70:L70,"+0")&gt;0,"+0",IF(COUNTIF(F70:L70,"+I")&gt;0,"+I",IF(COUNTIF(F70:L70,"+II")&gt;0,"+II",IF(COUNTIF(F70:L70,"+III")&gt;0,"+III",IF(COUNTIF(F70:L70,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E70" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F70:L70,"-III")&gt;0,"-III",IF(COUNTIF(F70:L70,"-II")&gt;0,"-II",IF(COUNTIF(F70:L70,"-I")&gt;0,"-I",IF(COUNTIF(F70:L70,"+0")&gt;0,"+0",IF(COUNTIF(F70:L70,"+I")&gt;0,"+I",IF(COUNTIF(F70:L70,"+II")&gt;0,"+II",IF(COUNTIF(F70:L70,"+III")&gt;0,"+III",IF(COUNTIF(F70:L70,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F70" s="9" t="str">
@@ -5626,19 +5626,19 @@
       </c>
       <c r="I70" s="9" t="str">
         <f t="array" ref="I70">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B70,C70),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J70" s="9" t="str">
         <f t="array" ref="J70">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B70,C70),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K70" s="9" t="str">
         <f t="array" ref="K70">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B70,C70),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L70" s="12" t="str">
         <f t="array" ref="L70">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B70,C70),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -5649,11 +5649,11 @@
         <v>16.11</v>
       </c>
       <c r="D71" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F71:L71,"D")&gt;0,"D",IF(COUNTIF(F71:L71,"-III")&gt;0,"-III",IF(COUNTIF(F71:L71,"-II")&gt;0,"-II",IF(COUNTIF(F71:L71,"-I")&gt;0,"-I",IF(COUNTIF(F71:L71,"+0")&gt;0,"+0",IF(COUNTIF(F71:L71,"+I")&gt;0,"+I",IF(COUNTIF(F71:L71,"+II")&gt;0,"+II",IF(COUNTIF(F71:L71,"+III")&gt;0,"+III",IF(COUNTIF(F71:L71,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E71" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F71:L71,"-III")&gt;0,"-III",IF(COUNTIF(F71:L71,"-II")&gt;0,"-II",IF(COUNTIF(F71:L71,"-I")&gt;0,"-I",IF(COUNTIF(F71:L71,"+0")&gt;0,"+0",IF(COUNTIF(F71:L71,"+I")&gt;0,"+I",IF(COUNTIF(F71:L71,"+II")&gt;0,"+II",IF(COUNTIF(F71:L71,"+III")&gt;0,"+III",IF(COUNTIF(F71:L71,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F71" s="9" t="str">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="I71" s="9" t="str">
         <f t="array" ref="I71">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B71,C71),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J71" s="9" t="str">
         <f t="array" ref="J71">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B71,C71),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5693,11 +5693,11 @@
         <v>16.200000000000003</v>
       </c>
       <c r="D72" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F72:L72,"D")&gt;0,"D",IF(COUNTIF(F72:L72,"-III")&gt;0,"-III",IF(COUNTIF(F72:L72,"-II")&gt;0,"-II",IF(COUNTIF(F72:L72,"-I")&gt;0,"-I",IF(COUNTIF(F72:L72,"+0")&gt;0,"+0",IF(COUNTIF(F72:L72,"+I")&gt;0,"+I",IF(COUNTIF(F72:L72,"+II")&gt;0,"+II",IF(COUNTIF(F72:L72,"+III")&gt;0,"+III",IF(COUNTIF(F72:L72,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E72" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F72:L72,"-III")&gt;0,"-III",IF(COUNTIF(F72:L72,"-II")&gt;0,"-II",IF(COUNTIF(F72:L72,"-I")&gt;0,"-I",IF(COUNTIF(F72:L72,"+0")&gt;0,"+0",IF(COUNTIF(F72:L72,"+I")&gt;0,"+I",IF(COUNTIF(F72:L72,"+II")&gt;0,"+II",IF(COUNTIF(F72:L72,"+III")&gt;0,"+III",IF(COUNTIF(F72:L72,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F72" s="9" t="str">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="I72" s="9" t="str">
         <f t="array" ref="I72">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B72,C72),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J72" s="9" t="str">
         <f t="array" ref="J72">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B72,C72),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K72" s="9" t="str">
         <f t="array" ref="K72">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B72,C72),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L72" s="12" t="str">
         <f t="array" ref="L72">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B72,C72),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -5737,11 +5737,11 @@
         <v>16.3</v>
       </c>
       <c r="D73" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F73:L73,"D")&gt;0,"D",IF(COUNTIF(F73:L73,"-III")&gt;0,"-III",IF(COUNTIF(F73:L73,"-II")&gt;0,"-II",IF(COUNTIF(F73:L73,"-I")&gt;0,"-I",IF(COUNTIF(F73:L73,"+0")&gt;0,"+0",IF(COUNTIF(F73:L73,"+I")&gt;0,"+I",IF(COUNTIF(F73:L73,"+II")&gt;0,"+II",IF(COUNTIF(F73:L73,"+III")&gt;0,"+III",IF(COUNTIF(F73:L73,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E73" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F73:L73,"-III")&gt;0,"-III",IF(COUNTIF(F73:L73,"-II")&gt;0,"-II",IF(COUNTIF(F73:L73,"-I")&gt;0,"-I",IF(COUNTIF(F73:L73,"+0")&gt;0,"+0",IF(COUNTIF(F73:L73,"+I")&gt;0,"+I",IF(COUNTIF(F73:L73,"+II")&gt;0,"+II",IF(COUNTIF(F73:L73,"+III")&gt;0,"+III",IF(COUNTIF(F73:L73,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F73" s="9" t="str">
@@ -5758,19 +5758,19 @@
       </c>
       <c r="I73" s="9" t="str">
         <f t="array" ref="I73">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B73,C73),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J73" s="9" t="str">
         <f t="array" ref="J73">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B73,C73),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K73" s="9" t="str">
         <f t="array" ref="K73">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B73,C73),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L73" s="12" t="str">
         <f t="array" ref="L73">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B73,C73),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
@@ -5781,11 +5781,11 @@
         <v>16.309999999999999</v>
       </c>
       <c r="D74" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F74:L74,"D")&gt;0,"D",IF(COUNTIF(F74:L74,"-III")&gt;0,"-III",IF(COUNTIF(F74:L74,"-II")&gt;0,"-II",IF(COUNTIF(F74:L74,"-I")&gt;0,"-I",IF(COUNTIF(F74:L74,"+0")&gt;0,"+0",IF(COUNTIF(F74:L74,"+I")&gt;0,"+I",IF(COUNTIF(F74:L74,"+II")&gt;0,"+II",IF(COUNTIF(F74:L74,"+III")&gt;0,"+III",IF(COUNTIF(F74:L74,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E74" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F74:L74,"-III")&gt;0,"-III",IF(COUNTIF(F74:L74,"-II")&gt;0,"-II",IF(COUNTIF(F74:L74,"-I")&gt;0,"-I",IF(COUNTIF(F74:L74,"+0")&gt;0,"+0",IF(COUNTIF(F74:L74,"+I")&gt;0,"+I",IF(COUNTIF(F74:L74,"+II")&gt;0,"+II",IF(COUNTIF(F74:L74,"+III")&gt;0,"+III",IF(COUNTIF(F74:L74,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F74" s="9" t="str">
@@ -5802,19 +5802,19 @@
       </c>
       <c r="I74" s="9" t="str">
         <f t="array" ref="I74">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B74,C74),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J74" s="9" t="str">
         <f t="array" ref="J74">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B74,C74),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K74" s="9" t="str">
         <f t="array" ref="K74">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B74,C74),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L74" s="12" t="str">
         <f t="array" ref="L74">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B74,C74),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
@@ -5825,11 +5825,11 @@
         <v>16.399999999999999</v>
       </c>
       <c r="D75" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F75:L75,"D")&gt;0,"D",IF(COUNTIF(F75:L75,"-III")&gt;0,"-III",IF(COUNTIF(F75:L75,"-II")&gt;0,"-II",IF(COUNTIF(F75:L75,"-I")&gt;0,"-I",IF(COUNTIF(F75:L75,"+0")&gt;0,"+0",IF(COUNTIF(F75:L75,"+I")&gt;0,"+I",IF(COUNTIF(F75:L75,"+II")&gt;0,"+II",IF(COUNTIF(F75:L75,"+III")&gt;0,"+III",IF(COUNTIF(F75:L75,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E75" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F75:L75,"-III")&gt;0,"-III",IF(COUNTIF(F75:L75,"-II")&gt;0,"-II",IF(COUNTIF(F75:L75,"-I")&gt;0,"-I",IF(COUNTIF(F75:L75,"+0")&gt;0,"+0",IF(COUNTIF(F75:L75,"+I")&gt;0,"+I",IF(COUNTIF(F75:L75,"+II")&gt;0,"+II",IF(COUNTIF(F75:L75,"+III")&gt;0,"+III",IF(COUNTIF(F75:L75,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F75" s="9" t="str">
@@ -5846,19 +5846,19 @@
       </c>
       <c r="I75" s="9" t="str">
         <f t="array" ref="I75">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B75,C75),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J75" s="9" t="str">
         <f t="array" ref="J75">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B75,C75),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K75" s="9" t="str">
         <f t="array" ref="K75">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B75,C75),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L75" s="12" t="str">
         <f t="array" ref="L75">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B75,C75),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
@@ -5869,11 +5869,11 @@
         <v>16.7</v>
       </c>
       <c r="D76" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F76:L76,"D")&gt;0,"D",IF(COUNTIF(F76:L76,"-III")&gt;0,"-III",IF(COUNTIF(F76:L76,"-II")&gt;0,"-II",IF(COUNTIF(F76:L76,"-I")&gt;0,"-I",IF(COUNTIF(F76:L76,"+0")&gt;0,"+0",IF(COUNTIF(F76:L76,"+I")&gt;0,"+I",IF(COUNTIF(F76:L76,"+II")&gt;0,"+II",IF(COUNTIF(F76:L76,"+III")&gt;0,"+III",IF(COUNTIF(F76:L76,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E76" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F76:L76,"-III")&gt;0,"-III",IF(COUNTIF(F76:L76,"-II")&gt;0,"-II",IF(COUNTIF(F76:L76,"-I")&gt;0,"-I",IF(COUNTIF(F76:L76,"+0")&gt;0,"+0",IF(COUNTIF(F76:L76,"+I")&gt;0,"+I",IF(COUNTIF(F76:L76,"+II")&gt;0,"+II",IF(COUNTIF(F76:L76,"+III")&gt;0,"+III",IF(COUNTIF(F76:L76,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F76" s="9" t="str">
@@ -5890,19 +5890,19 @@
       </c>
       <c r="I76" s="9" t="str">
         <f t="array" ref="I76">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B76,C76),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J76" s="9" t="str">
         <f t="array" ref="J76">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B76,C76),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K76" s="9" t="str">
         <f t="array" ref="K76">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B76,C76),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L76" s="12" t="str">
         <f t="array" ref="L76">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B76,C76),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -5913,11 +5913,11 @@
         <v>16.71</v>
       </c>
       <c r="D77" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F77:L77,"D")&gt;0,"D",IF(COUNTIF(F77:L77,"-III")&gt;0,"-III",IF(COUNTIF(F77:L77,"-II")&gt;0,"-II",IF(COUNTIF(F77:L77,"-I")&gt;0,"-I",IF(COUNTIF(F77:L77,"+0")&gt;0,"+0",IF(COUNTIF(F77:L77,"+I")&gt;0,"+I",IF(COUNTIF(F77:L77,"+II")&gt;0,"+II",IF(COUNTIF(F77:L77,"+III")&gt;0,"+III",IF(COUNTIF(F77:L77,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E77" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F77:L77,"-III")&gt;0,"-III",IF(COUNTIF(F77:L77,"-II")&gt;0,"-II",IF(COUNTIF(F77:L77,"-I")&gt;0,"-I",IF(COUNTIF(F77:L77,"+0")&gt;0,"+0",IF(COUNTIF(F77:L77,"+I")&gt;0,"+I",IF(COUNTIF(F77:L77,"+II")&gt;0,"+II",IF(COUNTIF(F77:L77,"+III")&gt;0,"+III",IF(COUNTIF(F77:L77,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F77" s="9" t="str">
@@ -5934,7 +5934,7 @@
       </c>
       <c r="I77" s="9" t="str">
         <f t="array" ref="I77">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B77,C77),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J77" s="9" t="str">
         <f t="array" ref="J77">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B77,C77),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5957,11 +5957,11 @@
         <v>17.2</v>
       </c>
       <c r="D78" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F78:L78,"D")&gt;0,"D",IF(COUNTIF(F78:L78,"-III")&gt;0,"-III",IF(COUNTIF(F78:L78,"-II")&gt;0,"-II",IF(COUNTIF(F78:L78,"-I")&gt;0,"-I",IF(COUNTIF(F78:L78,"+0")&gt;0,"+0",IF(COUNTIF(F78:L78,"+I")&gt;0,"+I",IF(COUNTIF(F78:L78,"+II")&gt;0,"+II",IF(COUNTIF(F78:L78,"+III")&gt;0,"+III",IF(COUNTIF(F78:L78,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>+0</v>
       </c>
       <c r="E78" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F78:L78,"-III")&gt;0,"-III",IF(COUNTIF(F78:L78,"-II")&gt;0,"-II",IF(COUNTIF(F78:L78,"-I")&gt;0,"-I",IF(COUNTIF(F78:L78,"+0")&gt;0,"+0",IF(COUNTIF(F78:L78,"+I")&gt;0,"+I",IF(COUNTIF(F78:L78,"+II")&gt;0,"+II",IF(COUNTIF(F78:L78,"+III")&gt;0,"+III",IF(COUNTIF(F78:L78,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+0</v>
       </c>
       <c r="F78" s="9" t="str">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="I78" s="9" t="str">
         <f t="array" ref="I78">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B78,C78),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J78" s="9" t="str">
         <f t="array" ref="J78">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B78,C78),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -5986,11 +5986,11 @@
       </c>
       <c r="K78" s="9" t="str">
         <f t="array" ref="K78">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B78,C78),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L78" s="12" t="str">
         <f t="array" ref="L78">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B78,C78),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -6001,11 +6001,11 @@
         <v>17.21</v>
       </c>
       <c r="D79" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F79:L79,"D")&gt;0,"D",IF(COUNTIF(F79:L79,"-III")&gt;0,"-III",IF(COUNTIF(F79:L79,"-II")&gt;0,"-II",IF(COUNTIF(F79:L79,"-I")&gt;0,"-I",IF(COUNTIF(F79:L79,"+0")&gt;0,"+0",IF(COUNTIF(F79:L79,"+I")&gt;0,"+I",IF(COUNTIF(F79:L79,"+II")&gt;0,"+II",IF(COUNTIF(F79:L79,"+III")&gt;0,"+III",IF(COUNTIF(F79:L79,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-I</v>
       </c>
       <c r="E79" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F79:L79,"-III")&gt;0,"-III",IF(COUNTIF(F79:L79,"-II")&gt;0,"-II",IF(COUNTIF(F79:L79,"-I")&gt;0,"-I",IF(COUNTIF(F79:L79,"+0")&gt;0,"+0",IF(COUNTIF(F79:L79,"+I")&gt;0,"+I",IF(COUNTIF(F79:L79,"+II")&gt;0,"+II",IF(COUNTIF(F79:L79,"+III")&gt;0,"+III",IF(COUNTIF(F79:L79,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-I</v>
       </c>
       <c r="F79" s="9" t="str">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="I79" s="9" t="str">
         <f t="array" ref="I79">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B79,C79),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J79" s="9" t="str">
         <f t="array" ref="J79">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B79,C79),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -6030,11 +6030,11 @@
       </c>
       <c r="K79" s="9" t="str">
         <f t="array" ref="K79">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B79,C79),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L79" s="12" t="str">
         <f t="array" ref="L79">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B79,C79),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -6045,11 +6045,11 @@
         <v>17.3</v>
       </c>
       <c r="D80" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F80:L80,"D")&gt;0,"D",IF(COUNTIF(F80:L80,"-III")&gt;0,"-III",IF(COUNTIF(F80:L80,"-II")&gt;0,"-II",IF(COUNTIF(F80:L80,"-I")&gt;0,"-I",IF(COUNTIF(F80:L80,"+0")&gt;0,"+0",IF(COUNTIF(F80:L80,"+I")&gt;0,"+I",IF(COUNTIF(F80:L80,"+II")&gt;0,"+II",IF(COUNTIF(F80:L80,"+III")&gt;0,"+III",IF(COUNTIF(F80:L80,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-I</v>
       </c>
       <c r="E80" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F80:L80,"-III")&gt;0,"-III",IF(COUNTIF(F80:L80,"-II")&gt;0,"-II",IF(COUNTIF(F80:L80,"-I")&gt;0,"-I",IF(COUNTIF(F80:L80,"+0")&gt;0,"+0",IF(COUNTIF(F80:L80,"+I")&gt;0,"+I",IF(COUNTIF(F80:L80,"+II")&gt;0,"+II",IF(COUNTIF(F80:L80,"+III")&gt;0,"+III",IF(COUNTIF(F80:L80,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-I</v>
       </c>
       <c r="F80" s="9" t="str">
@@ -6066,7 +6066,7 @@
       </c>
       <c r="I80" s="9" t="str">
         <f t="array" ref="I80">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B80,C80),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J80" s="9" t="str">
         <f t="array" ref="J80">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B80,C80),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -6074,11 +6074,11 @@
       </c>
       <c r="K80" s="9" t="str">
         <f t="array" ref="K80">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B80,C80),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L80" s="12" t="str">
         <f t="array" ref="L80">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B80,C80),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
@@ -6089,11 +6089,11 @@
         <v>17.309999999999999</v>
       </c>
       <c r="D81" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F81:L81,"D")&gt;0,"D",IF(COUNTIF(F81:L81,"-III")&gt;0,"-III",IF(COUNTIF(F81:L81,"-II")&gt;0,"-II",IF(COUNTIF(F81:L81,"-I")&gt;0,"-I",IF(COUNTIF(F81:L81,"+0")&gt;0,"+0",IF(COUNTIF(F81:L81,"+I")&gt;0,"+I",IF(COUNTIF(F81:L81,"+II")&gt;0,"+II",IF(COUNTIF(F81:L81,"+III")&gt;0,"+III",IF(COUNTIF(F81:L81,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-I</v>
       </c>
       <c r="E81" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F81:L81,"-III")&gt;0,"-III",IF(COUNTIF(F81:L81,"-II")&gt;0,"-II",IF(COUNTIF(F81:L81,"-I")&gt;0,"-I",IF(COUNTIF(F81:L81,"+0")&gt;0,"+0",IF(COUNTIF(F81:L81,"+I")&gt;0,"+I",IF(COUNTIF(F81:L81,"+II")&gt;0,"+II",IF(COUNTIF(F81:L81,"+III")&gt;0,"+III",IF(COUNTIF(F81:L81,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-I</v>
       </c>
       <c r="F81" s="9" t="str">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="I81" s="9" t="str">
         <f t="array" ref="I81">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B81,C81),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J81" s="9" t="str">
         <f t="array" ref="J81">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B81,C81),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -6133,11 +6133,11 @@
         <v>17.5</v>
       </c>
       <c r="D82" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F82:L82,"D")&gt;0,"D",IF(COUNTIF(F82:L82,"-III")&gt;0,"-III",IF(COUNTIF(F82:L82,"-II")&gt;0,"-II",IF(COUNTIF(F82:L82,"-I")&gt;0,"-I",IF(COUNTIF(F82:L82,"+0")&gt;0,"+0",IF(COUNTIF(F82:L82,"+I")&gt;0,"+I",IF(COUNTIF(F82:L82,"+II")&gt;0,"+II",IF(COUNTIF(F82:L82,"+III")&gt;0,"+III",IF(COUNTIF(F82:L82,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-I</v>
       </c>
       <c r="E82" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F82:L82,"-III")&gt;0,"-III",IF(COUNTIF(F82:L82,"-II")&gt;0,"-II",IF(COUNTIF(F82:L82,"-I")&gt;0,"-I",IF(COUNTIF(F82:L82,"+0")&gt;0,"+0",IF(COUNTIF(F82:L82,"+I")&gt;0,"+I",IF(COUNTIF(F82:L82,"+II")&gt;0,"+II",IF(COUNTIF(F82:L82,"+III")&gt;0,"+III",IF(COUNTIF(F82:L82,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-I</v>
       </c>
       <c r="F82" s="9" t="str">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="I82" s="9" t="str">
         <f t="array" ref="I82">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B82,C82),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J82" s="9" t="str">
         <f t="array" ref="J82">INDEX(STKWp!$K$11:$K$97,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$97&gt;AVERAGE(B82,C82),STKWp!$D$11:$D$97)),STKWp!$D$11:$D$97),1))</f>
@@ -6162,11 +6162,11 @@
       </c>
       <c r="K82" s="9" t="str">
         <f t="array" ref="K82">INDEX(BSKW!$K$11:$K$109,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$109&gt;AVERAGE(B82,C82),BSKW!$D$11:$D$109)),BSKW!$D$11:$D$109),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L82" s="12" t="str">
         <f t="array" ref="L82">INDEX(HTKW!$K$11:$K$86,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$86&gt;AVERAGE(B82,C82),HTKW!$D$11:$D$86)),HTKW!$D$11:$D$86),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
@@ -6568,7 +6568,7 @@
   <dimension ref="B2:Y36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="O11" sqref="O11:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6759,7 +6759,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11:O26" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <f t="shared" ref="O11:O26" si="3">IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
         <v>+I</v>
       </c>
       <c r="Q11" s="31">
@@ -8282,7 +8282,7 @@
   <dimension ref="B2:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="O11" sqref="O11:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8469,7 +8469,7 @@
         <v>1.3959999999999999</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11:O13" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <f t="shared" ref="O11:O29" si="3">IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
         <v>+III</v>
       </c>
       <c r="Q11" s="31">
@@ -8697,23 +8697,23 @@
         <v>1.5279999999999989</v>
       </c>
       <c r="O14" s="32" t="str">
-        <f t="shared" ref="O14:O29" si="12">IF(ISNUMBER($M14),W14,IF($X14,"D","ND"))</f>
+        <f t="shared" si="3"/>
         <v>+II</v>
       </c>
       <c r="Q14" s="31">
-        <f t="shared" ref="Q14:Q29" si="13">IF(AND(F14="Geen faalkans",I14="Nee"),1,1-M14)</f>
+        <f t="shared" ref="Q14:Q29" si="12">IF(AND(F14="Geen faalkans",I14="Nee"),1,1-M14)</f>
         <v>0.99999803042327995</v>
       </c>
       <c r="R14" s="10">
-        <f t="shared" ref="R14:R29" si="14">IF(M14="-",1,Q14)</f>
+        <f t="shared" ref="R14:R29" si="13">IF(M14="-",1,Q14)</f>
         <v>0.99999803042327995</v>
       </c>
       <c r="S14" s="10">
-        <f t="shared" ref="S14:S29" si="15">IF(AND(F14="Geen faalkans",I14="Nee"),0,L14*$C$3)</f>
+        <f t="shared" ref="S14:S29" si="14">IF(AND(F14="Geen faalkans",I14="Nee"),0,L14*$C$3)</f>
         <v>1.9077051999999999E-5</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" ref="T14:T29" si="16">IF(L14="-",0,S14)</f>
+        <f t="shared" ref="T14:T29" si="15">IF(L14="-",0,S14)</f>
         <v>1.9077051999999999E-5</v>
       </c>
       <c r="U14" s="9">
@@ -8773,23 +8773,23 @@
         <v>1.3959999999999999</v>
       </c>
       <c r="O15" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="Q15" s="31">
         <f t="shared" si="12"/>
-        <v>+III</v>
-      </c>
-      <c r="Q15" s="31">
+        <v>0.99999998236447163</v>
+      </c>
+      <c r="R15" s="10">
         <f t="shared" si="13"/>
         <v>0.99999998236447163</v>
       </c>
-      <c r="R15" s="10">
+      <c r="S15" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999998236447163</v>
-      </c>
-      <c r="S15" s="10">
+        <v>1.8696692000000001E-7</v>
+      </c>
+      <c r="T15" s="10">
         <f t="shared" si="15"/>
-        <v>1.8696692000000001E-7</v>
-      </c>
-      <c r="T15" s="10">
-        <f t="shared" si="16"/>
         <v>1.8696692000000001E-7</v>
       </c>
       <c r="U15" s="9">
@@ -8849,23 +8849,23 @@
         <v>1.7260000000000009</v>
       </c>
       <c r="O16" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+I</v>
+      </c>
+      <c r="Q16" s="31">
         <f t="shared" si="12"/>
-        <v>+I</v>
-      </c>
-      <c r="Q16" s="31">
+        <v>0.99999594172523998</v>
+      </c>
+      <c r="R16" s="10">
         <f t="shared" si="13"/>
         <v>0.99999594172523998</v>
       </c>
-      <c r="R16" s="10">
+      <c r="S16" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999594172523998</v>
-      </c>
-      <c r="S16" s="10">
+        <v>3.4798648E-5</v>
+      </c>
+      <c r="T16" s="10">
         <f t="shared" si="15"/>
-        <v>3.4798648E-5</v>
-      </c>
-      <c r="T16" s="10">
-        <f t="shared" si="16"/>
         <v>3.4798648E-5</v>
       </c>
       <c r="U16" s="9">
@@ -8925,23 +8925,23 @@
         <v>1.923999999999999</v>
       </c>
       <c r="O17" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="Q17" s="31">
         <f t="shared" si="12"/>
-        <v>+III</v>
-      </c>
-      <c r="Q17" s="31">
+        <v>0.99999990179884757</v>
+      </c>
+      <c r="R17" s="10">
         <f t="shared" si="13"/>
         <v>0.99999990179884757</v>
       </c>
-      <c r="R17" s="10">
+      <c r="S17" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999990179884757</v>
-      </c>
-      <c r="S17" s="10">
+        <v>7.5539347999999996E-7</v>
+      </c>
+      <c r="T17" s="10">
         <f t="shared" si="15"/>
-        <v>7.5539347999999996E-7</v>
-      </c>
-      <c r="T17" s="10">
-        <f t="shared" si="16"/>
         <v>7.5539347999999996E-7</v>
       </c>
       <c r="U17" s="9">
@@ -9001,23 +9001,23 @@
         <v>1.396000000000001</v>
       </c>
       <c r="O18" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="Q18" s="31">
         <f t="shared" si="12"/>
-        <v>+III</v>
-      </c>
-      <c r="Q18" s="31">
+        <v>0.99999999999997169</v>
+      </c>
+      <c r="R18" s="10">
         <f t="shared" si="13"/>
         <v>0.99999999999997169</v>
       </c>
-      <c r="R18" s="10">
+      <c r="S18" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999999999997169</v>
-      </c>
-      <c r="S18" s="10">
+        <v>3.0055840000000002E-13</v>
+      </c>
+      <c r="T18" s="10">
         <f t="shared" si="15"/>
-        <v>3.0055840000000002E-13</v>
-      </c>
-      <c r="T18" s="10">
-        <f t="shared" si="16"/>
         <v>3.0055840000000002E-13</v>
       </c>
       <c r="U18" s="9">
@@ -9077,23 +9077,23 @@
         <v>1.593999999999999</v>
       </c>
       <c r="O19" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="Q19" s="31">
         <f t="shared" si="12"/>
-        <v>+III</v>
-      </c>
-      <c r="Q19" s="31">
+        <v>0.99999999999996758</v>
+      </c>
+      <c r="R19" s="10">
         <f t="shared" si="13"/>
         <v>0.99999999999996758</v>
       </c>
-      <c r="R19" s="10">
+      <c r="S19" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999999999996758</v>
-      </c>
-      <c r="S19" s="10">
+        <v>3.0055840000000002E-13</v>
+      </c>
+      <c r="T19" s="10">
         <f t="shared" si="15"/>
-        <v>3.0055840000000002E-13</v>
-      </c>
-      <c r="T19" s="10">
-        <f t="shared" si="16"/>
         <v>3.0055840000000002E-13</v>
       </c>
       <c r="U19" s="9">
@@ -9153,23 +9153,23 @@
         <v>1.165</v>
       </c>
       <c r="O20" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="Q20" s="31">
         <f t="shared" si="12"/>
-        <v>+III</v>
-      </c>
-      <c r="Q20" s="31">
+        <v>0.99999999984442245</v>
+      </c>
+      <c r="R20" s="10">
         <f t="shared" si="13"/>
         <v>0.99999999984442245</v>
       </c>
-      <c r="R20" s="10">
+      <c r="S20" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999999984442245</v>
-      </c>
-      <c r="S20" s="10">
+        <v>1.9764364000000004E-9</v>
+      </c>
+      <c r="T20" s="10">
         <f t="shared" si="15"/>
-        <v>1.9764364000000004E-9</v>
-      </c>
-      <c r="T20" s="10">
-        <f t="shared" si="16"/>
         <v>1.9764364000000004E-9</v>
       </c>
       <c r="U20" s="9">
@@ -9229,23 +9229,23 @@
         <v>1.231000000000001</v>
       </c>
       <c r="O21" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="Q21" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="Q21" s="31">
+        <v>0.99999937364996605</v>
+      </c>
+      <c r="R21" s="10">
         <f t="shared" si="13"/>
         <v>0.99999937364996605</v>
       </c>
-      <c r="R21" s="10">
+      <c r="S21" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999937364996605</v>
-      </c>
-      <c r="S21" s="10">
+        <v>7.5304472E-6</v>
+      </c>
+      <c r="T21" s="10">
         <f t="shared" si="15"/>
-        <v>7.5304472E-6</v>
-      </c>
-      <c r="T21" s="10">
-        <f t="shared" si="16"/>
         <v>7.5304472E-6</v>
       </c>
       <c r="U21" s="9">
@@ -9305,23 +9305,23 @@
         <v>2.1219999999999999</v>
       </c>
       <c r="O22" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="Q22" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="Q22" s="31">
+        <v>0.99999892029669202</v>
+      </c>
+      <c r="R22" s="10">
         <f t="shared" si="13"/>
         <v>0.99999892029669202</v>
       </c>
-      <c r="R22" s="10">
+      <c r="S22" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999892029669202</v>
-      </c>
-      <c r="S22" s="10">
+        <v>7.5304472E-6</v>
+      </c>
+      <c r="T22" s="10">
         <f t="shared" si="15"/>
-        <v>7.5304472E-6</v>
-      </c>
-      <c r="T22" s="10">
-        <f t="shared" si="16"/>
         <v>7.5304472E-6</v>
       </c>
       <c r="U22" s="9">
@@ -9381,23 +9381,23 @@
         <v>1.7919999999999996</v>
       </c>
       <c r="O23" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+I</v>
+      </c>
+      <c r="Q23" s="31">
         <f t="shared" si="12"/>
-        <v>+I</v>
-      </c>
-      <c r="Q23" s="31">
+        <v>0.99998659073280005</v>
+      </c>
+      <c r="R23" s="10">
         <f t="shared" si="13"/>
         <v>0.99998659073280005</v>
       </c>
-      <c r="R23" s="10">
+      <c r="S23" s="10">
         <f t="shared" si="14"/>
-        <v>0.99998659073280005</v>
-      </c>
-      <c r="S23" s="10">
+        <v>1.1074618E-4</v>
+      </c>
+      <c r="T23" s="10">
         <f t="shared" si="15"/>
-        <v>1.1074618E-4</v>
-      </c>
-      <c r="T23" s="10">
-        <f t="shared" si="16"/>
         <v>1.1074618E-4</v>
       </c>
       <c r="U23" s="9">
@@ -9457,23 +9457,23 @@
         <v>2.2540000000000013</v>
       </c>
       <c r="O24" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+II</v>
+      </c>
+      <c r="Q24" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="Q24" s="31">
+        <v>0.99999709461653996</v>
+      </c>
+      <c r="R24" s="10">
         <f t="shared" si="13"/>
         <v>0.99999709461653996</v>
       </c>
-      <c r="R24" s="10">
+      <c r="S24" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999709461653996</v>
-      </c>
-      <c r="S24" s="10">
+        <v>1.9077051999999999E-5</v>
+      </c>
+      <c r="T24" s="10">
         <f t="shared" si="15"/>
-        <v>1.9077051999999999E-5</v>
-      </c>
-      <c r="T24" s="10">
-        <f t="shared" si="16"/>
         <v>1.9077051999999999E-5</v>
       </c>
       <c r="U24" s="9">
@@ -9533,23 +9533,23 @@
         <v>2.1219999999999999</v>
       </c>
       <c r="O25" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+III</v>
+      </c>
+      <c r="Q25" s="31">
         <f t="shared" si="12"/>
-        <v>+III</v>
-      </c>
-      <c r="Q25" s="31">
+        <v>0.99999999999999944</v>
+      </c>
+      <c r="R25" s="10">
         <f t="shared" si="13"/>
         <v>0.99999999999999944</v>
       </c>
-      <c r="R25" s="10">
+      <c r="S25" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999999999999944</v>
-      </c>
-      <c r="S25" s="10">
+        <v>3.5067120000000002E-15</v>
+      </c>
+      <c r="T25" s="10">
         <f t="shared" si="15"/>
-        <v>3.5067120000000002E-15</v>
-      </c>
-      <c r="T25" s="10">
-        <f t="shared" si="16"/>
         <v>3.5067120000000002E-15</v>
       </c>
       <c r="U25" s="9">
@@ -9609,23 +9609,23 @@
         <v>1.3959999999999986</v>
       </c>
       <c r="O26" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>-II</v>
+      </c>
+      <c r="Q26" s="31">
         <f t="shared" si="12"/>
-        <v>-II</v>
-      </c>
-      <c r="Q26" s="31">
+        <v>0.99683632895999996</v>
+      </c>
+      <c r="R26" s="10">
         <f t="shared" si="13"/>
         <v>0.99683632895999996</v>
       </c>
-      <c r="R26" s="10">
+      <c r="S26" s="10">
         <f t="shared" si="14"/>
-        <v>0.99683632895999996</v>
-      </c>
-      <c r="S26" s="10">
+        <v>3.3540352000000002E-2</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="15"/>
-        <v>3.3540352000000002E-2</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="16"/>
         <v>3.3540352000000002E-2</v>
       </c>
       <c r="U26" s="9">
@@ -9685,23 +9685,23 @@
         <v>1.7920000000000007</v>
       </c>
       <c r="O27" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+0</v>
+      </c>
+      <c r="Q27" s="31">
         <f t="shared" si="12"/>
-        <v>+0</v>
-      </c>
-      <c r="Q27" s="31">
+        <v>0.9999475512064</v>
+      </c>
+      <c r="R27" s="10">
         <f t="shared" si="13"/>
         <v>0.9999475512064</v>
       </c>
-      <c r="R27" s="10">
+      <c r="S27" s="10">
         <f t="shared" si="14"/>
-        <v>0.9999475512064</v>
-      </c>
-      <c r="S27" s="10">
+        <v>4.3317083999999998E-4</v>
+      </c>
+      <c r="T27" s="10">
         <f t="shared" si="15"/>
-        <v>4.3317083999999998E-4</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="16"/>
         <v>4.3317083999999998E-4</v>
       </c>
       <c r="U27" s="9">
@@ -9761,23 +9761,23 @@
         <v>1.792000000000002</v>
       </c>
       <c r="O28" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>+0</v>
+      </c>
+      <c r="Q28" s="31">
         <f t="shared" si="12"/>
-        <v>+0</v>
-      </c>
-      <c r="Q28" s="31">
+        <v>0.99981287756799997</v>
+      </c>
+      <c r="R28" s="10">
         <f t="shared" si="13"/>
         <v>0.99981287756799997</v>
       </c>
-      <c r="R28" s="10">
+      <c r="S28" s="10">
         <f t="shared" si="14"/>
-        <v>0.99981287756799997</v>
-      </c>
-      <c r="S28" s="10">
+        <v>1.5454308E-3</v>
+      </c>
+      <c r="T28" s="10">
         <f t="shared" si="15"/>
-        <v>1.5454308E-3</v>
-      </c>
-      <c r="T28" s="10">
-        <f t="shared" si="16"/>
         <v>1.5454308E-3</v>
       </c>
       <c r="U28" s="9">
@@ -9837,23 +9837,23 @@
         <v>1.1979999999999982</v>
       </c>
       <c r="O29" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>-I</v>
+      </c>
+      <c r="Q29" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="Q29" s="31">
+        <v>0.99948979815600003</v>
+      </c>
+      <c r="R29" s="10">
         <f t="shared" si="13"/>
         <v>0.99948979815600003</v>
       </c>
-      <c r="R29" s="10">
+      <c r="S29" s="10">
         <f t="shared" si="14"/>
-        <v>0.99948979815600003</v>
-      </c>
-      <c r="S29" s="10">
+        <v>6.3029944000000003E-3</v>
+      </c>
+      <c r="T29" s="10">
         <f t="shared" si="15"/>
-        <v>6.3029944000000003E-3</v>
-      </c>
-      <c r="T29" s="10">
-        <f t="shared" si="16"/>
         <v>6.3029944000000003E-3</v>
       </c>
       <c r="U29" s="9">
@@ -10184,7 +10184,7 @@
   <dimension ref="B2:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10343,7 +10343,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K14" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <f t="shared" ref="K11:K27" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>+II</v>
       </c>
       <c r="M11" s="31">
@@ -10599,23 +10599,23 @@
         <v>2.1739130434782607E-6</v>
       </c>
       <c r="K15" s="32" t="str">
-        <f t="shared" ref="K15:K27" si="12">IF(ISNUMBER($J15),S15,IF($T15,"D","ND"))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" ref="M15:M27" si="13">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+        <f t="shared" ref="M15:M27" si="12">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
         <v>0.99999782608695653</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" ref="N15:N27" si="14">IF(J15="-",1,M15)</f>
+        <f t="shared" ref="N15:N27" si="13">IF(J15="-",1,M15)</f>
         <v>0.99999782608695653</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" ref="O15:O27" si="15">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
+        <f t="shared" ref="O15:O27" si="14">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
         <v>4.3478260869565214E-6</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" ref="P15:P27" si="16">IF(J15="-",0,O15)</f>
+        <f t="shared" ref="P15:P27" si="15">IF(J15="-",0,O15)</f>
         <v>4.3478260869565214E-6</v>
       </c>
       <c r="Q15" s="9">
@@ -10663,23 +10663,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M16" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M16" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="13"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O16" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="15"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="16"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q16" s="9">
@@ -10727,23 +10727,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M17" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M17" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="13"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O17" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="15"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="16"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q17" s="9">
@@ -10791,23 +10791,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K18" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M18" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M18" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="13"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O18" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="15"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="16"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q18" s="9">
@@ -10855,23 +10855,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K19" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M19" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M19" s="31">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -10919,23 +10919,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K20" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M20" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M20" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="13"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O20" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="15"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="16"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q20" s="9">
@@ -10983,23 +10983,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K21" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M21" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M21" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="13"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O21" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="15"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="16"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q21" s="9">
@@ -11047,23 +11047,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K22" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M22" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M22" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="13"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O22" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="15"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="16"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q22" s="9">
@@ -11111,23 +11111,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K23" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M23" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M23" s="31">
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
@@ -11175,23 +11175,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K24" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M24" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M24" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="13"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O24" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P24" s="10">
         <f t="shared" si="15"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="16"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q24" s="9">
@@ -11239,23 +11239,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K25" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M25" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M25" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="13"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N25" s="10">
+      <c r="O25" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O25" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P25" s="10">
         <f t="shared" si="15"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="16"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q25" s="9">
@@ -11303,23 +11303,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K26" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M26" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M26" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="13"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N26" s="10">
+      <c r="O26" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O26" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="15"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="16"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q26" s="9">
@@ -11367,23 +11367,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K27" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M27" s="31">
         <f t="shared" si="12"/>
-        <v>+II</v>
-      </c>
-      <c r="M27" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="13"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O27" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="15"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="16"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q27" s="9">
@@ -12406,7 +12406,7 @@
   <dimension ref="B2:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12563,8 +12563,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="47" t="str">
-        <f>IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="33">
         <f>IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -12727,8 +12727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4337BDE-5D5C-4814-877A-41AF49DBDF5F}">
   <dimension ref="B2:U97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12883,8 +12883,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K12" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" ref="K11:K57" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -13007,19 +13007,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" ref="K13:K19" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" si="1"/>
+        <v>NR</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M19" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M19" si="7">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N19" si="9">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N19" si="8">IF(J13="-",1,M13)</f>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O19" si="10">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <f t="shared" ref="O13:O19" si="9">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P13" s="10">
@@ -13071,23 +13071,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K14" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M14" s="31">
         <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="M14" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="8"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="10"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P19" si="11">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P19" si="10">IF(J14="-",0,O14)</f>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q14" s="9">
@@ -13131,23 +13131,23 @@
         <v>0</v>
       </c>
       <c r="K15" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M15" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M15" s="31">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -13195,23 +13195,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M16" s="31">
         <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="M16" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="8"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O16" s="10">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="10"/>
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="11"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q16" s="9">
@@ -13255,23 +13255,23 @@
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M17" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M17" s="31">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -13319,23 +13319,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K18" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M18" s="31">
         <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="M18" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="8"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O18" s="10">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="10"/>
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="11"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q18" s="9">
@@ -13379,23 +13379,23 @@
         <v>0</v>
       </c>
       <c r="K19" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M19" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M19" s="31">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -13439,27 +13439,27 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" ref="J20:J95" si="12">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
+        <f t="shared" ref="J20:J95" si="11">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K20" s="32" t="str">
-        <f t="shared" ref="K20:K95" si="13">IF(ISNUMBER($J20),S20,IF($T20,"D","ND"))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" ref="M20:M95" si="14">IF(AND(F20="Geen faalkans",H20="Nee"),1,1-J20)</f>
+        <f t="shared" ref="M20:M95" si="12">IF(AND(F20="Geen faalkans",H20="Nee"),1,1-J20)</f>
         <v>0.99999899999999997</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" ref="N20:N95" si="15">IF(J20="-",1,M20)</f>
+        <f t="shared" ref="N20:N95" si="13">IF(J20="-",1,M20)</f>
         <v>0.99999899999999997</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" ref="O20:O95" si="16">IF(AND(F20="Geen faalkans",H20="Nee"),0,J20*$C$3)</f>
+        <f t="shared" ref="O20:O95" si="14">IF(AND(F20="Geen faalkans",H20="Nee"),0,J20*$C$3)</f>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" ref="P20:P95" si="17">IF(J20="-",0,O20)</f>
+        <f t="shared" ref="P20:P95" si="15">IF(J20="-",0,O20)</f>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q20" s="9">
@@ -13499,27 +13499,27 @@
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M21" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -13563,27 +13563,27 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
+        <f t="shared" si="11"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K22" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M22" s="31">
         <f t="shared" si="12"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K22" s="32" t="str">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="13"/>
-        <v>+II</v>
-      </c>
-      <c r="M22" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="O22" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="N22" s="10">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="16"/>
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="17"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q22" s="9">
@@ -13623,27 +13623,27 @@
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M23" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M23" s="31">
+        <v>1</v>
+      </c>
+      <c r="O23" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
@@ -13687,27 +13687,27 @@
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="10">
+        <f t="shared" si="11"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K24" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M24" s="31">
         <f t="shared" si="12"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K24" s="32" t="str">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="13"/>
-        <v>+II</v>
-      </c>
-      <c r="M24" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="O24" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="N24" s="10">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P24" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O24" s="10">
-        <f t="shared" si="16"/>
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="17"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q24" s="9">
@@ -13747,27 +13747,27 @@
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M25" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M25" s="31">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q25" s="9">
@@ -13811,27 +13811,27 @@
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="10">
-        <f t="shared" ref="J26:J57" si="18">IF($E26="Nee",0,IF(H26="Ja",IF(ISNUMBER(I26),I26,"-"),IF(ISNUMBER(G26),G26,"-")))</f>
+        <f t="shared" ref="J26:J57" si="16">IF($E26="Nee",0,IF(H26="Ja",IF(ISNUMBER(I26),I26,"-"),IF(ISNUMBER(G26),G26,"-")))</f>
         <v>1.4100000000000001E-6</v>
       </c>
       <c r="K26" s="32" t="str">
-        <f t="shared" ref="K26:K57" si="19">IF(ISNUMBER($J26),S26,IF($T26,"D","ND"))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="M26" s="31">
-        <f t="shared" ref="M26:M57" si="20">IF(AND(F26="Geen faalkans",H26="Nee"),1,1-J26)</f>
+        <f t="shared" ref="M26:M57" si="17">IF(AND(F26="Geen faalkans",H26="Nee"),1,1-J26)</f>
         <v>0.99999859000000002</v>
       </c>
       <c r="N26" s="10">
-        <f t="shared" ref="N26:N57" si="21">IF(J26="-",1,M26)</f>
+        <f t="shared" ref="N26:N57" si="18">IF(J26="-",1,M26)</f>
         <v>0.99999859000000002</v>
       </c>
       <c r="O26" s="10">
-        <f t="shared" ref="O26:O57" si="22">IF(AND(F26="Geen faalkans",H26="Nee"),0,J26*$C$3)</f>
+        <f t="shared" ref="O26:O57" si="19">IF(AND(F26="Geen faalkans",H26="Nee"),0,J26*$C$3)</f>
         <v>4.2300000000000002E-6</v>
       </c>
       <c r="P26" s="10">
-        <f t="shared" ref="P26:P57" si="23">IF(J26="-",0,O26)</f>
+        <f t="shared" ref="P26:P57" si="20">IF(J26="-",0,O26)</f>
         <v>4.2300000000000002E-6</v>
       </c>
       <c r="Q26" s="9">
@@ -13871,27 +13871,27 @@
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M27" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O27" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M27" s="31">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q27" s="9">
@@ -13935,27 +13935,27 @@
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="10">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K28" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M28" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="18"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K28" s="32" t="str">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="O28" s="10">
         <f t="shared" si="19"/>
-        <v>+II</v>
-      </c>
-      <c r="M28" s="31">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="N28" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="22"/>
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="23"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q28" s="9">
@@ -13995,27 +13995,27 @@
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M29" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N29" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O29" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M29" s="31">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N29" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q29" s="9">
@@ -14059,27 +14059,27 @@
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="10">
+        <f t="shared" si="16"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="K30" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="M30" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="N30" s="10">
         <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="K30" s="32" t="str">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="O30" s="10">
         <f t="shared" si="19"/>
-        <v>+I</v>
-      </c>
-      <c r="M30" s="31">
+        <v>1.5000000000000002E-5</v>
+      </c>
+      <c r="P30" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999499999999997</v>
-      </c>
-      <c r="N30" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999499999999997</v>
-      </c>
-      <c r="O30" s="10">
-        <f t="shared" si="22"/>
-        <v>1.5000000000000002E-5</v>
-      </c>
-      <c r="P30" s="10">
-        <f t="shared" si="23"/>
         <v>1.5000000000000002E-5</v>
       </c>
       <c r="Q30" s="9">
@@ -14119,27 +14119,27 @@
       </c>
       <c r="I31" s="26"/>
       <c r="J31" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M31" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N31" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O31" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M31" s="31">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O31" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q31" s="9">
@@ -14183,27 +14183,27 @@
       </c>
       <c r="I32" s="26"/>
       <c r="J32" s="10">
+        <f t="shared" si="16"/>
+        <v>8.3299999999999999E-6</v>
+      </c>
+      <c r="K32" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="M32" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999167</v>
+      </c>
+      <c r="N32" s="10">
         <f t="shared" si="18"/>
-        <v>8.3299999999999999E-6</v>
-      </c>
-      <c r="K32" s="32" t="str">
+        <v>0.99999167</v>
+      </c>
+      <c r="O32" s="10">
         <f t="shared" si="19"/>
-        <v>+I</v>
-      </c>
-      <c r="M32" s="31">
+        <v>2.499E-5</v>
+      </c>
+      <c r="P32" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999167</v>
-      </c>
-      <c r="N32" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999167</v>
-      </c>
-      <c r="O32" s="10">
-        <f t="shared" si="22"/>
-        <v>2.499E-5</v>
-      </c>
-      <c r="P32" s="10">
-        <f t="shared" si="23"/>
         <v>2.499E-5</v>
       </c>
       <c r="Q32" s="9">
@@ -14243,27 +14243,27 @@
       </c>
       <c r="I33" s="26"/>
       <c r="J33" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M33" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O33" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M33" s="31">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N33" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O33" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q33" s="9">
@@ -14307,27 +14307,27 @@
       </c>
       <c r="I34" s="26"/>
       <c r="J34" s="10">
+        <f t="shared" si="16"/>
+        <v>2.44E-5</v>
+      </c>
+      <c r="K34" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="M34" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99997559999999996</v>
+      </c>
+      <c r="N34" s="10">
         <f t="shared" si="18"/>
-        <v>2.44E-5</v>
-      </c>
-      <c r="K34" s="32" t="str">
+        <v>0.99997559999999996</v>
+      </c>
+      <c r="O34" s="10">
         <f t="shared" si="19"/>
-        <v>+I</v>
-      </c>
-      <c r="M34" s="31">
+        <v>7.3200000000000004E-5</v>
+      </c>
+      <c r="P34" s="10">
         <f t="shared" si="20"/>
-        <v>0.99997559999999996</v>
-      </c>
-      <c r="N34" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99997559999999996</v>
-      </c>
-      <c r="O34" s="10">
-        <f t="shared" si="22"/>
-        <v>7.3200000000000004E-5</v>
-      </c>
-      <c r="P34" s="10">
-        <f t="shared" si="23"/>
         <v>7.3200000000000004E-5</v>
       </c>
       <c r="Q34" s="9">
@@ -14367,27 +14367,27 @@
       </c>
       <c r="I35" s="26"/>
       <c r="J35" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M35" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N35" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O35" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M35" s="31">
+        <v>0</v>
+      </c>
+      <c r="P35" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N35" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O35" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q35" s="9">
@@ -14431,27 +14431,27 @@
       </c>
       <c r="I36" s="26"/>
       <c r="J36" s="10">
+        <f t="shared" si="16"/>
+        <v>1.61E-6</v>
+      </c>
+      <c r="K36" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M36" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999839000000001</v>
+      </c>
+      <c r="N36" s="10">
         <f t="shared" si="18"/>
-        <v>1.61E-6</v>
-      </c>
-      <c r="K36" s="32" t="str">
+        <v>0.99999839000000001</v>
+      </c>
+      <c r="O36" s="10">
         <f t="shared" si="19"/>
-        <v>+II</v>
-      </c>
-      <c r="M36" s="31">
+        <v>4.8300000000000003E-6</v>
+      </c>
+      <c r="P36" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999839000000001</v>
-      </c>
-      <c r="N36" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999839000000001</v>
-      </c>
-      <c r="O36" s="10">
-        <f t="shared" si="22"/>
-        <v>4.8300000000000003E-6</v>
-      </c>
-      <c r="P36" s="10">
-        <f t="shared" si="23"/>
         <v>4.8300000000000003E-6</v>
       </c>
       <c r="Q36" s="9">
@@ -14491,27 +14491,27 @@
       </c>
       <c r="I37" s="26"/>
       <c r="J37" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M37" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O37" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M37" s="31">
+        <v>0</v>
+      </c>
+      <c r="P37" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N37" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O37" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q37" s="9">
@@ -14555,27 +14555,27 @@
       </c>
       <c r="I38" s="26"/>
       <c r="J38" s="10">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K38" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M38" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N38" s="10">
         <f t="shared" si="18"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K38" s="32" t="str">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="O38" s="10">
         <f t="shared" si="19"/>
-        <v>+II</v>
-      </c>
-      <c r="M38" s="31">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P38" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="N38" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O38" s="10">
-        <f t="shared" si="22"/>
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P38" s="10">
-        <f t="shared" si="23"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q38" s="9">
@@ -14615,27 +14615,27 @@
       </c>
       <c r="I39" s="26"/>
       <c r="J39" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M39" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N39" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O39" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M39" s="31">
+        <v>0</v>
+      </c>
+      <c r="P39" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N39" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O39" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q39" s="9">
@@ -14679,27 +14679,27 @@
       </c>
       <c r="I40" s="26"/>
       <c r="J40" s="10">
+        <f t="shared" si="16"/>
+        <v>4.7600000000000002E-6</v>
+      </c>
+      <c r="K40" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="M40" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999523999999995</v>
+      </c>
+      <c r="N40" s="10">
         <f t="shared" si="18"/>
-        <v>4.7600000000000002E-6</v>
-      </c>
-      <c r="K40" s="32" t="str">
+        <v>0.99999523999999995</v>
+      </c>
+      <c r="O40" s="10">
         <f t="shared" si="19"/>
-        <v>+I</v>
-      </c>
-      <c r="M40" s="31">
+        <v>1.428E-5</v>
+      </c>
+      <c r="P40" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999523999999995</v>
-      </c>
-      <c r="N40" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999523999999995</v>
-      </c>
-      <c r="O40" s="10">
-        <f t="shared" si="22"/>
-        <v>1.428E-5</v>
-      </c>
-      <c r="P40" s="10">
-        <f t="shared" si="23"/>
         <v>1.428E-5</v>
       </c>
       <c r="Q40" s="9">
@@ -14739,27 +14739,27 @@
       </c>
       <c r="I41" s="26"/>
       <c r="J41" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M41" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N41" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O41" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M41" s="31">
+        <v>0</v>
+      </c>
+      <c r="P41" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O41" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q41" s="9">
@@ -14803,27 +14803,27 @@
       </c>
       <c r="I42" s="26"/>
       <c r="J42" s="10">
+        <f t="shared" si="16"/>
+        <v>2.6299999999999998E-6</v>
+      </c>
+      <c r="K42" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M42" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999737</v>
+      </c>
+      <c r="N42" s="10">
         <f t="shared" si="18"/>
-        <v>2.6299999999999998E-6</v>
-      </c>
-      <c r="K42" s="32" t="str">
+        <v>0.99999737</v>
+      </c>
+      <c r="O42" s="10">
         <f t="shared" si="19"/>
-        <v>+II</v>
-      </c>
-      <c r="M42" s="31">
+        <v>7.889999999999999E-6</v>
+      </c>
+      <c r="P42" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999737</v>
-      </c>
-      <c r="N42" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999737</v>
-      </c>
-      <c r="O42" s="10">
-        <f t="shared" si="22"/>
-        <v>7.889999999999999E-6</v>
-      </c>
-      <c r="P42" s="10">
-        <f t="shared" si="23"/>
         <v>7.889999999999999E-6</v>
       </c>
       <c r="Q42" s="9">
@@ -14863,27 +14863,27 @@
       </c>
       <c r="I43" s="26"/>
       <c r="J43" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M43" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N43" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O43" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M43" s="31">
+        <v>0</v>
+      </c>
+      <c r="P43" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N43" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O43" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q43" s="9">
@@ -14927,27 +14927,27 @@
       </c>
       <c r="I44" s="26"/>
       <c r="J44" s="10">
+        <f t="shared" si="16"/>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="K44" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="M44" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="N44" s="10">
         <f t="shared" si="18"/>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="K44" s="32" t="str">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="O44" s="10">
         <f t="shared" si="19"/>
-        <v>+I</v>
-      </c>
-      <c r="M44" s="31">
+        <v>1.5000000000000002E-5</v>
+      </c>
+      <c r="P44" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999499999999997</v>
-      </c>
-      <c r="N44" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999499999999997</v>
-      </c>
-      <c r="O44" s="10">
-        <f t="shared" si="22"/>
-        <v>1.5000000000000002E-5</v>
-      </c>
-      <c r="P44" s="10">
-        <f t="shared" si="23"/>
         <v>1.5000000000000002E-5</v>
       </c>
       <c r="Q44" s="9">
@@ -14987,27 +14987,27 @@
       </c>
       <c r="I45" s="26"/>
       <c r="J45" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M45" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N45" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O45" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M45" s="31">
+        <v>0</v>
+      </c>
+      <c r="P45" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N45" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O45" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q45" s="9">
@@ -15051,27 +15051,27 @@
       </c>
       <c r="I46" s="26"/>
       <c r="J46" s="10">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K46" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M46" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N46" s="10">
         <f t="shared" si="18"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K46" s="32" t="str">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="O46" s="10">
         <f t="shared" si="19"/>
-        <v>+II</v>
-      </c>
-      <c r="M46" s="31">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P46" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="N46" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O46" s="10">
-        <f t="shared" si="22"/>
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P46" s="10">
-        <f t="shared" si="23"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q46" s="9">
@@ -15111,27 +15111,27 @@
       </c>
       <c r="I47" s="26"/>
       <c r="J47" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M47" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N47" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O47" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M47" s="31">
+        <v>0</v>
+      </c>
+      <c r="P47" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N47" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O47" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P47" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q47" s="9">
@@ -15175,27 +15175,27 @@
       </c>
       <c r="I48" s="26"/>
       <c r="J48" s="10">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K48" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M48" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N48" s="10">
         <f t="shared" si="18"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K48" s="32" t="str">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="O48" s="10">
         <f t="shared" si="19"/>
-        <v>+II</v>
-      </c>
-      <c r="M48" s="31">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P48" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="N48" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O48" s="10">
-        <f t="shared" si="22"/>
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P48" s="10">
-        <f t="shared" si="23"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q48" s="9">
@@ -15235,27 +15235,27 @@
       </c>
       <c r="I49" s="26"/>
       <c r="J49" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M49" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O49" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M49" s="31">
+        <v>0</v>
+      </c>
+      <c r="P49" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N49" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O49" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q49" s="9">
@@ -15299,27 +15299,27 @@
       </c>
       <c r="I50" s="26"/>
       <c r="J50" s="10">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K50" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M50" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N50" s="10">
         <f t="shared" si="18"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K50" s="32" t="str">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="O50" s="10">
         <f t="shared" si="19"/>
-        <v>+II</v>
-      </c>
-      <c r="M50" s="31">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P50" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="N50" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O50" s="10">
-        <f t="shared" si="22"/>
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P50" s="10">
-        <f t="shared" si="23"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q50" s="9">
@@ -15359,27 +15359,27 @@
       </c>
       <c r="I51" s="26"/>
       <c r="J51" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M51" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N51" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O51" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M51" s="31">
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N51" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O51" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q51" s="9">
@@ -15423,27 +15423,27 @@
       </c>
       <c r="I52" s="26"/>
       <c r="J52" s="10">
+        <f t="shared" si="16"/>
+        <v>2.3800000000000001E-6</v>
+      </c>
+      <c r="K52" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M52" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999762000000003</v>
+      </c>
+      <c r="N52" s="10">
         <f t="shared" si="18"/>
-        <v>2.3800000000000001E-6</v>
-      </c>
-      <c r="K52" s="32" t="str">
+        <v>0.99999762000000003</v>
+      </c>
+      <c r="O52" s="10">
         <f t="shared" si="19"/>
-        <v>+II</v>
-      </c>
-      <c r="M52" s="31">
+        <v>7.1400000000000002E-6</v>
+      </c>
+      <c r="P52" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999762000000003</v>
-      </c>
-      <c r="N52" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999762000000003</v>
-      </c>
-      <c r="O52" s="10">
-        <f t="shared" si="22"/>
-        <v>7.1400000000000002E-6</v>
-      </c>
-      <c r="P52" s="10">
-        <f t="shared" si="23"/>
         <v>7.1400000000000002E-6</v>
       </c>
       <c r="Q52" s="9">
@@ -15483,27 +15483,27 @@
       </c>
       <c r="I53" s="26"/>
       <c r="J53" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M53" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N53" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O53" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M53" s="31">
+        <v>0</v>
+      </c>
+      <c r="P53" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N53" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O53" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q53" s="9">
@@ -15547,27 +15547,27 @@
       </c>
       <c r="I54" s="26"/>
       <c r="J54" s="10">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K54" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M54" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N54" s="10">
         <f t="shared" si="18"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K54" s="32" t="str">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="O54" s="10">
         <f t="shared" si="19"/>
-        <v>+II</v>
-      </c>
-      <c r="M54" s="31">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P54" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="N54" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O54" s="10">
-        <f t="shared" si="22"/>
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P54" s="10">
-        <f t="shared" si="23"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q54" s="9">
@@ -15607,27 +15607,27 @@
       </c>
       <c r="I55" s="26"/>
       <c r="J55" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M55" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N55" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O55" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M55" s="31">
+        <v>0</v>
+      </c>
+      <c r="P55" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N55" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O55" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P55" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q55" s="9">
@@ -15671,27 +15671,27 @@
       </c>
       <c r="I56" s="26"/>
       <c r="J56" s="10">
+        <f t="shared" si="16"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K56" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M56" s="31">
+        <f t="shared" si="17"/>
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N56" s="10">
         <f t="shared" si="18"/>
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="K56" s="32" t="str">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="O56" s="10">
         <f t="shared" si="19"/>
-        <v>+II</v>
-      </c>
-      <c r="M56" s="31">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="P56" s="10">
         <f t="shared" si="20"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="N56" s="10">
-        <f t="shared" si="21"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O56" s="10">
-        <f t="shared" si="22"/>
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="P56" s="10">
-        <f t="shared" si="23"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q56" s="9">
@@ -15731,27 +15731,27 @@
       </c>
       <c r="I57" s="26"/>
       <c r="J57" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M57" s="31">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N57" s="10">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K57" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="O57" s="10">
         <f t="shared" si="19"/>
-        <v>+III</v>
-      </c>
-      <c r="M57" s="31">
+        <v>0</v>
+      </c>
+      <c r="P57" s="10">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="N57" s="10">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="O57" s="10">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="P57" s="10">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q57" s="9">
@@ -16397,27 +16397,27 @@
         <v>1.564654E-6</v>
       </c>
       <c r="J88" s="10">
+        <f t="shared" si="11"/>
+        <v>1.564654E-6</v>
+      </c>
+      <c r="K88" s="32" t="str">
+        <f t="shared" ref="K88:K95" si="21">IF(ISNUMBER($J88),S88,IF($T88,"D","ND"))</f>
+        <v>+II</v>
+      </c>
+      <c r="M88" s="31">
         <f t="shared" si="12"/>
-        <v>1.564654E-6</v>
-      </c>
-      <c r="K88" s="32" t="str">
+        <v>0.99999843534599997</v>
+      </c>
+      <c r="N88" s="10">
         <f t="shared" si="13"/>
-        <v>+II</v>
-      </c>
-      <c r="M88" s="31">
+        <v>0.99999843534599997</v>
+      </c>
+      <c r="O88" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999843534599997</v>
-      </c>
-      <c r="N88" s="10">
+        <v>4.6939620000000005E-6</v>
+      </c>
+      <c r="P88" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999843534599997</v>
-      </c>
-      <c r="O88" s="10">
-        <f t="shared" si="16"/>
-        <v>4.6939620000000005E-6</v>
-      </c>
-      <c r="P88" s="10">
-        <f t="shared" si="17"/>
         <v>4.6939620000000005E-6</v>
       </c>
       <c r="Q88" s="9">
@@ -16461,27 +16461,27 @@
       </c>
       <c r="I89" s="26"/>
       <c r="J89" s="10">
+        <f t="shared" si="11"/>
+        <v>2.764708219548714E-8</v>
+      </c>
+      <c r="K89" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>+III</v>
+      </c>
+      <c r="M89" s="31">
         <f t="shared" si="12"/>
-        <v>2.764708219548714E-8</v>
-      </c>
-      <c r="K89" s="32" t="str">
+        <v>0.99999997235291782</v>
+      </c>
+      <c r="N89" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M89" s="31">
+        <v>0.99999997235291782</v>
+      </c>
+      <c r="O89" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999997235291782</v>
-      </c>
-      <c r="N89" s="10">
+        <v>8.2941246586461413E-8</v>
+      </c>
+      <c r="P89" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999997235291782</v>
-      </c>
-      <c r="O89" s="10">
-        <f t="shared" si="16"/>
-        <v>8.2941246586461413E-8</v>
-      </c>
-      <c r="P89" s="10">
-        <f t="shared" si="17"/>
         <v>8.2941246586461413E-8</v>
       </c>
       <c r="Q89" s="9">
@@ -16527,27 +16527,27 @@
         <v>6.5400000000000001E-6</v>
       </c>
       <c r="J90" s="10">
+        <f t="shared" si="11"/>
+        <v>6.5400000000000001E-6</v>
+      </c>
+      <c r="K90" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>+I</v>
+      </c>
+      <c r="M90" s="31">
         <f t="shared" si="12"/>
-        <v>6.5400000000000001E-6</v>
-      </c>
-      <c r="K90" s="32" t="str">
+        <v>0.99999346</v>
+      </c>
+      <c r="N90" s="10">
         <f t="shared" si="13"/>
-        <v>+I</v>
-      </c>
-      <c r="M90" s="31">
+        <v>0.99999346</v>
+      </c>
+      <c r="O90" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999346</v>
-      </c>
-      <c r="N90" s="10">
+        <v>1.9619999999999998E-5</v>
+      </c>
+      <c r="P90" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999346</v>
-      </c>
-      <c r="O90" s="10">
-        <f t="shared" si="16"/>
-        <v>1.9619999999999998E-5</v>
-      </c>
-      <c r="P90" s="10">
-        <f t="shared" si="17"/>
         <v>1.9619999999999998E-5</v>
       </c>
       <c r="Q90" s="9">
@@ -16593,27 +16593,27 @@
         <v>4.56786E-7</v>
       </c>
       <c r="J91" s="10">
-        <f t="shared" ref="J91:J92" si="24">IF($E91="Nee",0,IF(H91="Ja",IF(ISNUMBER(I91),I91,"-"),IF(ISNUMBER(G91),G91,"-")))</f>
+        <f t="shared" ref="J91:J92" si="22">IF($E91="Nee",0,IF(H91="Ja",IF(ISNUMBER(I91),I91,"-"),IF(ISNUMBER(G91),G91,"-")))</f>
         <v>4.56786E-7</v>
       </c>
       <c r="K91" s="32" t="str">
-        <f t="shared" ref="K91:K92" si="25">IF(ISNUMBER($J91),S91,IF($T91,"D","ND"))</f>
+        <f t="shared" ref="K91:K92" si="23">IF(ISNUMBER($J91),S91,IF($T91,"D","ND"))</f>
         <v>+II</v>
       </c>
       <c r="M91" s="31">
-        <f t="shared" ref="M91:M92" si="26">IF(AND(F91="Geen faalkans",H91="Nee"),1,1-J91)</f>
+        <f t="shared" ref="M91:M92" si="24">IF(AND(F91="Geen faalkans",H91="Nee"),1,1-J91)</f>
         <v>0.99999954321399998</v>
       </c>
       <c r="N91" s="10">
-        <f t="shared" ref="N91:N92" si="27">IF(J91="-",1,M91)</f>
+        <f t="shared" ref="N91:N92" si="25">IF(J91="-",1,M91)</f>
         <v>0.99999954321399998</v>
       </c>
       <c r="O91" s="10">
-        <f t="shared" ref="O91:O92" si="28">IF(AND(F91="Geen faalkans",H91="Nee"),0,J91*$C$3)</f>
+        <f t="shared" ref="O91:O92" si="26">IF(AND(F91="Geen faalkans",H91="Nee"),0,J91*$C$3)</f>
         <v>1.3703579999999999E-6</v>
       </c>
       <c r="P91" s="10">
-        <f t="shared" ref="P91:P92" si="29">IF(J91="-",0,O91)</f>
+        <f t="shared" ref="P91:P92" si="27">IF(J91="-",0,O91)</f>
         <v>1.3703579999999999E-6</v>
       </c>
       <c r="Q91" s="69">
@@ -16657,27 +16657,27 @@
       </c>
       <c r="I92" s="26"/>
       <c r="J92" s="10">
+        <f t="shared" si="22"/>
+        <v>1.0805565451928574E-6</v>
+      </c>
+      <c r="K92" s="32" t="str">
+        <f t="shared" si="23"/>
+        <v>+II</v>
+      </c>
+      <c r="M92" s="31">
         <f t="shared" si="24"/>
-        <v>1.0805565451928574E-6</v>
-      </c>
-      <c r="K92" s="32" t="str">
+        <v>0.99999891944345476</v>
+      </c>
+      <c r="N92" s="10">
         <f t="shared" si="25"/>
-        <v>+II</v>
-      </c>
-      <c r="M92" s="31">
+        <v>0.99999891944345476</v>
+      </c>
+      <c r="O92" s="10">
         <f t="shared" si="26"/>
-        <v>0.99999891944345476</v>
-      </c>
-      <c r="N92" s="10">
+        <v>3.2416696355785725E-6</v>
+      </c>
+      <c r="P92" s="10">
         <f t="shared" si="27"/>
-        <v>0.99999891944345476</v>
-      </c>
-      <c r="O92" s="10">
-        <f t="shared" si="28"/>
-        <v>3.2416696355785725E-6</v>
-      </c>
-      <c r="P92" s="10">
-        <f t="shared" si="29"/>
         <v>3.2416696355785725E-6</v>
       </c>
       <c r="Q92" s="9">
@@ -16721,27 +16721,27 @@
       </c>
       <c r="I93" s="26"/>
       <c r="J93" s="10">
+        <f t="shared" si="11"/>
+        <v>5.9493325380323292E-7</v>
+      </c>
+      <c r="K93" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>+II</v>
+      </c>
+      <c r="M93" s="31">
         <f t="shared" si="12"/>
-        <v>5.9493325380323292E-7</v>
-      </c>
-      <c r="K93" s="32" t="str">
+        <v>0.99999940506674623</v>
+      </c>
+      <c r="N93" s="10">
         <f t="shared" si="13"/>
-        <v>+II</v>
-      </c>
-      <c r="M93" s="31">
+        <v>0.99999940506674623</v>
+      </c>
+      <c r="O93" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999940506674623</v>
-      </c>
-      <c r="N93" s="10">
+        <v>1.7847997614096987E-6</v>
+      </c>
+      <c r="P93" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999940506674623</v>
-      </c>
-      <c r="O93" s="10">
-        <f t="shared" si="16"/>
-        <v>1.7847997614096987E-6</v>
-      </c>
-      <c r="P93" s="10">
-        <f t="shared" si="17"/>
         <v>1.7847997614096987E-6</v>
       </c>
       <c r="Q93" s="9">
@@ -16787,27 +16787,27 @@
         <v>1.646E-6</v>
       </c>
       <c r="J94" s="10">
+        <f t="shared" si="11"/>
+        <v>1.5810871713327682E-4</v>
+      </c>
+      <c r="K94" s="32" t="str">
+        <f t="shared" si="21"/>
+        <v>+0</v>
+      </c>
+      <c r="M94" s="31">
         <f t="shared" si="12"/>
-        <v>1.5810871713327682E-4</v>
-      </c>
-      <c r="K94" s="32" t="str">
+        <v>0.99984189128286671</v>
+      </c>
+      <c r="N94" s="10">
         <f t="shared" si="13"/>
-        <v>+0</v>
-      </c>
-      <c r="M94" s="31">
+        <v>0.99984189128286671</v>
+      </c>
+      <c r="O94" s="10">
         <f t="shared" si="14"/>
-        <v>0.99984189128286671</v>
-      </c>
-      <c r="N94" s="10">
+        <v>4.7432615139983046E-4</v>
+      </c>
+      <c r="P94" s="10">
         <f t="shared" si="15"/>
-        <v>0.99984189128286671</v>
-      </c>
-      <c r="O94" s="10">
-        <f t="shared" si="16"/>
-        <v>4.7432615139983046E-4</v>
-      </c>
-      <c r="P94" s="10">
-        <f t="shared" si="17"/>
         <v>4.7432615139983046E-4</v>
       </c>
       <c r="Q94" s="9">
@@ -16851,27 +16851,27 @@
       </c>
       <c r="I95" s="27"/>
       <c r="J95" s="15">
+        <f t="shared" si="11"/>
+        <v>7.4267011338163531E-8</v>
+      </c>
+      <c r="K95" s="34" t="str">
+        <f t="shared" si="21"/>
+        <v>+III</v>
+      </c>
+      <c r="M95" s="31">
         <f t="shared" si="12"/>
-        <v>7.4267011338163531E-8</v>
-      </c>
-      <c r="K95" s="34" t="str">
+        <v>0.99999992573298868</v>
+      </c>
+      <c r="N95" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M95" s="31">
+        <v>0.99999992573298868</v>
+      </c>
+      <c r="O95" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999992573298868</v>
-      </c>
-      <c r="N95" s="10">
+        <v>2.2280103401449059E-7</v>
+      </c>
+      <c r="P95" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999992573298868</v>
-      </c>
-      <c r="O95" s="10">
-        <f t="shared" si="16"/>
-        <v>2.2280103401449059E-7</v>
-      </c>
-      <c r="P95" s="10">
-        <f t="shared" si="17"/>
         <v>2.2280103401449059E-7</v>
       </c>
       <c r="Q95" s="9">
@@ -17014,7 +17014,7 @@
   <dimension ref="B2:U109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17169,8 +17169,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K57" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" ref="K11:K57" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11:M57" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -17294,7 +17294,7 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" si="2"/>
@@ -17418,7 +17418,7 @@
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M15" s="31">
         <f t="shared" si="2"/>
@@ -17542,7 +17542,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="2"/>
@@ -17666,7 +17666,7 @@
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="2"/>
@@ -17790,7 +17790,7 @@
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M21" s="31">
         <f t="shared" si="2"/>
@@ -17914,7 +17914,7 @@
       </c>
       <c r="K23" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M23" s="31">
         <f t="shared" si="2"/>
@@ -18038,7 +18038,7 @@
       </c>
       <c r="K25" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M25" s="31">
         <f t="shared" si="2"/>
@@ -18162,7 +18162,7 @@
       </c>
       <c r="K27" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M27" s="31">
         <f t="shared" si="2"/>
@@ -18286,7 +18286,7 @@
       </c>
       <c r="K29" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M29" s="31">
         <f t="shared" si="2"/>
@@ -18410,7 +18410,7 @@
       </c>
       <c r="K31" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M31" s="31">
         <f t="shared" si="2"/>
@@ -18534,7 +18534,7 @@
       </c>
       <c r="K33" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M33" s="31">
         <f t="shared" si="2"/>
@@ -18658,7 +18658,7 @@
       </c>
       <c r="K35" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M35" s="31">
         <f t="shared" si="2"/>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="K37" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M37" s="31">
         <f t="shared" si="2"/>
@@ -18906,7 +18906,7 @@
       </c>
       <c r="K39" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M39" s="31">
         <f t="shared" si="2"/>
@@ -19030,7 +19030,7 @@
       </c>
       <c r="K41" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M41" s="31">
         <f t="shared" si="2"/>
@@ -19154,7 +19154,7 @@
       </c>
       <c r="K43" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M43" s="31">
         <f t="shared" si="2"/>
@@ -19278,7 +19278,7 @@
       </c>
       <c r="K45" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M45" s="31">
         <f t="shared" si="2"/>
@@ -19402,7 +19402,7 @@
       </c>
       <c r="K47" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M47" s="31">
         <f t="shared" si="2"/>
@@ -19526,7 +19526,7 @@
       </c>
       <c r="K49" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M49" s="31">
         <f t="shared" si="2"/>
@@ -19650,7 +19650,7 @@
       </c>
       <c r="K51" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M51" s="31">
         <f t="shared" si="2"/>
@@ -19774,7 +19774,7 @@
       </c>
       <c r="K53" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M53" s="31">
         <f t="shared" si="2"/>
@@ -19898,7 +19898,7 @@
       </c>
       <c r="K55" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M55" s="31">
         <f t="shared" si="2"/>
@@ -20022,7 +20022,7 @@
       </c>
       <c r="K57" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M57" s="31">
         <f t="shared" si="2"/>
@@ -21270,7 +21270,7 @@
   <dimension ref="B2:U85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21425,8 +21425,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K57" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" ref="K11:K57" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11:M57" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -21550,7 +21550,7 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" si="2"/>
@@ -21674,7 +21674,7 @@
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M15" s="31">
         <f t="shared" si="2"/>
@@ -21798,7 +21798,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="2"/>
@@ -21922,7 +21922,7 @@
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="2"/>
@@ -22046,7 +22046,7 @@
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M21" s="31">
         <f t="shared" si="2"/>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="K23" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M23" s="31">
         <f t="shared" si="2"/>
@@ -22294,7 +22294,7 @@
       </c>
       <c r="K25" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M25" s="31">
         <f t="shared" si="2"/>
@@ -22418,7 +22418,7 @@
       </c>
       <c r="K27" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M27" s="31">
         <f t="shared" si="2"/>
@@ -22542,7 +22542,7 @@
       </c>
       <c r="K29" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M29" s="31">
         <f t="shared" si="2"/>
@@ -22666,7 +22666,7 @@
       </c>
       <c r="K31" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M31" s="31">
         <f t="shared" si="2"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="K33" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M33" s="31">
         <f t="shared" si="2"/>
@@ -22914,7 +22914,7 @@
       </c>
       <c r="K35" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M35" s="31">
         <f t="shared" si="2"/>
@@ -23038,7 +23038,7 @@
       </c>
       <c r="K37" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M37" s="31">
         <f t="shared" si="2"/>
@@ -23162,7 +23162,7 @@
       </c>
       <c r="K39" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M39" s="31">
         <f t="shared" si="2"/>
@@ -23286,7 +23286,7 @@
       </c>
       <c r="K41" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M41" s="31">
         <f t="shared" si="2"/>
@@ -23410,7 +23410,7 @@
       </c>
       <c r="K43" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M43" s="31">
         <f t="shared" si="2"/>
@@ -23534,7 +23534,7 @@
       </c>
       <c r="K45" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M45" s="31">
         <f t="shared" si="2"/>
@@ -23658,7 +23658,7 @@
       </c>
       <c r="K47" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M47" s="31">
         <f t="shared" si="2"/>
@@ -23782,7 +23782,7 @@
       </c>
       <c r="K49" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M49" s="31">
         <f t="shared" si="2"/>
@@ -23906,7 +23906,7 @@
       </c>
       <c r="K51" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M51" s="31">
         <f t="shared" si="2"/>
@@ -24030,7 +24030,7 @@
       </c>
       <c r="K53" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M53" s="31">
         <f t="shared" si="2"/>
@@ -24154,7 +24154,7 @@
       </c>
       <c r="K55" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M55" s="31">
         <f t="shared" si="2"/>
@@ -24278,7 +24278,7 @@
       </c>
       <c r="K57" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M57" s="31">
         <f t="shared" si="2"/>
